--- a/Code/Results/Cases/Case_1_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9575649963657343</v>
+        <v>0.9575649963657341</v>
       </c>
       <c r="D2">
         <v>1.027437199804454</v>
       </c>
       <c r="E2">
-        <v>0.9711326843367022</v>
+        <v>0.971132684336702</v>
       </c>
       <c r="F2">
-        <v>0.978169623148982</v>
+        <v>0.9781696231489819</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.044047281877869</v>
       </c>
       <c r="J2">
-        <v>0.9810934969620402</v>
+        <v>0.9810934969620398</v>
       </c>
       <c r="K2">
         <v>1.038527079699039</v>
       </c>
       <c r="L2">
-        <v>0.9830093950395824</v>
+        <v>0.9830093950395822</v>
       </c>
       <c r="M2">
-        <v>0.9899417072728591</v>
+        <v>0.9899417072728589</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9676329404989215</v>
+        <v>0.967632940498922</v>
       </c>
       <c r="D3">
         <v>1.03062222103193</v>
       </c>
       <c r="E3">
-        <v>0.9796616359077792</v>
+        <v>0.9796616359077795</v>
       </c>
       <c r="F3">
-        <v>0.9875567443866203</v>
+        <v>0.987556744386621</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.046132600431404</v>
       </c>
       <c r="J3">
-        <v>0.9890466153048653</v>
+        <v>0.9890466153048658</v>
       </c>
       <c r="K3">
-        <v>1.040877722018417</v>
+        <v>1.040877722018418</v>
       </c>
       <c r="L3">
-        <v>0.9905615386002382</v>
+        <v>0.9905615386002385</v>
       </c>
       <c r="M3">
-        <v>0.9983513543971737</v>
+        <v>0.998351354397174</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9738840810126633</v>
+        <v>0.9738840810126629</v>
       </c>
       <c r="D4">
         <v>1.032614490853256</v>
       </c>
       <c r="E4">
-        <v>0.9849654902708549</v>
+        <v>0.9849654902708542</v>
       </c>
       <c r="F4">
-        <v>0.9933929012687114</v>
+        <v>0.9933929012687106</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047413098723619</v>
+        <v>1.047413098723618</v>
       </c>
       <c r="J4">
-        <v>0.993980277995926</v>
+        <v>0.9939802779959256</v>
       </c>
       <c r="K4">
         <v>1.042334599447591</v>
       </c>
       <c r="L4">
-        <v>0.9952488205730162</v>
+        <v>0.9952488205730158</v>
       </c>
       <c r="M4">
-        <v>1.003571727717205</v>
+        <v>1.003571727717204</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9764537957137568</v>
+        <v>0.9764537957137571</v>
       </c>
       <c r="D5">
         <v>1.0334365074335</v>
       </c>
       <c r="E5">
-        <v>0.9871475905103644</v>
+        <v>0.9871475905103647</v>
       </c>
       <c r="F5">
-        <v>0.9957936331899803</v>
+        <v>0.9957936331899808</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047935830845944</v>
+        <v>1.047935830845945</v>
       </c>
       <c r="J5">
-        <v>0.9960072228784712</v>
+        <v>0.9960072228784717</v>
       </c>
       <c r="K5">
-        <v>1.042932544450488</v>
+        <v>1.042932544450489</v>
       </c>
       <c r="L5">
-        <v>0.9971750837574208</v>
+        <v>0.997175083757421</v>
       </c>
       <c r="M5">
-        <v>1.005717209730356</v>
+        <v>1.005717209730357</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9768819746617036</v>
+        <v>0.9768819746617041</v>
       </c>
       <c r="D6">
         <v>1.03357364108036</v>
       </c>
       <c r="E6">
-        <v>0.9875112837105378</v>
+        <v>0.9875112837105381</v>
       </c>
       <c r="F6">
-        <v>0.9961937432976402</v>
+        <v>0.9961937432976403</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.048022709696997</v>
       </c>
       <c r="J6">
-        <v>0.9963448897207362</v>
+        <v>0.9963448897207365</v>
       </c>
       <c r="K6">
         <v>1.043032112593893</v>
       </c>
       <c r="L6">
-        <v>0.9974960093107983</v>
+        <v>0.9974960093107985</v>
       </c>
       <c r="M6">
         <v>1.006074664791893</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9739186406760239</v>
+        <v>0.9739186406760234</v>
       </c>
       <c r="D7">
         <v>1.032625534597764</v>
       </c>
       <c r="E7">
-        <v>0.9849948300850452</v>
+        <v>0.9849948300850443</v>
       </c>
       <c r="F7">
-        <v>0.9934251822395502</v>
+        <v>0.9934251822395496</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.047420143649422</v>
       </c>
       <c r="J7">
-        <v>0.9940075428872159</v>
+        <v>0.9940075428872154</v>
       </c>
       <c r="K7">
         <v>1.042342645268869</v>
       </c>
       <c r="L7">
-        <v>0.9952747290555094</v>
+        <v>0.9952747290555087</v>
       </c>
       <c r="M7">
-        <v>1.003600584242242</v>
+        <v>1.003600584242241</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,7 +649,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9610251577689256</v>
+        <v>0.9610251577689258</v>
       </c>
       <c r="D8">
         <v>1.028528384068613</v>
@@ -658,13 +658,13 @@
         <v>0.9740620409344493</v>
       </c>
       <c r="F8">
-        <v>0.9813939903608206</v>
+        <v>0.9813939903608208</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044766850839754</v>
+        <v>1.044766850839755</v>
       </c>
       <c r="J8">
         <v>0.9838276829674166</v>
@@ -673,10 +673,10 @@
         <v>1.039335303658057</v>
       </c>
       <c r="L8">
-        <v>0.9856052114871648</v>
+        <v>0.9856052114871647</v>
       </c>
       <c r="M8">
-        <v>0.9928320329679655</v>
+        <v>0.9928320329679657</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,19 +684,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9360331418192153</v>
+        <v>0.9360331418192145</v>
       </c>
       <c r="D9">
-        <v>1.020735951206034</v>
+        <v>1.020735951206033</v>
       </c>
       <c r="E9">
-        <v>0.9529500130007634</v>
+        <v>0.9529500130007628</v>
       </c>
       <c r="F9">
-        <v>0.9581517706452265</v>
+        <v>0.9581517706452257</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.039517451052829</v>
       </c>
       <c r="J9">
-        <v>0.9640661603965229</v>
+        <v>0.9640661603965224</v>
       </c>
       <c r="K9">
-        <v>1.033501327749811</v>
+        <v>1.03350132774981</v>
       </c>
       <c r="L9">
-        <v>0.9668555389669832</v>
+        <v>0.9668555389669825</v>
       </c>
       <c r="M9">
-        <v>0.971962371473839</v>
+        <v>0.9719623714738382</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9174122128658619</v>
+        <v>0.9174122128658628</v>
       </c>
       <c r="D10">
-        <v>1.015077397468244</v>
+        <v>1.015077397468245</v>
       </c>
       <c r="E10">
-        <v>0.9372932413355487</v>
+        <v>0.9372932413355499</v>
       </c>
       <c r="F10">
-        <v>0.9409127793224338</v>
+        <v>0.9409127793224347</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035553235773041</v>
+        <v>1.035553235773042</v>
       </c>
       <c r="J10">
-        <v>0.9493342790809245</v>
+        <v>0.9493342790809255</v>
       </c>
       <c r="K10">
-        <v>1.029179658406138</v>
+        <v>1.029179658406139</v>
       </c>
       <c r="L10">
-        <v>0.9528951605383044</v>
+        <v>0.9528951605383054</v>
       </c>
       <c r="M10">
-        <v>0.9564376292192875</v>
+        <v>0.9564376292192887</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.908757547118058</v>
+        <v>0.9087575471180575</v>
       </c>
       <c r="D11">
         <v>1.012494666154361</v>
       </c>
       <c r="E11">
-        <v>0.9300390641226368</v>
+        <v>0.9300390641226364</v>
       </c>
       <c r="F11">
-        <v>0.9329260383648939</v>
+        <v>0.9329260383648932</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.033703668574179</v>
       </c>
       <c r="J11">
-        <v>0.9424887850035858</v>
+        <v>0.9424887850035852</v>
       </c>
       <c r="K11">
         <v>1.027184736411832</v>
       </c>
       <c r="L11">
-        <v>0.9464130258559432</v>
+        <v>0.9464130258559427</v>
       </c>
       <c r="M11">
-        <v>0.949234330162691</v>
+        <v>0.9492343301626904</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,7 +801,7 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9054400220479756</v>
+        <v>0.9054400220479759</v>
       </c>
       <c r="D12">
         <v>1.011512982825959</v>
@@ -810,7 +810,7 @@
         <v>0.9272623738142736</v>
       </c>
       <c r="F12">
-        <v>0.9298691410572173</v>
+        <v>0.9298691410572176</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -825,10 +825,10 @@
         <v>1.02642288695714</v>
       </c>
       <c r="L12">
-        <v>0.9439296819402249</v>
+        <v>0.9439296819402251</v>
       </c>
       <c r="M12">
-        <v>0.9464756820235327</v>
+        <v>0.946475682023533</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9061565532396441</v>
+        <v>0.9061565532396449</v>
       </c>
       <c r="D13">
         <v>1.011724613073246</v>
       </c>
       <c r="E13">
-        <v>0.9278619031341532</v>
+        <v>0.9278619031341538</v>
       </c>
       <c r="F13">
-        <v>0.9305291602074232</v>
+        <v>0.9305291602074239</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.033147441730353</v>
       </c>
       <c r="J13">
-        <v>0.9404319548810172</v>
+        <v>0.9404319548810178</v>
       </c>
       <c r="K13">
         <v>1.026587291675324</v>
       </c>
       <c r="L13">
-        <v>0.9444659724318916</v>
+        <v>0.9444659724318921</v>
       </c>
       <c r="M13">
-        <v>0.9470713782140159</v>
+        <v>0.9470713782140163</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,16 +874,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C14">
-        <v>0.9084855085445631</v>
+        <v>0.9084855085445634</v>
       </c>
       <c r="D14">
-        <v>1.01241399161452</v>
+        <v>1.012413991614519</v>
       </c>
       <c r="E14">
-        <v>0.9298112898728416</v>
+        <v>0.9298112898728417</v>
       </c>
       <c r="F14">
         <v>0.9326752737347362</v>
@@ -895,13 +895,13 @@
         <v>1.033645497776986</v>
       </c>
       <c r="J14">
-        <v>0.9422736493129531</v>
+        <v>0.9422736493129533</v>
       </c>
       <c r="K14">
         <v>1.027122201923826</v>
       </c>
       <c r="L14">
-        <v>0.9462093593593101</v>
+        <v>0.9462093593593102</v>
       </c>
       <c r="M14">
         <v>0.9490080641256159</v>
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9099063622178664</v>
+        <v>0.909906362217865</v>
       </c>
       <c r="D15">
         <v>1.012835698344857</v>
       </c>
       <c r="E15">
-        <v>0.9310011168297141</v>
+        <v>0.9310011168297129</v>
       </c>
       <c r="F15">
-        <v>0.9339852045602598</v>
+        <v>0.9339852045602586</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033949306699949</v>
+        <v>1.033949306699948</v>
       </c>
       <c r="J15">
-        <v>0.943397327561498</v>
+        <v>0.9433973275614969</v>
       </c>
       <c r="K15">
-        <v>1.027448938818078</v>
+        <v>1.027448938818077</v>
       </c>
       <c r="L15">
-        <v>0.9472731661457867</v>
+        <v>0.9472731661457857</v>
       </c>
       <c r="M15">
-        <v>0.950189955408219</v>
+        <v>0.9501899554082178</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9179730124661291</v>
+        <v>0.9179730124661283</v>
       </c>
       <c r="D16">
         <v>1.015245816533604</v>
       </c>
       <c r="E16">
-        <v>0.9377638042392604</v>
+        <v>0.9377638042392599</v>
       </c>
       <c r="F16">
-        <v>0.941430882047559</v>
+        <v>0.9414308820475582</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.035672983353618</v>
       </c>
       <c r="J16">
-        <v>0.9497779118409587</v>
+        <v>0.9497779118409577</v>
       </c>
       <c r="K16">
         <v>1.029309267201917</v>
       </c>
       <c r="L16">
-        <v>0.9533153512654049</v>
+        <v>0.9533153512654041</v>
       </c>
       <c r="M16">
-        <v>0.9569046898828921</v>
+        <v>0.9569046898828916</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,7 +991,7 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9228657288187967</v>
+        <v>0.9228657288187965</v>
       </c>
       <c r="D17">
         <v>1.016720574292049</v>
@@ -1009,7 +1009,7 @@
         <v>1.03671699673987</v>
       </c>
       <c r="J17">
-        <v>0.9536486178269342</v>
+        <v>0.953648617826934</v>
       </c>
       <c r="K17">
         <v>1.030441648061158</v>
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.925663564383767</v>
+        <v>0.9256635643837687</v>
       </c>
       <c r="D18">
         <v>1.017568175390893</v>
       </c>
       <c r="E18">
-        <v>0.9442230281923832</v>
+        <v>0.9442230281923848</v>
       </c>
       <c r="F18">
-        <v>0.9485428136615361</v>
+        <v>0.9485428136615375</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037313308287303</v>
+        <v>1.037313308287304</v>
       </c>
       <c r="J18">
-        <v>0.9558621519481214</v>
+        <v>0.9558621519481231</v>
       </c>
       <c r="K18">
-        <v>1.031090396511849</v>
+        <v>1.03109039651185</v>
       </c>
       <c r="L18">
-        <v>0.9590793995859556</v>
+        <v>0.9590793995859572</v>
       </c>
       <c r="M18">
-        <v>0.9633130935343129</v>
+        <v>0.9633130935343142</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9266084276692864</v>
+        <v>0.9266084276692861</v>
       </c>
       <c r="D19">
-        <v>1.017855113964679</v>
+        <v>1.017855113964678</v>
       </c>
       <c r="E19">
-        <v>0.9450173897135467</v>
+        <v>0.9450173897135464</v>
       </c>
       <c r="F19">
         <v>0.9494174578232685</v>
@@ -1082,16 +1082,16 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037514557225309</v>
+        <v>1.037514557225308</v>
       </c>
       <c r="J19">
-        <v>0.9566097003379578</v>
+        <v>0.9566097003379574</v>
       </c>
       <c r="K19">
         <v>1.031309671371685</v>
       </c>
       <c r="L19">
-        <v>0.9597877755384964</v>
+        <v>0.9597877755384963</v>
       </c>
       <c r="M19">
         <v>0.9641008324958699</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9223466698420527</v>
+        <v>0.9223466698420525</v>
       </c>
       <c r="D20">
         <v>1.016563665968832</v>
       </c>
       <c r="E20">
-        <v>0.9414358050961146</v>
+        <v>0.9414358050961142</v>
       </c>
       <c r="F20">
-        <v>0.9454739131490013</v>
+        <v>0.945473913149001</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.036606307979455</v>
       </c>
       <c r="J20">
-        <v>0.953237966899089</v>
+        <v>0.9532379668990889</v>
       </c>
       <c r="K20">
-        <v>1.030321384586705</v>
+        <v>1.030321384586706</v>
       </c>
       <c r="L20">
-        <v>0.9565930170697808</v>
+        <v>0.9565930170697806</v>
       </c>
       <c r="M20">
-        <v>0.9605484459032074</v>
+        <v>0.9605484459032069</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9078026549548484</v>
+        <v>0.9078026549548501</v>
       </c>
       <c r="D21">
-        <v>1.012211625729089</v>
+        <v>1.012211625729088</v>
       </c>
       <c r="E21">
-        <v>0.929239611910667</v>
+        <v>0.9292396119106685</v>
       </c>
       <c r="F21">
-        <v>0.932045897107148</v>
+        <v>0.9320458971071495</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033499475405331</v>
+        <v>1.033499475405332</v>
       </c>
       <c r="J21">
-        <v>0.941733641025007</v>
+        <v>0.9417336410250086</v>
       </c>
       <c r="K21">
         <v>1.026965280458916</v>
       </c>
       <c r="L21">
-        <v>0.9456981530523644</v>
+        <v>0.945698153052366</v>
       </c>
       <c r="M21">
-        <v>0.9484401490068852</v>
+        <v>0.9484401490068866</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8980540087633493</v>
+        <v>0.8980540087633491</v>
       </c>
       <c r="D22">
-        <v>1.009344435905176</v>
+        <v>1.009344435905177</v>
       </c>
       <c r="E22">
-        <v>0.9210886216284805</v>
+        <v>0.9210886216284803</v>
       </c>
       <c r="F22">
-        <v>0.9230728951528455</v>
+        <v>0.9230728951528453</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.031414459137204</v>
       </c>
       <c r="J22">
-        <v>0.9340263679189987</v>
+        <v>0.9340263679189986</v>
       </c>
       <c r="K22">
         <v>1.024733023075168</v>
       </c>
       <c r="L22">
-        <v>0.9384040410167427</v>
+        <v>0.9384040410167425</v>
       </c>
       <c r="M22">
-        <v>0.9403395380903139</v>
+        <v>0.9403395380903138</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9032847816004423</v>
+        <v>0.903284781600443</v>
       </c>
       <c r="D23">
         <v>1.01087775346764</v>
       </c>
       <c r="E23">
-        <v>0.9254596981176756</v>
+        <v>0.9254596981176761</v>
       </c>
       <c r="F23">
-        <v>0.9278846231481457</v>
+        <v>0.9278846231481462</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.032533224009592</v>
       </c>
       <c r="J23">
-        <v>0.9381613006342602</v>
+        <v>0.9381613006342607</v>
       </c>
       <c r="K23">
-        <v>1.025928863282703</v>
+        <v>1.025928863282702</v>
       </c>
       <c r="L23">
-        <v>0.9423168291394898</v>
+        <v>0.9423168291394902</v>
       </c>
       <c r="M23">
-        <v>0.9446843319901727</v>
+        <v>0.944684331990173</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.922581382298545</v>
+        <v>0.9225813822985439</v>
       </c>
       <c r="D24">
         <v>1.016634604846469</v>
       </c>
       <c r="E24">
-        <v>0.9416329674836382</v>
+        <v>0.9416329674836368</v>
       </c>
       <c r="F24">
-        <v>0.9456909997688167</v>
+        <v>0.9456909997688159</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.036656362357281</v>
       </c>
       <c r="J24">
-        <v>0.9534236581391596</v>
+        <v>0.9534236581391584</v>
       </c>
       <c r="K24">
-        <v>1.030375762618796</v>
+        <v>1.030375762618797</v>
       </c>
       <c r="L24">
-        <v>0.9567689422704913</v>
+        <v>0.95676894227049</v>
       </c>
       <c r="M24">
-        <v>0.9607440444288854</v>
+        <v>0.9607440444288846</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9428031303048983</v>
+        <v>0.9428031303048976</v>
       </c>
       <c r="D25">
         <v>1.022825636983165</v>
       </c>
       <c r="E25">
-        <v>0.9586581998180342</v>
+        <v>0.9586581998180336</v>
       </c>
       <c r="F25">
-        <v>0.9644366211244473</v>
+        <v>0.9644366211244467</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.040949836398915</v>
       </c>
       <c r="J25">
-        <v>0.9694215859627459</v>
+        <v>0.9694215859627453</v>
       </c>
       <c r="K25">
         <v>1.035079654327781</v>
       </c>
       <c r="L25">
-        <v>0.9719340919636303</v>
+        <v>0.9719340919636295</v>
       </c>
       <c r="M25">
-        <v>0.9776132974766605</v>
+        <v>0.9776132974766599</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_bus/vm_pu.xlsx
@@ -421,16 +421,16 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9575649963657341</v>
+        <v>0.9575649963657343</v>
       </c>
       <c r="D2">
         <v>1.027437199804454</v>
       </c>
       <c r="E2">
-        <v>0.971132684336702</v>
+        <v>0.9711326843367022</v>
       </c>
       <c r="F2">
-        <v>0.9781696231489819</v>
+        <v>0.978169623148982</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.044047281877869</v>
       </c>
       <c r="J2">
-        <v>0.9810934969620398</v>
+        <v>0.9810934969620402</v>
       </c>
       <c r="K2">
         <v>1.038527079699039</v>
       </c>
       <c r="L2">
-        <v>0.9830093950395822</v>
+        <v>0.9830093950395824</v>
       </c>
       <c r="M2">
-        <v>0.9899417072728589</v>
+        <v>0.9899417072728591</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,16 +459,16 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.967632940498922</v>
+        <v>0.9676329404989215</v>
       </c>
       <c r="D3">
         <v>1.03062222103193</v>
       </c>
       <c r="E3">
-        <v>0.9796616359077795</v>
+        <v>0.9796616359077792</v>
       </c>
       <c r="F3">
-        <v>0.987556744386621</v>
+        <v>0.9875567443866203</v>
       </c>
       <c r="G3">
         <v>1</v>
@@ -477,16 +477,16 @@
         <v>1.046132600431404</v>
       </c>
       <c r="J3">
-        <v>0.9890466153048658</v>
+        <v>0.9890466153048653</v>
       </c>
       <c r="K3">
-        <v>1.040877722018418</v>
+        <v>1.040877722018417</v>
       </c>
       <c r="L3">
-        <v>0.9905615386002385</v>
+        <v>0.9905615386002382</v>
       </c>
       <c r="M3">
-        <v>0.998351354397174</v>
+        <v>0.9983513543971737</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +497,34 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9738840810126629</v>
+        <v>0.9738840810126633</v>
       </c>
       <c r="D4">
         <v>1.032614490853256</v>
       </c>
       <c r="E4">
-        <v>0.9849654902708542</v>
+        <v>0.9849654902708549</v>
       </c>
       <c r="F4">
-        <v>0.9933929012687106</v>
+        <v>0.9933929012687114</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047413098723618</v>
+        <v>1.047413098723619</v>
       </c>
       <c r="J4">
-        <v>0.9939802779959256</v>
+        <v>0.993980277995926</v>
       </c>
       <c r="K4">
         <v>1.042334599447591</v>
       </c>
       <c r="L4">
-        <v>0.9952488205730158</v>
+        <v>0.9952488205730162</v>
       </c>
       <c r="M4">
-        <v>1.003571727717204</v>
+        <v>1.003571727717205</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9764537957137571</v>
+        <v>0.9764537957137568</v>
       </c>
       <c r="D5">
         <v>1.0334365074335</v>
       </c>
       <c r="E5">
-        <v>0.9871475905103647</v>
+        <v>0.9871475905103644</v>
       </c>
       <c r="F5">
-        <v>0.9957936331899808</v>
+        <v>0.9957936331899803</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047935830845945</v>
+        <v>1.047935830845944</v>
       </c>
       <c r="J5">
-        <v>0.9960072228784717</v>
+        <v>0.9960072228784712</v>
       </c>
       <c r="K5">
-        <v>1.042932544450489</v>
+        <v>1.042932544450488</v>
       </c>
       <c r="L5">
-        <v>0.997175083757421</v>
+        <v>0.9971750837574208</v>
       </c>
       <c r="M5">
-        <v>1.005717209730357</v>
+        <v>1.005717209730356</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,16 +573,16 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9768819746617041</v>
+        <v>0.9768819746617036</v>
       </c>
       <c r="D6">
         <v>1.03357364108036</v>
       </c>
       <c r="E6">
-        <v>0.9875112837105381</v>
+        <v>0.9875112837105378</v>
       </c>
       <c r="F6">
-        <v>0.9961937432976403</v>
+        <v>0.9961937432976402</v>
       </c>
       <c r="G6">
         <v>1</v>
@@ -591,13 +591,13 @@
         <v>1.048022709696997</v>
       </c>
       <c r="J6">
-        <v>0.9963448897207365</v>
+        <v>0.9963448897207362</v>
       </c>
       <c r="K6">
         <v>1.043032112593893</v>
       </c>
       <c r="L6">
-        <v>0.9974960093107985</v>
+        <v>0.9974960093107983</v>
       </c>
       <c r="M6">
         <v>1.006074664791893</v>
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9739186406760234</v>
+        <v>0.9739186406760239</v>
       </c>
       <c r="D7">
         <v>1.032625534597764</v>
       </c>
       <c r="E7">
-        <v>0.9849948300850443</v>
+        <v>0.9849948300850452</v>
       </c>
       <c r="F7">
-        <v>0.9934251822395496</v>
+        <v>0.9934251822395502</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.047420143649422</v>
       </c>
       <c r="J7">
-        <v>0.9940075428872154</v>
+        <v>0.9940075428872159</v>
       </c>
       <c r="K7">
         <v>1.042342645268869</v>
       </c>
       <c r="L7">
-        <v>0.9952747290555087</v>
+        <v>0.9952747290555094</v>
       </c>
       <c r="M7">
-        <v>1.003600584242241</v>
+        <v>1.003600584242242</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,7 +649,7 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9610251577689258</v>
+        <v>0.9610251577689256</v>
       </c>
       <c r="D8">
         <v>1.028528384068613</v>
@@ -658,13 +658,13 @@
         <v>0.9740620409344493</v>
       </c>
       <c r="F8">
-        <v>0.9813939903608208</v>
+        <v>0.9813939903608206</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044766850839755</v>
+        <v>1.044766850839754</v>
       </c>
       <c r="J8">
         <v>0.9838276829674166</v>
@@ -673,10 +673,10 @@
         <v>1.039335303658057</v>
       </c>
       <c r="L8">
-        <v>0.9856052114871647</v>
+        <v>0.9856052114871648</v>
       </c>
       <c r="M8">
-        <v>0.9928320329679657</v>
+        <v>0.9928320329679655</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,19 +684,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C9">
-        <v>0.9360331418192145</v>
+        <v>0.9360331418192153</v>
       </c>
       <c r="D9">
-        <v>1.020735951206033</v>
+        <v>1.020735951206034</v>
       </c>
       <c r="E9">
-        <v>0.9529500130007628</v>
+        <v>0.9529500130007634</v>
       </c>
       <c r="F9">
-        <v>0.9581517706452257</v>
+        <v>0.9581517706452265</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.039517451052829</v>
       </c>
       <c r="J9">
-        <v>0.9640661603965224</v>
+        <v>0.9640661603965229</v>
       </c>
       <c r="K9">
-        <v>1.03350132774981</v>
+        <v>1.033501327749811</v>
       </c>
       <c r="L9">
-        <v>0.9668555389669825</v>
+        <v>0.9668555389669832</v>
       </c>
       <c r="M9">
-        <v>0.9719623714738382</v>
+        <v>0.971962371473839</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9174122128658628</v>
+        <v>0.9174122128658619</v>
       </c>
       <c r="D10">
-        <v>1.015077397468245</v>
+        <v>1.015077397468244</v>
       </c>
       <c r="E10">
-        <v>0.9372932413355499</v>
+        <v>0.9372932413355487</v>
       </c>
       <c r="F10">
-        <v>0.9409127793224347</v>
+        <v>0.9409127793224338</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035553235773042</v>
+        <v>1.035553235773041</v>
       </c>
       <c r="J10">
-        <v>0.9493342790809255</v>
+        <v>0.9493342790809245</v>
       </c>
       <c r="K10">
-        <v>1.029179658406139</v>
+        <v>1.029179658406138</v>
       </c>
       <c r="L10">
-        <v>0.9528951605383054</v>
+        <v>0.9528951605383044</v>
       </c>
       <c r="M10">
-        <v>0.9564376292192887</v>
+        <v>0.9564376292192875</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,16 +763,16 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9087575471180575</v>
+        <v>0.908757547118058</v>
       </c>
       <c r="D11">
         <v>1.012494666154361</v>
       </c>
       <c r="E11">
-        <v>0.9300390641226364</v>
+        <v>0.9300390641226368</v>
       </c>
       <c r="F11">
-        <v>0.9329260383648932</v>
+        <v>0.9329260383648939</v>
       </c>
       <c r="G11">
         <v>1</v>
@@ -781,16 +781,16 @@
         <v>1.033703668574179</v>
       </c>
       <c r="J11">
-        <v>0.9424887850035852</v>
+        <v>0.9424887850035858</v>
       </c>
       <c r="K11">
         <v>1.027184736411832</v>
       </c>
       <c r="L11">
-        <v>0.9464130258559427</v>
+        <v>0.9464130258559432</v>
       </c>
       <c r="M11">
-        <v>0.9492343301626904</v>
+        <v>0.949234330162691</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,7 +801,7 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9054400220479759</v>
+        <v>0.9054400220479756</v>
       </c>
       <c r="D12">
         <v>1.011512982825959</v>
@@ -810,7 +810,7 @@
         <v>0.9272623738142736</v>
       </c>
       <c r="F12">
-        <v>0.9298691410572176</v>
+        <v>0.9298691410572173</v>
       </c>
       <c r="G12">
         <v>1</v>
@@ -825,10 +825,10 @@
         <v>1.02642288695714</v>
       </c>
       <c r="L12">
-        <v>0.9439296819402251</v>
+        <v>0.9439296819402249</v>
       </c>
       <c r="M12">
-        <v>0.946475682023533</v>
+        <v>0.9464756820235327</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9061565532396449</v>
+        <v>0.9061565532396441</v>
       </c>
       <c r="D13">
         <v>1.011724613073246</v>
       </c>
       <c r="E13">
-        <v>0.9278619031341538</v>
+        <v>0.9278619031341532</v>
       </c>
       <c r="F13">
-        <v>0.9305291602074239</v>
+        <v>0.9305291602074232</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.033147441730353</v>
       </c>
       <c r="J13">
-        <v>0.9404319548810178</v>
+        <v>0.9404319548810172</v>
       </c>
       <c r="K13">
         <v>1.026587291675324</v>
       </c>
       <c r="L13">
-        <v>0.9444659724318921</v>
+        <v>0.9444659724318916</v>
       </c>
       <c r="M13">
-        <v>0.9470713782140163</v>
+        <v>0.9470713782140159</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -874,16 +874,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9084855085445634</v>
+        <v>0.9084855085445631</v>
       </c>
       <c r="D14">
-        <v>1.012413991614519</v>
+        <v>1.01241399161452</v>
       </c>
       <c r="E14">
-        <v>0.9298112898728417</v>
+        <v>0.9298112898728416</v>
       </c>
       <c r="F14">
         <v>0.9326752737347362</v>
@@ -895,13 +895,13 @@
         <v>1.033645497776986</v>
       </c>
       <c r="J14">
-        <v>0.9422736493129533</v>
+        <v>0.9422736493129531</v>
       </c>
       <c r="K14">
         <v>1.027122201923826</v>
       </c>
       <c r="L14">
-        <v>0.9462093593593102</v>
+        <v>0.9462093593593101</v>
       </c>
       <c r="M14">
         <v>0.9490080641256159</v>
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.909906362217865</v>
+        <v>0.9099063622178664</v>
       </c>
       <c r="D15">
         <v>1.012835698344857</v>
       </c>
       <c r="E15">
-        <v>0.9310011168297129</v>
+        <v>0.9310011168297141</v>
       </c>
       <c r="F15">
-        <v>0.9339852045602586</v>
+        <v>0.9339852045602598</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033949306699948</v>
+        <v>1.033949306699949</v>
       </c>
       <c r="J15">
-        <v>0.9433973275614969</v>
+        <v>0.943397327561498</v>
       </c>
       <c r="K15">
-        <v>1.027448938818077</v>
+        <v>1.027448938818078</v>
       </c>
       <c r="L15">
-        <v>0.9472731661457857</v>
+        <v>0.9472731661457867</v>
       </c>
       <c r="M15">
-        <v>0.9501899554082178</v>
+        <v>0.950189955408219</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,16 +953,16 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9179730124661283</v>
+        <v>0.9179730124661291</v>
       </c>
       <c r="D16">
         <v>1.015245816533604</v>
       </c>
       <c r="E16">
-        <v>0.9377638042392599</v>
+        <v>0.9377638042392604</v>
       </c>
       <c r="F16">
-        <v>0.9414308820475582</v>
+        <v>0.941430882047559</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -971,16 +971,16 @@
         <v>1.035672983353618</v>
       </c>
       <c r="J16">
-        <v>0.9497779118409577</v>
+        <v>0.9497779118409587</v>
       </c>
       <c r="K16">
         <v>1.029309267201917</v>
       </c>
       <c r="L16">
-        <v>0.9533153512654041</v>
+        <v>0.9533153512654049</v>
       </c>
       <c r="M16">
-        <v>0.9569046898828916</v>
+        <v>0.9569046898828921</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,7 +991,7 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9228657288187965</v>
+        <v>0.9228657288187967</v>
       </c>
       <c r="D17">
         <v>1.016720574292049</v>
@@ -1009,7 +1009,7 @@
         <v>1.03671699673987</v>
       </c>
       <c r="J17">
-        <v>0.953648617826934</v>
+        <v>0.9536486178269342</v>
       </c>
       <c r="K17">
         <v>1.030441648061158</v>
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9256635643837687</v>
+        <v>0.925663564383767</v>
       </c>
       <c r="D18">
         <v>1.017568175390893</v>
       </c>
       <c r="E18">
-        <v>0.9442230281923848</v>
+        <v>0.9442230281923832</v>
       </c>
       <c r="F18">
-        <v>0.9485428136615375</v>
+        <v>0.9485428136615361</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037313308287304</v>
+        <v>1.037313308287303</v>
       </c>
       <c r="J18">
-        <v>0.9558621519481231</v>
+        <v>0.9558621519481214</v>
       </c>
       <c r="K18">
-        <v>1.03109039651185</v>
+        <v>1.031090396511849</v>
       </c>
       <c r="L18">
-        <v>0.9590793995859572</v>
+        <v>0.9590793995859556</v>
       </c>
       <c r="M18">
-        <v>0.9633130935343142</v>
+        <v>0.9633130935343129</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,13 +1067,13 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9266084276692861</v>
+        <v>0.9266084276692864</v>
       </c>
       <c r="D19">
-        <v>1.017855113964678</v>
+        <v>1.017855113964679</v>
       </c>
       <c r="E19">
-        <v>0.9450173897135464</v>
+        <v>0.9450173897135467</v>
       </c>
       <c r="F19">
         <v>0.9494174578232685</v>
@@ -1082,16 +1082,16 @@
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037514557225308</v>
+        <v>1.037514557225309</v>
       </c>
       <c r="J19">
-        <v>0.9566097003379574</v>
+        <v>0.9566097003379578</v>
       </c>
       <c r="K19">
         <v>1.031309671371685</v>
       </c>
       <c r="L19">
-        <v>0.9597877755384963</v>
+        <v>0.9597877755384964</v>
       </c>
       <c r="M19">
         <v>0.9641008324958699</v>
@@ -1105,16 +1105,16 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9223466698420525</v>
+        <v>0.9223466698420527</v>
       </c>
       <c r="D20">
         <v>1.016563665968832</v>
       </c>
       <c r="E20">
-        <v>0.9414358050961142</v>
+        <v>0.9414358050961146</v>
       </c>
       <c r="F20">
-        <v>0.945473913149001</v>
+        <v>0.9454739131490013</v>
       </c>
       <c r="G20">
         <v>1</v>
@@ -1123,16 +1123,16 @@
         <v>1.036606307979455</v>
       </c>
       <c r="J20">
-        <v>0.9532379668990889</v>
+        <v>0.953237966899089</v>
       </c>
       <c r="K20">
-        <v>1.030321384586706</v>
+        <v>1.030321384586705</v>
       </c>
       <c r="L20">
-        <v>0.9565930170697806</v>
+        <v>0.9565930170697808</v>
       </c>
       <c r="M20">
-        <v>0.9605484459032069</v>
+        <v>0.9605484459032074</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9078026549548501</v>
+        <v>0.9078026549548484</v>
       </c>
       <c r="D21">
-        <v>1.012211625729088</v>
+        <v>1.012211625729089</v>
       </c>
       <c r="E21">
-        <v>0.9292396119106685</v>
+        <v>0.929239611910667</v>
       </c>
       <c r="F21">
-        <v>0.9320458971071495</v>
+        <v>0.932045897107148</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033499475405332</v>
+        <v>1.033499475405331</v>
       </c>
       <c r="J21">
-        <v>0.9417336410250086</v>
+        <v>0.941733641025007</v>
       </c>
       <c r="K21">
         <v>1.026965280458916</v>
       </c>
       <c r="L21">
-        <v>0.945698153052366</v>
+        <v>0.9456981530523644</v>
       </c>
       <c r="M21">
-        <v>0.9484401490068866</v>
+        <v>0.9484401490068852</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8980540087633491</v>
+        <v>0.8980540087633493</v>
       </c>
       <c r="D22">
-        <v>1.009344435905177</v>
+        <v>1.009344435905176</v>
       </c>
       <c r="E22">
-        <v>0.9210886216284803</v>
+        <v>0.9210886216284805</v>
       </c>
       <c r="F22">
-        <v>0.9230728951528453</v>
+        <v>0.9230728951528455</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.031414459137204</v>
       </c>
       <c r="J22">
-        <v>0.9340263679189986</v>
+        <v>0.9340263679189987</v>
       </c>
       <c r="K22">
         <v>1.024733023075168</v>
       </c>
       <c r="L22">
-        <v>0.9384040410167425</v>
+        <v>0.9384040410167427</v>
       </c>
       <c r="M22">
-        <v>0.9403395380903138</v>
+        <v>0.9403395380903139</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.903284781600443</v>
+        <v>0.9032847816004423</v>
       </c>
       <c r="D23">
         <v>1.01087775346764</v>
       </c>
       <c r="E23">
-        <v>0.9254596981176761</v>
+        <v>0.9254596981176756</v>
       </c>
       <c r="F23">
-        <v>0.9278846231481462</v>
+        <v>0.9278846231481457</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.032533224009592</v>
       </c>
       <c r="J23">
-        <v>0.9381613006342607</v>
+        <v>0.9381613006342602</v>
       </c>
       <c r="K23">
-        <v>1.025928863282702</v>
+        <v>1.025928863282703</v>
       </c>
       <c r="L23">
-        <v>0.9423168291394902</v>
+        <v>0.9423168291394898</v>
       </c>
       <c r="M23">
-        <v>0.944684331990173</v>
+        <v>0.9446843319901727</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,16 +1257,16 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9225813822985439</v>
+        <v>0.922581382298545</v>
       </c>
       <c r="D24">
         <v>1.016634604846469</v>
       </c>
       <c r="E24">
-        <v>0.9416329674836368</v>
+        <v>0.9416329674836382</v>
       </c>
       <c r="F24">
-        <v>0.9456909997688159</v>
+        <v>0.9456909997688167</v>
       </c>
       <c r="G24">
         <v>1</v>
@@ -1275,16 +1275,16 @@
         <v>1.036656362357281</v>
       </c>
       <c r="J24">
-        <v>0.9534236581391584</v>
+        <v>0.9534236581391596</v>
       </c>
       <c r="K24">
-        <v>1.030375762618797</v>
+        <v>1.030375762618796</v>
       </c>
       <c r="L24">
-        <v>0.95676894227049</v>
+        <v>0.9567689422704913</v>
       </c>
       <c r="M24">
-        <v>0.9607440444288846</v>
+        <v>0.9607440444288854</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,16 +1295,16 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9428031303048976</v>
+        <v>0.9428031303048983</v>
       </c>
       <c r="D25">
         <v>1.022825636983165</v>
       </c>
       <c r="E25">
-        <v>0.9586581998180336</v>
+        <v>0.9586581998180342</v>
       </c>
       <c r="F25">
-        <v>0.9644366211244467</v>
+        <v>0.9644366211244473</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,16 +1313,16 @@
         <v>1.040949836398915</v>
       </c>
       <c r="J25">
-        <v>0.9694215859627453</v>
+        <v>0.9694215859627459</v>
       </c>
       <c r="K25">
         <v>1.035079654327781</v>
       </c>
       <c r="L25">
-        <v>0.9719340919636295</v>
+        <v>0.9719340919636303</v>
       </c>
       <c r="M25">
-        <v>0.9776132974766599</v>
+        <v>0.9776132974766605</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9575649963657343</v>
+        <v>0.9576148273977189</v>
       </c>
       <c r="D2">
-        <v>1.027437199804454</v>
+        <v>1.027445715012234</v>
       </c>
       <c r="E2">
-        <v>0.9711326843367022</v>
+        <v>0.9711768919292388</v>
       </c>
       <c r="F2">
-        <v>0.978169623148982</v>
+        <v>0.9782108799482558</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044047281877869</v>
+        <v>1.044057194735795</v>
       </c>
       <c r="J2">
-        <v>0.9810934969620402</v>
+        <v>0.9811416475848024</v>
       </c>
       <c r="K2">
-        <v>1.038527079699039</v>
+        <v>1.038535484081886</v>
       </c>
       <c r="L2">
-        <v>0.9830093950395824</v>
+        <v>0.9830529393219801</v>
       </c>
       <c r="M2">
-        <v>0.9899417072728591</v>
+        <v>0.9899823562954509</v>
+      </c>
+      <c r="N2">
+        <v>0.9885414591931919</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9676329404989215</v>
+        <v>0.9676726897220926</v>
       </c>
       <c r="D3">
-        <v>1.03062222103193</v>
+        <v>1.030629045607874</v>
       </c>
       <c r="E3">
-        <v>0.9796616359077792</v>
+        <v>0.9796970552920811</v>
       </c>
       <c r="F3">
-        <v>0.9875567443866203</v>
+        <v>0.9875897355822711</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046132600431404</v>
+        <v>1.046140584980567</v>
       </c>
       <c r="J3">
-        <v>0.9890466153048653</v>
+        <v>0.9890851788884585</v>
       </c>
       <c r="K3">
-        <v>1.040877722018417</v>
+        <v>1.040884465588647</v>
       </c>
       <c r="L3">
-        <v>0.9905615386002382</v>
+        <v>0.9905964808523284</v>
       </c>
       <c r="M3">
-        <v>0.9983513543971737</v>
+        <v>0.9983839100379031</v>
+      </c>
+      <c r="N3">
+        <v>0.994067931745544</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9738840810126633</v>
+        <v>0.9739177609127906</v>
       </c>
       <c r="D4">
-        <v>1.032614490853256</v>
+        <v>1.032620299063134</v>
       </c>
       <c r="E4">
-        <v>0.9849654902708549</v>
+        <v>0.9849956072413558</v>
       </c>
       <c r="F4">
-        <v>0.9933929012687114</v>
+        <v>0.9934209261770114</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047413098723619</v>
+        <v>1.047419920402752</v>
       </c>
       <c r="J4">
-        <v>0.993980277995926</v>
+        <v>0.9940130322228253</v>
       </c>
       <c r="K4">
-        <v>1.042334599447591</v>
+        <v>1.042340342904349</v>
       </c>
       <c r="L4">
-        <v>0.9952488205730162</v>
+        <v>0.9952785601096975</v>
       </c>
       <c r="M4">
-        <v>1.003571727717205</v>
+        <v>1.003599408782952</v>
+      </c>
+      <c r="N4">
+        <v>0.9974933480258795</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9764537957137568</v>
+        <v>0.9764850200977713</v>
       </c>
       <c r="D5">
-        <v>1.0334365074335</v>
+        <v>1.033441904786234</v>
       </c>
       <c r="E5">
-        <v>0.9871475905103644</v>
+        <v>0.987175559896359</v>
       </c>
       <c r="F5">
-        <v>0.9957936331899803</v>
+        <v>0.9958196511090639</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047935830845944</v>
+        <v>1.047942181667184</v>
       </c>
       <c r="J5">
-        <v>0.9960072228784712</v>
+        <v>0.9960376186485365</v>
       </c>
       <c r="K5">
-        <v>1.042932544450488</v>
+        <v>1.042937883242404</v>
       </c>
       <c r="L5">
-        <v>0.9971750837574208</v>
+        <v>0.9972027133338595</v>
       </c>
       <c r="M5">
-        <v>1.005717209730356</v>
+        <v>1.005742918315843</v>
+      </c>
+      <c r="N5">
+        <v>0.9988999203616044</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9768819746617036</v>
+        <v>0.9769127920540471</v>
       </c>
       <c r="D6">
-        <v>1.03357364108036</v>
+        <v>1.033578970355325</v>
       </c>
       <c r="E6">
-        <v>0.9875112837105378</v>
+        <v>0.9875388970184343</v>
       </c>
       <c r="F6">
-        <v>0.9961937432976402</v>
+        <v>0.9962194286979983</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048022709696997</v>
+        <v>1.048028982455229</v>
       </c>
       <c r="J6">
-        <v>0.9963448897207362</v>
+        <v>0.996374894134242</v>
       </c>
       <c r="K6">
-        <v>1.043032112593893</v>
+        <v>1.043037384312513</v>
       </c>
       <c r="L6">
-        <v>0.9974960093107983</v>
+        <v>0.9975232888925529</v>
       </c>
       <c r="M6">
-        <v>1.006074664791893</v>
+        <v>1.00610004643289</v>
+      </c>
+      <c r="N6">
+        <v>0.9991341964217373</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9739186406760239</v>
+        <v>0.9739522874033414</v>
       </c>
       <c r="D7">
-        <v>1.032625534597764</v>
+        <v>1.032631337255801</v>
       </c>
       <c r="E7">
-        <v>0.9849948300850452</v>
+        <v>0.9850249180514764</v>
       </c>
       <c r="F7">
-        <v>0.9934251822395502</v>
+        <v>0.9934531800254722</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047420143649422</v>
+        <v>1.047426958968922</v>
       </c>
       <c r="J7">
-        <v>0.9940075428872159</v>
+        <v>0.994040265283706</v>
       </c>
       <c r="K7">
-        <v>1.042342645268869</v>
+        <v>1.042348383258938</v>
       </c>
       <c r="L7">
-        <v>0.9952747290555094</v>
+        <v>0.9953044401068974</v>
       </c>
       <c r="M7">
-        <v>1.003600584242242</v>
+        <v>1.003628238661822</v>
+      </c>
+      <c r="N7">
+        <v>0.9975122710615167</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9610251577689256</v>
+        <v>0.9610714791573078</v>
       </c>
       <c r="D8">
-        <v>1.028528384068613</v>
+        <v>1.028536310441443</v>
       </c>
       <c r="E8">
-        <v>0.9740620409344493</v>
+        <v>0.9741031921222632</v>
       </c>
       <c r="F8">
-        <v>0.9813939903608206</v>
+        <v>0.9814323676362651</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044766850839754</v>
+        <v>1.044776092927404</v>
       </c>
       <c r="J8">
-        <v>0.9838276829674166</v>
+        <v>0.9838725050706068</v>
       </c>
       <c r="K8">
-        <v>1.039335303658057</v>
+        <v>1.039343129971158</v>
       </c>
       <c r="L8">
-        <v>0.9856052114871648</v>
+        <v>0.9856457670383365</v>
       </c>
       <c r="M8">
-        <v>0.9928320329679655</v>
+        <v>0.9928698652038113</v>
+      </c>
+      <c r="N8">
+        <v>0.9904419892926463</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -684,37 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9360331418192153</v>
+        <v>0.9361059956756932</v>
       </c>
       <c r="D9">
-        <v>1.020735951206034</v>
+        <v>1.020748334599863</v>
       </c>
       <c r="E9">
-        <v>0.9529500130007634</v>
+        <v>0.9530141861045563</v>
       </c>
       <c r="F9">
-        <v>0.9581517706452265</v>
+        <v>0.9582119640629213</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039517451052829</v>
+        <v>1.039531748703186</v>
       </c>
       <c r="J9">
-        <v>0.9640661603965229</v>
+        <v>0.964135913695251</v>
       </c>
       <c r="K9">
-        <v>1.033501327749811</v>
+        <v>1.033513520520892</v>
       </c>
       <c r="L9">
-        <v>0.9668555389669832</v>
+        <v>0.966918532773121</v>
       </c>
       <c r="M9">
-        <v>0.971962371473839</v>
+        <v>0.9720214742871086</v>
+      </c>
+      <c r="N9">
+        <v>0.9766944630346948</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9174122128658619</v>
+        <v>0.9175069114603571</v>
       </c>
       <c r="D10">
-        <v>1.015077397468244</v>
+        <v>1.01509345435887</v>
       </c>
       <c r="E10">
-        <v>0.9372932413355487</v>
+        <v>0.9373762121790955</v>
       </c>
       <c r="F10">
-        <v>0.9409127793224338</v>
+        <v>0.9409909972162001</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035553235773041</v>
+        <v>1.035571665298784</v>
       </c>
       <c r="J10">
-        <v>0.9493342790809245</v>
+        <v>0.9494241686990698</v>
       </c>
       <c r="K10">
-        <v>1.029179658406138</v>
+        <v>1.029195436430294</v>
       </c>
       <c r="L10">
-        <v>0.9528951605383044</v>
+        <v>0.9529763558832858</v>
       </c>
       <c r="M10">
-        <v>0.9564376292192875</v>
+        <v>0.9565141903168518</v>
+      </c>
+      <c r="N10">
+        <v>0.9664333373576955</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.908757547118058</v>
+        <v>0.9088631305360212</v>
       </c>
       <c r="D11">
-        <v>1.012494666154361</v>
+        <v>1.012512552471406</v>
       </c>
       <c r="E11">
-        <v>0.9300390641226368</v>
+        <v>0.9301313455674756</v>
       </c>
       <c r="F11">
-        <v>0.9329260383648939</v>
+        <v>0.9330132511817206</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033703668574179</v>
+        <v>1.033724145288619</v>
       </c>
       <c r="J11">
-        <v>0.9424887850035858</v>
+        <v>0.9425885828755292</v>
       </c>
       <c r="K11">
-        <v>1.027184736411832</v>
+        <v>1.027202296176413</v>
       </c>
       <c r="L11">
-        <v>0.9464130258559432</v>
+        <v>0.9465031997550247</v>
       </c>
       <c r="M11">
-        <v>0.949234330162691</v>
+        <v>0.9493195675875289</v>
+      </c>
+      <c r="N11">
+        <v>0.9616631203262535</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9054400220479756</v>
+        <v>0.9055499161125041</v>
       </c>
       <c r="D12">
-        <v>1.011512982825959</v>
+        <v>1.011531593214716</v>
       </c>
       <c r="E12">
-        <v>0.9272623738142736</v>
+        <v>0.9273583320219712</v>
       </c>
       <c r="F12">
-        <v>0.9298691410572173</v>
+        <v>0.9299599178446781</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032994194944344</v>
+        <v>1.033015480138635</v>
       </c>
       <c r="J12">
-        <v>0.9398653763714067</v>
+        <v>0.9399690759319125</v>
       </c>
       <c r="K12">
-        <v>1.02642288695714</v>
+        <v>1.026441151316997</v>
       </c>
       <c r="L12">
-        <v>0.9439296819402249</v>
+        <v>0.9440233951273088</v>
       </c>
       <c r="M12">
-        <v>0.9464756820235327</v>
+        <v>0.9465643508963397</v>
+      </c>
+      <c r="N12">
+        <v>0.9598347895984211</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9061565532396441</v>
+        <v>0.9062655094985518</v>
       </c>
       <c r="D13">
-        <v>1.011724613073246</v>
+        <v>1.011743065960643</v>
       </c>
       <c r="E13">
-        <v>0.9278619031341532</v>
+        <v>0.9279570619475078</v>
       </c>
       <c r="F13">
-        <v>0.9305291602074232</v>
+        <v>0.9306191615600669</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033147441730353</v>
+        <v>1.033168551145837</v>
       </c>
       <c r="J13">
-        <v>0.9404319548810172</v>
+        <v>0.9405348066635996</v>
       </c>
       <c r="K13">
-        <v>1.026587291675324</v>
+        <v>1.026605402798023</v>
       </c>
       <c r="L13">
-        <v>0.9444659724318916</v>
+        <v>0.9445589164134059</v>
       </c>
       <c r="M13">
-        <v>0.9470713782140159</v>
+        <v>0.9471593007831199</v>
+      </c>
+      <c r="N13">
+        <v>0.960229663693124</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9084855085445631</v>
+        <v>0.9085914424525661</v>
       </c>
       <c r="D14">
-        <v>1.01241399161452</v>
+        <v>1.012431936814792</v>
       </c>
       <c r="E14">
-        <v>0.9298112898728416</v>
+        <v>0.9299038704899756</v>
       </c>
       <c r="F14">
-        <v>0.9326752737347362</v>
+        <v>0.9327627762977956</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.033645497776986</v>
+        <v>1.03366604027568</v>
       </c>
       <c r="J14">
-        <v>0.9422736493129531</v>
+        <v>0.9423737648885283</v>
       </c>
       <c r="K14">
-        <v>1.027122201923826</v>
+        <v>1.027139819000031</v>
       </c>
       <c r="L14">
-        <v>0.9462093593593101</v>
+        <v>0.9462998213766594</v>
       </c>
       <c r="M14">
-        <v>0.9490080641256159</v>
+        <v>0.9490935806538199</v>
+      </c>
+      <c r="N14">
+        <v>0.9615131900526434</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9099063622178664</v>
+        <v>0.9100104712999281</v>
       </c>
       <c r="D15">
-        <v>1.012835698344857</v>
+        <v>1.012853336950891</v>
       </c>
       <c r="E15">
-        <v>0.9310011168297141</v>
+        <v>0.9310921393766283</v>
       </c>
       <c r="F15">
-        <v>0.9339852045602598</v>
+        <v>0.9340711986283504</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033949306699949</v>
+        <v>1.033969506599788</v>
       </c>
       <c r="J15">
-        <v>0.943397327561498</v>
+        <v>0.9434957881063054</v>
       </c>
       <c r="K15">
-        <v>1.027448938818078</v>
+        <v>1.027466257458815</v>
       </c>
       <c r="L15">
-        <v>0.9472731661457867</v>
+        <v>0.9473621274029373</v>
       </c>
       <c r="M15">
-        <v>0.950189955408219</v>
+        <v>0.9502740185948163</v>
+      </c>
+      <c r="N15">
+        <v>0.9622962841183996</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9179730124661291</v>
+        <v>0.9180670228854456</v>
       </c>
       <c r="D16">
-        <v>1.015245816533604</v>
+        <v>1.015261757721998</v>
       </c>
       <c r="E16">
-        <v>0.9377638042392604</v>
+        <v>0.9378461851698879</v>
       </c>
       <c r="F16">
-        <v>0.941430882047559</v>
+        <v>0.9415085315039228</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035672983353618</v>
+        <v>1.035691283180197</v>
       </c>
       <c r="J16">
-        <v>0.9497779118409587</v>
+        <v>0.9498671722806691</v>
       </c>
       <c r="K16">
-        <v>1.029309267201917</v>
+        <v>1.029324932462202</v>
       </c>
       <c r="L16">
-        <v>0.9533153512654049</v>
+        <v>0.9533959769405672</v>
       </c>
       <c r="M16">
-        <v>0.9569046898828921</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9569807018949144</v>
+      </c>
+      <c r="N16">
+        <v>0.9667424415469567</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9228657288187967</v>
+        <v>0.9229538190023544</v>
       </c>
       <c r="D17">
-        <v>1.016720574292049</v>
+        <v>1.016735519989291</v>
       </c>
       <c r="E17">
-        <v>0.9418718374606543</v>
+        <v>0.9419491373168207</v>
       </c>
       <c r="F17">
-        <v>0.9459540089878851</v>
+        <v>0.9460267697362935</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03671699673987</v>
+        <v>1.036734179500679</v>
       </c>
       <c r="J17">
-        <v>0.9536486178269342</v>
+        <v>0.953732451849433</v>
       </c>
       <c r="K17">
-        <v>1.030441648061158</v>
+        <v>1.030456342706739</v>
       </c>
       <c r="L17">
-        <v>0.9569820737203917</v>
+        <v>0.9570577886558488</v>
       </c>
       <c r="M17">
-        <v>0.960981013085403</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9610522988845759</v>
+      </c>
+      <c r="N17">
+        <v>0.9694391513359655</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.925663564383767</v>
+        <v>0.9257483346296643</v>
       </c>
       <c r="D18">
-        <v>1.017568175390893</v>
+        <v>1.017582562770098</v>
       </c>
       <c r="E18">
-        <v>0.9442230281923832</v>
+        <v>0.9442974738840264</v>
       </c>
       <c r="F18">
-        <v>0.9485428136615361</v>
+        <v>0.9486128341631647</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037313308287303</v>
+        <v>1.037329863627309</v>
       </c>
       <c r="J18">
-        <v>0.9558621519481214</v>
+        <v>0.9559429320984349</v>
       </c>
       <c r="K18">
-        <v>1.031090396511849</v>
+        <v>1.031104546462598</v>
       </c>
       <c r="L18">
-        <v>0.9590793995859556</v>
+        <v>0.959152352829732</v>
       </c>
       <c r="M18">
-        <v>0.9633130935343129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9633817270412914</v>
+      </c>
+      <c r="N18">
+        <v>0.9709811081392448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9266084276692864</v>
+        <v>0.9266920871444578</v>
       </c>
       <c r="D19">
-        <v>1.017855113964679</v>
+        <v>1.01786931453858</v>
       </c>
       <c r="E19">
-        <v>0.9450173897135467</v>
+        <v>0.9450908797044801</v>
       </c>
       <c r="F19">
-        <v>0.9494174578232685</v>
+        <v>0.9494865617193047</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037514557225309</v>
+        <v>1.037530902488732</v>
       </c>
       <c r="J19">
-        <v>0.9566097003379578</v>
+        <v>0.9566894569784283</v>
       </c>
       <c r="K19">
-        <v>1.031309671371685</v>
+        <v>1.031323639020624</v>
       </c>
       <c r="L19">
-        <v>0.9597877755384964</v>
+        <v>0.9598598035222068</v>
       </c>
       <c r="M19">
-        <v>0.9641008324958699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9641685783089367</v>
+      </c>
+      <c r="N19">
+        <v>0.9715018160672255</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9223466698420527</v>
+        <v>0.9224353810975547</v>
       </c>
       <c r="D20">
-        <v>1.016563665968832</v>
+        <v>1.016578716108403</v>
       </c>
       <c r="E20">
-        <v>0.9414358050961146</v>
+        <v>0.9415136385079543</v>
       </c>
       <c r="F20">
-        <v>0.9454739131490013</v>
+        <v>0.9455471866272228</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036606307979455</v>
+        <v>1.036623608035312</v>
       </c>
       <c r="J20">
-        <v>0.953237966899089</v>
+        <v>0.9533223713492849</v>
       </c>
       <c r="K20">
-        <v>1.030321384586705</v>
+        <v>1.030336181099472</v>
       </c>
       <c r="L20">
-        <v>0.9565930170697808</v>
+        <v>0.9566692480161193</v>
       </c>
       <c r="M20">
-        <v>0.9605484459032074</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9606202277234939</v>
+      </c>
+      <c r="N20">
+        <v>0.9691530729152816</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9078026549548484</v>
+        <v>0.907909470967707</v>
       </c>
       <c r="D21">
-        <v>1.012211625729089</v>
+        <v>1.012229719117385</v>
       </c>
       <c r="E21">
-        <v>0.929239611910667</v>
+        <v>0.929332945303523</v>
       </c>
       <c r="F21">
-        <v>0.932045897107148</v>
+        <v>0.9321341289233527</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033499475405331</v>
+        <v>1.033520183430467</v>
       </c>
       <c r="J21">
-        <v>0.941733641025007</v>
+        <v>0.9418345558238235</v>
       </c>
       <c r="K21">
-        <v>1.026965280458916</v>
+        <v>1.02698304175827</v>
       </c>
       <c r="L21">
-        <v>0.9456981530523644</v>
+        <v>0.9457893399273569</v>
       </c>
       <c r="M21">
-        <v>0.9484401490068852</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9485263678984078</v>
+      </c>
+      <c r="N21">
+        <v>0.9611368493284377</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8980540087633493</v>
+        <v>0.8981737968083164</v>
       </c>
       <c r="D22">
-        <v>1.009344435905176</v>
+        <v>1.009364706995779</v>
       </c>
       <c r="E22">
-        <v>0.9210886216284805</v>
+        <v>0.9211929963894054</v>
       </c>
       <c r="F22">
-        <v>0.9230728951528455</v>
+        <v>0.9231718549509987</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031414459137204</v>
+        <v>1.031437595029157</v>
       </c>
       <c r="J22">
-        <v>0.9340263679189987</v>
+        <v>0.9341389764144846</v>
       </c>
       <c r="K22">
-        <v>1.024733023075168</v>
+        <v>1.024752902284824</v>
       </c>
       <c r="L22">
-        <v>0.9384040410167427</v>
+        <v>0.9385058430365311</v>
       </c>
       <c r="M22">
-        <v>0.9403395380903139</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9404360726941218</v>
+      </c>
+      <c r="N22">
+        <v>0.9557650998329078</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9032847816004423</v>
+        <v>0.9033975194681882</v>
       </c>
       <c r="D23">
-        <v>1.01087775346764</v>
+        <v>1.010896841373712</v>
       </c>
       <c r="E23">
-        <v>0.9254596981176756</v>
+        <v>0.9255580786875076</v>
       </c>
       <c r="F23">
-        <v>0.9278846231481457</v>
+        <v>0.9279777515921739</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032533224009592</v>
+        <v>1.032555041857367</v>
       </c>
       <c r="J23">
-        <v>0.9381613006342602</v>
+        <v>0.9382675674336625</v>
       </c>
       <c r="K23">
-        <v>1.025928863282703</v>
+        <v>1.025947592139917</v>
       </c>
       <c r="L23">
-        <v>0.9423168291394898</v>
+        <v>0.9424128722050097</v>
       </c>
       <c r="M23">
-        <v>0.9446843319901727</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9447752631734818</v>
+      </c>
+      <c r="N23">
+        <v>0.9586471163742161</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.922581382298545</v>
+        <v>0.9226698125104648</v>
       </c>
       <c r="D24">
-        <v>1.016634604846469</v>
+        <v>1.01664960772465</v>
       </c>
       <c r="E24">
-        <v>0.9416329674836382</v>
+        <v>0.9417105594691807</v>
       </c>
       <c r="F24">
-        <v>0.9456909997688167</v>
+        <v>0.9457640412258679</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.036656362357281</v>
+        <v>1.03667360933861</v>
       </c>
       <c r="J24">
-        <v>0.9534236581391596</v>
+        <v>0.9535078044968642</v>
       </c>
       <c r="K24">
-        <v>1.030375762618796</v>
+        <v>1.030390513036485</v>
       </c>
       <c r="L24">
-        <v>0.9567689422704913</v>
+        <v>0.9568449397393137</v>
       </c>
       <c r="M24">
-        <v>0.9607440444288854</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9608156017988125</v>
+      </c>
+      <c r="N24">
+        <v>0.9692824346661744</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9428031303048983</v>
+        <v>0.9428685106838631</v>
       </c>
       <c r="D25">
-        <v>1.022825636983165</v>
+        <v>1.022836763937086</v>
       </c>
       <c r="E25">
-        <v>0.9586581998180342</v>
+        <v>0.9587159085232512</v>
       </c>
       <c r="F25">
-        <v>0.9644366211244473</v>
+        <v>0.9644906594427178</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040949836398915</v>
+        <v>1.040962713820248</v>
       </c>
       <c r="J25">
-        <v>0.9694215859627459</v>
+        <v>0.9694843704644648</v>
       </c>
       <c r="K25">
-        <v>1.035079654327781</v>
+        <v>1.035090618201493</v>
       </c>
       <c r="L25">
-        <v>0.9719340919636303</v>
+        <v>0.9719908021582567</v>
       </c>
       <c r="M25">
-        <v>0.9776132974766605</v>
+        <v>0.9776664152002199</v>
+      </c>
+      <c r="N25">
+        <v>0.9804224029952765</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9576148273977189</v>
+        <v>1.017797961610103</v>
       </c>
       <c r="D2">
-        <v>1.027445715012234</v>
+        <v>1.059022800568814</v>
       </c>
       <c r="E2">
-        <v>0.9711768919292388</v>
+        <v>1.034725124706076</v>
       </c>
       <c r="F2">
-        <v>0.9782108799482558</v>
+        <v>1.054075054653154</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044057194735795</v>
+        <v>1.066963198403226</v>
       </c>
       <c r="J2">
-        <v>0.9811416475848024</v>
+        <v>1.0394590645627</v>
       </c>
       <c r="K2">
-        <v>1.038535484081886</v>
+        <v>1.069716824470958</v>
       </c>
       <c r="L2">
-        <v>0.9830529393219801</v>
+        <v>1.045720986708417</v>
       </c>
       <c r="M2">
-        <v>0.9899823562954509</v>
+        <v>1.064829139106957</v>
       </c>
       <c r="N2">
-        <v>0.9885414591931919</v>
+        <v>1.040935215662</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9676726897220926</v>
+        <v>1.025451695757847</v>
       </c>
       <c r="D3">
-        <v>1.030629045607874</v>
+        <v>1.063806408262662</v>
       </c>
       <c r="E3">
-        <v>0.9796970552920811</v>
+        <v>1.041015303000245</v>
       </c>
       <c r="F3">
-        <v>0.9875897355822711</v>
+        <v>1.060038530232677</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046140584980567</v>
+        <v>1.069348768006264</v>
       </c>
       <c r="J3">
-        <v>0.9890851788884585</v>
+        <v>1.045271775295978</v>
       </c>
       <c r="K3">
-        <v>1.040884465588647</v>
+        <v>1.07368312585856</v>
       </c>
       <c r="L3">
-        <v>0.9905964808523284</v>
+        <v>1.051148962478833</v>
       </c>
       <c r="M3">
-        <v>0.9983839100379031</v>
+        <v>1.069956788567577</v>
       </c>
       <c r="N3">
-        <v>0.994067931745544</v>
+        <v>1.046756181111247</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9739177609127906</v>
+        <v>1.030260356573984</v>
       </c>
       <c r="D4">
-        <v>1.032620299063134</v>
+        <v>1.066814507657956</v>
       </c>
       <c r="E4">
-        <v>0.9849956072413558</v>
+        <v>1.044973047281162</v>
       </c>
       <c r="F4">
-        <v>0.9934209261770114</v>
+        <v>1.063790678855386</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.047419920402752</v>
+        <v>1.070833910165977</v>
       </c>
       <c r="J4">
-        <v>0.9940130322228253</v>
+        <v>1.048920443259574</v>
       </c>
       <c r="K4">
-        <v>1.042340342904349</v>
+        <v>1.076168255791304</v>
       </c>
       <c r="L4">
-        <v>0.9952785601096975</v>
+        <v>1.054557374167971</v>
       </c>
       <c r="M4">
-        <v>1.003599408782952</v>
+        <v>1.073175659958007</v>
       </c>
       <c r="N4">
-        <v>0.9974933480258795</v>
+        <v>1.050410030601859</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9764850200977713</v>
+        <v>1.032249405026201</v>
       </c>
       <c r="D5">
-        <v>1.033441904786234</v>
+        <v>1.068059216672897</v>
       </c>
       <c r="E5">
-        <v>0.987175559896359</v>
+        <v>1.046611392679528</v>
       </c>
       <c r="F5">
-        <v>0.9958196511090639</v>
+        <v>1.06534385356747</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047942181667184</v>
+        <v>1.07144484473027</v>
       </c>
       <c r="J5">
-        <v>0.9960376186485365</v>
+        <v>1.050428803842437</v>
       </c>
       <c r="K5">
-        <v>1.042937883242404</v>
+        <v>1.07719441992944</v>
       </c>
       <c r="L5">
-        <v>0.9972027133338595</v>
+        <v>1.055966683133108</v>
       </c>
       <c r="M5">
-        <v>1.005742918315843</v>
+        <v>1.074506324308451</v>
       </c>
       <c r="N5">
-        <v>0.9988999203616044</v>
+        <v>1.051920533229761</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9769127920540471</v>
+        <v>1.032581521288755</v>
       </c>
       <c r="D6">
-        <v>1.033578970355325</v>
+        <v>1.068267069253781</v>
       </c>
       <c r="E6">
-        <v>0.9875388970184343</v>
+        <v>1.046885022600901</v>
       </c>
       <c r="F6">
-        <v>0.9962194286979983</v>
+        <v>1.065603253447926</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048028982455229</v>
+        <v>1.071546652462632</v>
       </c>
       <c r="J6">
-        <v>0.996374894134242</v>
+        <v>1.050680605288846</v>
       </c>
       <c r="K6">
-        <v>1.043037384312513</v>
+        <v>1.077365652077615</v>
       </c>
       <c r="L6">
-        <v>0.9975232888925529</v>
+        <v>1.056201964307912</v>
       </c>
       <c r="M6">
-        <v>1.00610004643289</v>
+        <v>1.074728458595443</v>
       </c>
       <c r="N6">
-        <v>0.9991341964217373</v>
+        <v>1.052172692263107</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9739522874033414</v>
+        <v>1.030287059670404</v>
       </c>
       <c r="D7">
-        <v>1.032631337255801</v>
+        <v>1.066831216454004</v>
       </c>
       <c r="E7">
-        <v>0.9850249180514764</v>
+        <v>1.044995037293504</v>
       </c>
       <c r="F7">
-        <v>0.9934531800254722</v>
+        <v>1.063811526015038</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.047426958968922</v>
+        <v>1.070842125496965</v>
       </c>
       <c r="J7">
-        <v>0.994040265283706</v>
+        <v>1.048940696627544</v>
       </c>
       <c r="K7">
-        <v>1.042348383258938</v>
+        <v>1.076182039349951</v>
       </c>
       <c r="L7">
-        <v>0.9953044401068974</v>
+        <v>1.054576296495035</v>
       </c>
       <c r="M7">
-        <v>1.003628238661822</v>
+        <v>1.073193527489368</v>
       </c>
       <c r="N7">
-        <v>0.9975122710615167</v>
+        <v>1.050430312731935</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9610714791573078</v>
+        <v>1.020415561362682</v>
       </c>
       <c r="D8">
-        <v>1.028536310441443</v>
+        <v>1.06065811874446</v>
       </c>
       <c r="E8">
-        <v>0.9741031921222632</v>
+        <v>1.036875092017591</v>
       </c>
       <c r="F8">
-        <v>0.9814323676362651</v>
+        <v>1.056113329249228</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044776092927404</v>
+        <v>1.067781886814021</v>
       </c>
       <c r="J8">
-        <v>0.9838725050706068</v>
+        <v>1.04144768302195</v>
       </c>
       <c r="K8">
-        <v>1.039343129971158</v>
+        <v>1.071074651772581</v>
       </c>
       <c r="L8">
-        <v>0.9856457670383365</v>
+        <v>1.047577700898655</v>
       </c>
       <c r="M8">
-        <v>0.9928698652038113</v>
+        <v>1.06658329596681</v>
       </c>
       <c r="N8">
-        <v>0.9904419892926463</v>
+        <v>1.04292665818756</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9361059956756932</v>
+        <v>1.001823786977746</v>
       </c>
       <c r="D9">
-        <v>1.020748334599863</v>
+        <v>1.049063704585518</v>
       </c>
       <c r="E9">
-        <v>0.9530141861045563</v>
+        <v>1.021635042287764</v>
       </c>
       <c r="F9">
-        <v>0.9582119640629213</v>
+        <v>1.041667305712414</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039531748703186</v>
+        <v>1.061912630312164</v>
       </c>
       <c r="J9">
-        <v>0.964135913695251</v>
+        <v>1.027312306597785</v>
       </c>
       <c r="K9">
-        <v>1.033513520520892</v>
+        <v>1.061407930224282</v>
       </c>
       <c r="L9">
-        <v>0.966918532773121</v>
+        <v>1.034386594076912</v>
       </c>
       <c r="M9">
-        <v>0.9720214742871086</v>
+        <v>1.054118690107545</v>
       </c>
       <c r="N9">
-        <v>0.9766944630346948</v>
+        <v>1.028771207907523</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9175069114603571</v>
+        <v>0.9884741020850103</v>
       </c>
       <c r="D10">
-        <v>1.01509345435887</v>
+        <v>1.040776164699053</v>
       </c>
       <c r="E10">
-        <v>0.9373762121790955</v>
+        <v>1.010737721249085</v>
       </c>
       <c r="F10">
-        <v>0.9409909972162001</v>
+        <v>1.031343745560282</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035571665298784</v>
+        <v>1.057634071323619</v>
       </c>
       <c r="J10">
-        <v>0.9494241686990698</v>
+        <v>1.017152598414858</v>
       </c>
       <c r="K10">
-        <v>1.029195436430294</v>
+        <v>1.054446256327029</v>
       </c>
       <c r="L10">
-        <v>0.9529763558832858</v>
+        <v>1.024915772006791</v>
       </c>
       <c r="M10">
-        <v>0.9565141903168518</v>
+        <v>1.045169236796762</v>
       </c>
       <c r="N10">
-        <v>0.9664333373576955</v>
+        <v>1.018597071773641</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9088631305360212</v>
+        <v>0.9824274729386717</v>
       </c>
       <c r="D11">
-        <v>1.012512552471406</v>
+        <v>1.037035447121224</v>
       </c>
       <c r="E11">
-        <v>0.9301313455674756</v>
+        <v>1.005815211767099</v>
       </c>
       <c r="F11">
-        <v>0.9330132511817206</v>
+        <v>1.026682944745591</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.033724145288619</v>
+        <v>1.05568287850454</v>
       </c>
       <c r="J11">
-        <v>0.9425885828755292</v>
+        <v>1.012550013065896</v>
       </c>
       <c r="K11">
-        <v>1.027202296176413</v>
+        <v>1.051291167816152</v>
       </c>
       <c r="L11">
-        <v>0.9465031997550247</v>
+        <v>1.020628288686556</v>
       </c>
       <c r="M11">
-        <v>0.9493195675875289</v>
+        <v>1.041118612797486</v>
       </c>
       <c r="N11">
-        <v>0.9616631203262535</v>
+        <v>1.01398795022556</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9055499161125041</v>
+        <v>0.9801375947809551</v>
       </c>
       <c r="D12">
-        <v>1.011531593214716</v>
+        <v>1.035621178153477</v>
       </c>
       <c r="E12">
-        <v>0.9273583320219712</v>
+        <v>1.003953286483994</v>
       </c>
       <c r="F12">
-        <v>0.9299599178446781</v>
+        <v>1.024920496728435</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.033015480138635</v>
+        <v>1.054942154833897</v>
       </c>
       <c r="J12">
-        <v>0.9399690759319125</v>
+        <v>1.010807021909728</v>
       </c>
       <c r="K12">
-        <v>1.026441151316997</v>
+        <v>1.050096336891989</v>
       </c>
       <c r="L12">
-        <v>0.9440233951273088</v>
+        <v>1.019005137669181</v>
       </c>
       <c r="M12">
-        <v>0.9465643508963397</v>
+        <v>1.039585341968201</v>
       </c>
       <c r="N12">
-        <v>0.9598347895984211</v>
+        <v>1.012242483822026</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9062655094985518</v>
+        <v>0.9806308360931175</v>
       </c>
       <c r="D13">
-        <v>1.011743065960643</v>
+        <v>1.035925699738165</v>
       </c>
       <c r="E13">
-        <v>0.9279570619475078</v>
+        <v>1.004354240985167</v>
       </c>
       <c r="F13">
-        <v>0.9306191615600669</v>
+        <v>1.025300005591512</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.033168551145837</v>
+        <v>1.055101785193469</v>
       </c>
       <c r="J13">
-        <v>0.9405348066635996</v>
+        <v>1.011182459805407</v>
       </c>
       <c r="K13">
-        <v>1.026605402798023</v>
+        <v>1.050353698782616</v>
       </c>
       <c r="L13">
-        <v>0.9445589164134059</v>
+        <v>1.019354738082378</v>
       </c>
       <c r="M13">
-        <v>0.9471593007831199</v>
+        <v>1.03991557269787</v>
       </c>
       <c r="N13">
-        <v>0.960229663693124</v>
+        <v>1.01261845488258</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9085914424525661</v>
+        <v>0.982239110731072</v>
       </c>
       <c r="D14">
-        <v>1.012431936814792</v>
+        <v>1.036919061210467</v>
       </c>
       <c r="E14">
-        <v>0.9299038704899756</v>
+        <v>1.005662005372675</v>
       </c>
       <c r="F14">
-        <v>0.9327627762977956</v>
+        <v>1.026537913198908</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03366604027568</v>
+        <v>1.055621982936792</v>
       </c>
       <c r="J14">
-        <v>0.9423737648885283</v>
+        <v>1.012406635652588</v>
       </c>
       <c r="K14">
-        <v>1.027139819000031</v>
+        <v>1.051192880668745</v>
       </c>
       <c r="L14">
-        <v>0.9462998213766594</v>
+        <v>1.020494758525219</v>
       </c>
       <c r="M14">
-        <v>0.9490935806538199</v>
+        <v>1.040992471937323</v>
       </c>
       <c r="N14">
-        <v>0.9615131900526434</v>
+        <v>1.013844369199879</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9100104712999281</v>
+        <v>0.9832240800281195</v>
       </c>
       <c r="D15">
-        <v>1.012853336950891</v>
+        <v>1.037527755580314</v>
       </c>
       <c r="E15">
-        <v>0.9310921393766283</v>
+        <v>1.006463233292997</v>
       </c>
       <c r="F15">
-        <v>0.9340711986283504</v>
+        <v>1.027296409329332</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.033969506599788</v>
+        <v>1.055940341422257</v>
       </c>
       <c r="J15">
-        <v>0.9434957881063054</v>
+        <v>1.013156375743871</v>
       </c>
       <c r="K15">
-        <v>1.027466257458815</v>
+        <v>1.051706838593301</v>
       </c>
       <c r="L15">
-        <v>0.9473621274029373</v>
+        <v>1.021193027134953</v>
       </c>
       <c r="M15">
-        <v>0.9502740185948163</v>
+        <v>1.04165210878246</v>
       </c>
       <c r="N15">
-        <v>0.9622962841183996</v>
+        <v>1.014595174008088</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9180670228854456</v>
+        <v>0.9888694680216403</v>
       </c>
       <c r="D16">
-        <v>1.015261757721998</v>
+        <v>1.041021057883804</v>
       </c>
       <c r="E16">
-        <v>0.9378461851698879</v>
+        <v>1.011059880868806</v>
       </c>
       <c r="F16">
-        <v>0.9415085315039228</v>
+        <v>1.031648838430645</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035691283180197</v>
+        <v>1.05776139371953</v>
       </c>
       <c r="J16">
-        <v>0.9498671722806691</v>
+        <v>1.017453538692215</v>
       </c>
       <c r="K16">
-        <v>1.029324932462202</v>
+        <v>1.054652540751056</v>
       </c>
       <c r="L16">
-        <v>0.9533959769405672</v>
+        <v>1.02519617650265</v>
       </c>
       <c r="M16">
-        <v>0.9569807018949144</v>
+        <v>1.045434174701925</v>
       </c>
       <c r="N16">
-        <v>0.9667424415469567</v>
+        <v>1.01889843942071</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9229538190023544</v>
+        <v>0.992336819832038</v>
       </c>
       <c r="D17">
-        <v>1.016735519989291</v>
+        <v>1.043170281558517</v>
       </c>
       <c r="E17">
-        <v>0.9419491373168207</v>
+        <v>1.013886745355644</v>
       </c>
       <c r="F17">
-        <v>0.9460267697362935</v>
+        <v>1.034326244188054</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.036734179500679</v>
+        <v>1.058876534710909</v>
       </c>
       <c r="J17">
-        <v>0.953732451849433</v>
+        <v>1.0200927016234</v>
       </c>
       <c r="K17">
-        <v>1.030456342706739</v>
+        <v>1.056461473608804</v>
       </c>
       <c r="L17">
-        <v>0.9570577886558488</v>
+        <v>1.027655593203904</v>
       </c>
       <c r="M17">
-        <v>0.9610522988845759</v>
+        <v>1.047758037866278</v>
       </c>
       <c r="N17">
-        <v>0.9694391513359655</v>
+        <v>1.021541350265974</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9257483346296643</v>
+        <v>0.9943338798436205</v>
       </c>
       <c r="D18">
-        <v>1.017582562770098</v>
+        <v>1.044409349454212</v>
       </c>
       <c r="E18">
-        <v>0.9442974738840264</v>
+        <v>1.015516145445105</v>
       </c>
       <c r="F18">
-        <v>0.9486128341631647</v>
+        <v>1.035869727077998</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.037329863627309</v>
+        <v>1.059517554622224</v>
       </c>
       <c r="J18">
-        <v>0.9559429320984349</v>
+        <v>1.02161266870695</v>
       </c>
       <c r="K18">
-        <v>1.031104546462598</v>
+        <v>1.057503154120396</v>
       </c>
       <c r="L18">
-        <v>0.959152352829732</v>
+        <v>1.029072319011112</v>
       </c>
       <c r="M18">
-        <v>0.9633817270412914</v>
+        <v>1.049096751569242</v>
       </c>
       <c r="N18">
-        <v>0.9709811081392448</v>
+        <v>1.023063475877125</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9266920871444578</v>
+        <v>0.995010629937962</v>
       </c>
       <c r="D19">
-        <v>1.01786931453858</v>
+        <v>1.04482942874623</v>
       </c>
       <c r="E19">
-        <v>0.9450908797044801</v>
+        <v>1.01606850842676</v>
       </c>
       <c r="F19">
-        <v>0.9494865617193047</v>
+        <v>1.036393000470371</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.037530902488732</v>
+        <v>1.059734560374766</v>
       </c>
       <c r="J19">
-        <v>0.9566894569784283</v>
+        <v>1.02212772573491</v>
       </c>
       <c r="K19">
-        <v>1.031323639020624</v>
+        <v>1.057856110634803</v>
       </c>
       <c r="L19">
-        <v>0.9598598035222068</v>
+        <v>1.029552437453843</v>
       </c>
       <c r="M19">
-        <v>0.9641685783089367</v>
+        <v>1.049550442159102</v>
       </c>
       <c r="N19">
-        <v>0.9715018160672255</v>
+        <v>1.023579264345143</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9224353810975547</v>
+        <v>0.9919674583585684</v>
       </c>
       <c r="D20">
-        <v>1.016578716108403</v>
+        <v>1.0429412071728</v>
       </c>
       <c r="E20">
-        <v>0.9415136385079543</v>
+        <v>1.013585482060484</v>
       </c>
       <c r="F20">
-        <v>0.9455471866272228</v>
+        <v>1.0340408842658</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.036623608035312</v>
+        <v>1.058757873200766</v>
       </c>
       <c r="J20">
-        <v>0.9533223713492849</v>
+        <v>1.019811571593617</v>
       </c>
       <c r="K20">
-        <v>1.030336181099472</v>
+        <v>1.05626879435792</v>
       </c>
       <c r="L20">
-        <v>0.9566692480161193</v>
+        <v>1.027393580733271</v>
       </c>
       <c r="M20">
-        <v>0.9606202277234939</v>
+        <v>1.047510458418496</v>
       </c>
       <c r="N20">
-        <v>0.9691530729152816</v>
+        <v>1.021259820999302</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.907909470967707</v>
+        <v>0.981766759566443</v>
       </c>
       <c r="D21">
-        <v>1.012229719117385</v>
+        <v>1.036627242427547</v>
       </c>
       <c r="E21">
-        <v>0.929332945303523</v>
+        <v>1.005277850517367</v>
       </c>
       <c r="F21">
-        <v>0.9321341289233527</v>
+        <v>1.026174264441457</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.033520183430467</v>
+        <v>1.055469248391586</v>
       </c>
       <c r="J21">
-        <v>0.9418345558238235</v>
+        <v>1.012047092624333</v>
       </c>
       <c r="K21">
-        <v>1.02698304175827</v>
+        <v>1.050946409689309</v>
       </c>
       <c r="L21">
-        <v>0.9457893399273569</v>
+        <v>1.020159917573185</v>
       </c>
       <c r="M21">
-        <v>0.9485263678984078</v>
+        <v>1.040676164122055</v>
       </c>
       <c r="N21">
-        <v>0.9611368493284377</v>
+        <v>1.013484315579284</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8981737968083164</v>
+        <v>0.9750968964235152</v>
       </c>
       <c r="D22">
-        <v>1.009364706995779</v>
+        <v>1.032512768470121</v>
       </c>
       <c r="E22">
-        <v>0.9211929963894054</v>
+        <v>0.9998590737543994</v>
       </c>
       <c r="F22">
-        <v>0.9231718549509987</v>
+        <v>1.021046052255562</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031437595029157</v>
+        <v>1.053308510451915</v>
       </c>
       <c r="J22">
-        <v>0.9341389764144846</v>
+        <v>1.006970404901629</v>
       </c>
       <c r="K22">
-        <v>1.024752902284824</v>
+        <v>1.047466532084935</v>
       </c>
       <c r="L22">
-        <v>0.9385058430365311</v>
+        <v>1.015433322938269</v>
       </c>
       <c r="M22">
-        <v>0.9404360726941218</v>
+        <v>1.036211802832226</v>
       </c>
       <c r="N22">
-        <v>0.9557650998329078</v>
+        <v>1.008400418377709</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9033975194681882</v>
+        <v>0.9786584575419721</v>
       </c>
       <c r="D23">
-        <v>1.010896841373712</v>
+        <v>1.034708353075393</v>
       </c>
       <c r="E23">
-        <v>0.9255580786875076</v>
+        <v>1.002751249117932</v>
       </c>
       <c r="F23">
-        <v>0.9279777515921739</v>
+        <v>1.023782832303572</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.032555041857367</v>
+        <v>1.054463205539869</v>
       </c>
       <c r="J23">
-        <v>0.9382675674336625</v>
+        <v>1.00968117049864</v>
       </c>
       <c r="K23">
-        <v>1.025947592139917</v>
+        <v>1.049324583140855</v>
       </c>
       <c r="L23">
-        <v>0.9424128722050097</v>
+        <v>1.017956846700816</v>
       </c>
       <c r="M23">
-        <v>0.9447752631734818</v>
+        <v>1.038595169657133</v>
       </c>
       <c r="N23">
-        <v>0.9586471163742161</v>
+        <v>1.011115033572797</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9226698125104648</v>
+        <v>0.9921344350754751</v>
       </c>
       <c r="D24">
-        <v>1.01664960772465</v>
+        <v>1.043044760810448</v>
       </c>
       <c r="E24">
-        <v>0.9417105594691807</v>
+        <v>1.013721669908622</v>
       </c>
       <c r="F24">
-        <v>0.9457640412258679</v>
+        <v>1.034169882192226</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.03667360933861</v>
+        <v>1.058811520263445</v>
       </c>
       <c r="J24">
-        <v>0.9535078044968642</v>
+        <v>1.019938661932149</v>
       </c>
       <c r="K24">
-        <v>1.030390513036485</v>
+        <v>1.056355899219107</v>
       </c>
       <c r="L24">
-        <v>0.9568449397393137</v>
+        <v>1.027512027740285</v>
       </c>
       <c r="M24">
-        <v>0.9608156017988125</v>
+        <v>1.047622380523844</v>
       </c>
       <c r="N24">
-        <v>0.9692824346661744</v>
+        <v>1.021387091820692</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9428685106838631</v>
+        <v>1.006786481105578</v>
       </c>
       <c r="D25">
-        <v>1.022836763937086</v>
+        <v>1.052153395229854</v>
       </c>
       <c r="E25">
-        <v>0.9587159085232512</v>
+        <v>1.025696029824871</v>
       </c>
       <c r="F25">
-        <v>0.9644906594427178</v>
+        <v>1.045516018255726</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.040962713820248</v>
+        <v>1.06349081737655</v>
       </c>
       <c r="J25">
-        <v>0.9694843704644648</v>
+        <v>1.031087591866216</v>
       </c>
       <c r="K25">
-        <v>1.035090618201493</v>
+        <v>1.063992661152635</v>
       </c>
       <c r="L25">
-        <v>0.9719908021582567</v>
+        <v>1.037908126511829</v>
       </c>
       <c r="M25">
-        <v>0.9776664152002199</v>
+        <v>1.057446579895147</v>
       </c>
       <c r="N25">
-        <v>0.9804224029952765</v>
+        <v>1.032551854514066</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.017797961610103</v>
+        <v>0.9763539474763284</v>
       </c>
       <c r="D2">
-        <v>1.059022800568814</v>
+        <v>1.037645408033184</v>
       </c>
       <c r="E2">
-        <v>1.034725124706076</v>
+        <v>0.9860391993368959</v>
       </c>
       <c r="F2">
-        <v>1.054075054653154</v>
+        <v>1.032542034107494</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.066963198403226</v>
+        <v>1.051301742334484</v>
       </c>
       <c r="J2">
-        <v>1.0394590645627</v>
+        <v>0.9992656667168937</v>
       </c>
       <c r="K2">
-        <v>1.069716824470958</v>
+        <v>1.048604059764134</v>
       </c>
       <c r="L2">
-        <v>1.045720986708417</v>
+        <v>0.9976965187608158</v>
       </c>
       <c r="M2">
-        <v>1.064829139106957</v>
+        <v>1.043565884966815</v>
       </c>
       <c r="N2">
-        <v>1.040935215662</v>
+        <v>1.003703284498346</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025451695757847</v>
+        <v>0.9805229086650111</v>
       </c>
       <c r="D3">
-        <v>1.063806408262662</v>
+        <v>1.04002856213577</v>
       </c>
       <c r="E3">
-        <v>1.041015303000245</v>
+        <v>0.9893207547590276</v>
       </c>
       <c r="F3">
-        <v>1.060038530232677</v>
+        <v>1.03563425650622</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.069348768006264</v>
+        <v>1.051922771761618</v>
       </c>
       <c r="J3">
-        <v>1.045271775295978</v>
+        <v>1.001558998520285</v>
       </c>
       <c r="K3">
-        <v>1.07368312585856</v>
+        <v>1.050173660168265</v>
       </c>
       <c r="L3">
-        <v>1.051148962478833</v>
+        <v>1.000092127112447</v>
       </c>
       <c r="M3">
-        <v>1.069956788567577</v>
+        <v>1.045830621954246</v>
       </c>
       <c r="N3">
-        <v>1.046756181111247</v>
+        <v>1.004490485249946</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030260356573984</v>
+        <v>0.983170643973124</v>
       </c>
       <c r="D4">
-        <v>1.066814507657956</v>
+        <v>1.041543532623724</v>
       </c>
       <c r="E4">
-        <v>1.044973047281162</v>
+        <v>0.9914115116226517</v>
       </c>
       <c r="F4">
-        <v>1.063790678855386</v>
+        <v>1.037601640635766</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.070833910165977</v>
+        <v>1.052306672411568</v>
       </c>
       <c r="J4">
-        <v>1.048920443259574</v>
+        <v>1.003014868379294</v>
       </c>
       <c r="K4">
-        <v>1.076168255791304</v>
+        <v>1.051165142538096</v>
       </c>
       <c r="L4">
-        <v>1.054557374167971</v>
+        <v>1.00161470940786</v>
       </c>
       <c r="M4">
-        <v>1.073175659958007</v>
+        <v>1.047266477793998</v>
       </c>
       <c r="N4">
-        <v>1.050410030601859</v>
+        <v>1.004989735296596</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.032249405026201</v>
+        <v>0.9842722240554547</v>
       </c>
       <c r="D5">
-        <v>1.068059216672897</v>
+        <v>1.042174061399946</v>
       </c>
       <c r="E5">
-        <v>1.046611392679528</v>
+        <v>0.9922829055495518</v>
       </c>
       <c r="F5">
-        <v>1.06534385356747</v>
+        <v>1.038420895459756</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.07144484473027</v>
+        <v>1.052463811080315</v>
       </c>
       <c r="J5">
-        <v>1.050428803842437</v>
+        <v>1.003620393241403</v>
       </c>
       <c r="K5">
-        <v>1.07719441992944</v>
+        <v>1.051576269154967</v>
       </c>
       <c r="L5">
-        <v>1.055966683133108</v>
+        <v>1.00224840656847</v>
       </c>
       <c r="M5">
-        <v>1.074506324308451</v>
+        <v>1.047863170018246</v>
       </c>
       <c r="N5">
-        <v>1.051920533229761</v>
+        <v>1.005197261616297</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032581521288755</v>
+        <v>0.984456519746435</v>
       </c>
       <c r="D6">
-        <v>1.068267069253781</v>
+        <v>1.042279560135515</v>
       </c>
       <c r="E6">
-        <v>1.046885022600901</v>
+        <v>0.9924287801911097</v>
       </c>
       <c r="F6">
-        <v>1.065603253447926</v>
+        <v>1.038557997813013</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.071546652462632</v>
+        <v>1.052489947168437</v>
       </c>
       <c r="J6">
-        <v>1.050680605288846</v>
+        <v>1.003721686591994</v>
       </c>
       <c r="K6">
-        <v>1.077365652077615</v>
+        <v>1.05164496785205</v>
       </c>
       <c r="L6">
-        <v>1.056201964307912</v>
+        <v>1.002354437554343</v>
       </c>
       <c r="M6">
-        <v>1.074728458595443</v>
+        <v>1.047962954174417</v>
       </c>
       <c r="N6">
-        <v>1.052172692263107</v>
+        <v>1.005231969727531</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030287059670404</v>
+        <v>0.9831854081080775</v>
       </c>
       <c r="D7">
-        <v>1.066831216454004</v>
+        <v>1.041551982632159</v>
       </c>
       <c r="E7">
-        <v>1.044995037293504</v>
+        <v>0.9914231846121048</v>
       </c>
       <c r="F7">
-        <v>1.063811526015038</v>
+        <v>1.037612618099081</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.070842125496965</v>
+        <v>1.052308788761554</v>
       </c>
       <c r="J7">
-        <v>1.048940696627544</v>
+        <v>1.003022984807416</v>
       </c>
       <c r="K7">
-        <v>1.076182039349951</v>
+        <v>1.051170658282658</v>
       </c>
       <c r="L7">
-        <v>1.054576296495035</v>
+        <v>1.001623201780315</v>
       </c>
       <c r="M7">
-        <v>1.073193527489368</v>
+        <v>1.047274477918039</v>
       </c>
       <c r="N7">
-        <v>1.050430312731935</v>
+        <v>1.004992517456558</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.020415561362682</v>
+        <v>0.9777734439155091</v>
       </c>
       <c r="D8">
-        <v>1.06065811874446</v>
+        <v>1.038456489269419</v>
       </c>
       <c r="E8">
-        <v>1.036875092017591</v>
+        <v>0.9871551270950593</v>
       </c>
       <c r="F8">
-        <v>1.056113329249228</v>
+        <v>1.033594112875571</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.067781886814021</v>
+        <v>1.051515364953806</v>
       </c>
       <c r="J8">
-        <v>1.04144768302195</v>
+        <v>1.000046642313848</v>
       </c>
       <c r="K8">
-        <v>1.071074651772581</v>
+        <v>1.049139570233592</v>
       </c>
       <c r="L8">
-        <v>1.047577700898655</v>
+        <v>0.9985119481573534</v>
       </c>
       <c r="M8">
-        <v>1.06658329596681</v>
+        <v>1.044337474477261</v>
       </c>
       <c r="N8">
-        <v>1.04292665818756</v>
+        <v>1.003971458306271</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.001823786977746</v>
+        <v>0.9678356268302205</v>
       </c>
       <c r="D9">
-        <v>1.049063704585518</v>
+        <v>1.032788706803454</v>
       </c>
       <c r="E9">
-        <v>1.021635042287764</v>
+        <v>0.9793725223443329</v>
       </c>
       <c r="F9">
-        <v>1.041667305712414</v>
+        <v>1.0262478447934</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.061912630312164</v>
+        <v>1.049977740563121</v>
       </c>
       <c r="J9">
-        <v>1.027312306597785</v>
+        <v>0.9945776558345863</v>
       </c>
       <c r="K9">
-        <v>1.061407930224282</v>
+        <v>1.045371302157591</v>
       </c>
       <c r="L9">
-        <v>1.034386594076912</v>
+        <v>0.992809373128666</v>
       </c>
       <c r="M9">
-        <v>1.054118690107545</v>
+        <v>1.038928953971138</v>
       </c>
       <c r="N9">
-        <v>1.028771207907523</v>
+        <v>1.002091641692507</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9884741020850103</v>
+        <v>0.9609119664420642</v>
       </c>
       <c r="D10">
-        <v>1.040776164699053</v>
+        <v>1.028858608767347</v>
       </c>
       <c r="E10">
-        <v>1.010737721249085</v>
+        <v>0.9739906828132248</v>
       </c>
       <c r="F10">
-        <v>1.031343745560282</v>
+        <v>1.021159378533794</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.057634071323619</v>
+        <v>1.048855808024189</v>
       </c>
       <c r="J10">
-        <v>1.017152598414858</v>
+        <v>0.9907670944275563</v>
       </c>
       <c r="K10">
-        <v>1.054446256327029</v>
+        <v>1.042725654112323</v>
       </c>
       <c r="L10">
-        <v>1.024915772006791</v>
+        <v>0.9888459779325288</v>
       </c>
       <c r="M10">
-        <v>1.045169236796762</v>
+        <v>1.035156821950815</v>
       </c>
       <c r="N10">
-        <v>1.018597071773641</v>
+        <v>1.000779724076971</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9824274729386717</v>
+        <v>0.957836259963076</v>
       </c>
       <c r="D11">
-        <v>1.037035447121224</v>
+        <v>1.027118920963203</v>
       </c>
       <c r="E11">
-        <v>1.005815211767099</v>
+        <v>0.971610234107076</v>
       </c>
       <c r="F11">
-        <v>1.026682944745591</v>
+        <v>1.018907717164767</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.05568287850454</v>
+        <v>1.048346295112757</v>
       </c>
       <c r="J11">
-        <v>1.012550013065896</v>
+        <v>0.9890747411366614</v>
       </c>
       <c r="K11">
-        <v>1.051291167816152</v>
+        <v>1.041546916035285</v>
       </c>
       <c r="L11">
-        <v>1.020628288686556</v>
+        <v>0.9870881621459199</v>
       </c>
       <c r="M11">
-        <v>1.041118612797486</v>
+        <v>1.033481658448453</v>
       </c>
       <c r="N11">
-        <v>1.01398795022556</v>
+        <v>1.000196637223077</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9801375947809551</v>
+        <v>0.9566814983344258</v>
       </c>
       <c r="D12">
-        <v>1.035621178153477</v>
+        <v>1.026466847904534</v>
       </c>
       <c r="E12">
-        <v>1.003953286483994</v>
+        <v>0.9707181260081924</v>
       </c>
       <c r="F12">
-        <v>1.024920496728435</v>
+        <v>1.018063817946226</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054942154833897</v>
+        <v>1.048153410429024</v>
       </c>
       <c r="J12">
-        <v>1.010807021909728</v>
+        <v>0.9884394605034514</v>
       </c>
       <c r="K12">
-        <v>1.050096336891989</v>
+        <v>1.041103964123864</v>
       </c>
       <c r="L12">
-        <v>1.019005137669181</v>
+        <v>0.9864286764370043</v>
       </c>
       <c r="M12">
-        <v>1.039585341968201</v>
+        <v>1.032852937787416</v>
       </c>
       <c r="N12">
-        <v>1.012242483822026</v>
+        <v>0.9999776971011434</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9806308360931175</v>
+        <v>0.9569297661508013</v>
       </c>
       <c r="D13">
-        <v>1.035925699738165</v>
+        <v>1.026606988616003</v>
       </c>
       <c r="E13">
-        <v>1.004354240985167</v>
+        <v>0.9709098502310599</v>
       </c>
       <c r="F13">
-        <v>1.025300005591512</v>
+        <v>1.018245182562586</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055101785193469</v>
+        <v>1.048194950181972</v>
       </c>
       <c r="J13">
-        <v>1.011182459805407</v>
+        <v>0.9885760370331576</v>
       </c>
       <c r="K13">
-        <v>1.050353698782616</v>
+        <v>1.041199212576912</v>
       </c>
       <c r="L13">
-        <v>1.019354738082378</v>
+        <v>0.9865704399772355</v>
       </c>
       <c r="M13">
-        <v>1.03991557269787</v>
+        <v>1.032988097701574</v>
       </c>
       <c r="N13">
-        <v>1.01261845488258</v>
+        <v>1.000024768767801</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.982239110731072</v>
+        <v>0.9577410618692005</v>
       </c>
       <c r="D14">
-        <v>1.036919061210467</v>
+        <v>1.027065141316487</v>
       </c>
       <c r="E14">
-        <v>1.005662005372675</v>
+        <v>0.9715366556809605</v>
       </c>
       <c r="F14">
-        <v>1.026537913198908</v>
+        <v>1.018838115466717</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.055621982936792</v>
+        <v>1.048330425633884</v>
       </c>
       <c r="J14">
-        <v>1.012406635652588</v>
+        <v>0.989022366424348</v>
       </c>
       <c r="K14">
-        <v>1.051192880668745</v>
+        <v>1.041510406665705</v>
       </c>
       <c r="L14">
-        <v>1.020494758525219</v>
+        <v>0.987033784358432</v>
       </c>
       <c r="M14">
-        <v>1.040992471937323</v>
+        <v>1.033429821857033</v>
       </c>
       <c r="N14">
-        <v>1.013844369199879</v>
+        <v>1.000178588217304</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9832240800281195</v>
+        <v>0.9582392775158268</v>
       </c>
       <c r="D15">
-        <v>1.037527755580314</v>
+        <v>1.02734664029726</v>
       </c>
       <c r="E15">
-        <v>1.006463233292997</v>
+        <v>0.971921792161873</v>
       </c>
       <c r="F15">
-        <v>1.027296409329332</v>
+        <v>1.019202434556005</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.055940341422257</v>
+        <v>1.04841341359854</v>
       </c>
       <c r="J15">
-        <v>1.013156375743871</v>
+        <v>0.9892964721258606</v>
       </c>
       <c r="K15">
-        <v>1.051706838593301</v>
+        <v>1.041701461518618</v>
       </c>
       <c r="L15">
-        <v>1.021193027134953</v>
+        <v>0.9873183883147209</v>
       </c>
       <c r="M15">
-        <v>1.04165210878246</v>
+        <v>1.033701116186266</v>
       </c>
       <c r="N15">
-        <v>1.014595174008088</v>
+        <v>1.000273046222047</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9888694680216403</v>
+        <v>0.961114400610916</v>
       </c>
       <c r="D16">
-        <v>1.041021057883804</v>
+        <v>1.0289732520814</v>
       </c>
       <c r="E16">
-        <v>1.011059880868806</v>
+        <v>0.974147578384511</v>
       </c>
       <c r="F16">
-        <v>1.031648838430645</v>
+        <v>1.021307772904012</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.05776139371953</v>
+        <v>1.048889117577467</v>
       </c>
       <c r="J16">
-        <v>1.017453538692215</v>
+        <v>0.9908784926331879</v>
       </c>
       <c r="K16">
-        <v>1.054652540751056</v>
+        <v>1.042803173189503</v>
       </c>
       <c r="L16">
-        <v>1.02519617650265</v>
+        <v>0.9889617359987365</v>
       </c>
       <c r="M16">
-        <v>1.045434174701925</v>
+        <v>1.035267098623334</v>
       </c>
       <c r="N16">
-        <v>1.01889843942071</v>
+        <v>1.000818096877248</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.992336819832038</v>
+        <v>0.9628966496935712</v>
       </c>
       <c r="D17">
-        <v>1.043170281558517</v>
+        <v>1.029983305740887</v>
       </c>
       <c r="E17">
-        <v>1.013886745355644</v>
+        <v>0.9755300872388258</v>
       </c>
       <c r="F17">
-        <v>1.034326244188054</v>
+        <v>1.022615271362731</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.058876534710909</v>
+        <v>1.049181120574396</v>
       </c>
       <c r="J17">
-        <v>1.0200927016234</v>
+        <v>0.991859305444287</v>
       </c>
       <c r="K17">
-        <v>1.056461473608804</v>
+        <v>1.043485278331532</v>
       </c>
       <c r="L17">
-        <v>1.027655593203904</v>
+        <v>0.9899812113479666</v>
       </c>
       <c r="M17">
-        <v>1.047758037866278</v>
+        <v>1.036238061255336</v>
       </c>
       <c r="N17">
-        <v>1.021541350265974</v>
+        <v>1.001155903801606</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9943338798436205</v>
+        <v>0.9639287517439243</v>
       </c>
       <c r="D18">
-        <v>1.044409349454212</v>
+        <v>1.0305688057482</v>
       </c>
       <c r="E18">
-        <v>1.015516145445105</v>
+        <v>0.9763316764458545</v>
       </c>
       <c r="F18">
-        <v>1.035869727077998</v>
+        <v>1.023373269868154</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.059517554622224</v>
+        <v>1.049349158160034</v>
       </c>
       <c r="J18">
-        <v>1.02161266870695</v>
+        <v>0.9924273316888866</v>
       </c>
       <c r="K18">
-        <v>1.057503154120396</v>
+        <v>1.043879949244091</v>
       </c>
       <c r="L18">
-        <v>1.029072319011112</v>
+        <v>0.9905718576019903</v>
       </c>
       <c r="M18">
-        <v>1.049096751569242</v>
+        <v>1.03680038847517</v>
       </c>
       <c r="N18">
-        <v>1.023063475877125</v>
+        <v>1.001351498900359</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.995010629937962</v>
+        <v>0.9642794260990739</v>
       </c>
       <c r="D19">
-        <v>1.04482942874623</v>
+        <v>1.030767832717326</v>
       </c>
       <c r="E19">
-        <v>1.01606850842676</v>
+        <v>0.9766041938327252</v>
       </c>
       <c r="F19">
-        <v>1.036393000470371</v>
+        <v>1.023630948220324</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.059734560374766</v>
+        <v>1.049406069396552</v>
       </c>
       <c r="J19">
-        <v>1.02212772573491</v>
+        <v>0.9926203332749568</v>
       </c>
       <c r="K19">
-        <v>1.057856110634803</v>
+        <v>1.044013984810651</v>
       </c>
       <c r="L19">
-        <v>1.029552437453843</v>
+        <v>0.9907725836104005</v>
       </c>
       <c r="M19">
-        <v>1.049550442159102</v>
+        <v>1.036991452027896</v>
       </c>
       <c r="N19">
-        <v>1.023579264345143</v>
+        <v>1.001417950108937</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9919674583585684</v>
+        <v>0.9627062066355431</v>
       </c>
       <c r="D20">
-        <v>1.0429412071728</v>
+        <v>1.029875315040784</v>
       </c>
       <c r="E20">
-        <v>1.013585482060484</v>
+        <v>0.9753822567804545</v>
       </c>
       <c r="F20">
-        <v>1.0340408842658</v>
+        <v>1.022475471342887</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.058757873200766</v>
+        <v>1.049150028011037</v>
       </c>
       <c r="J20">
-        <v>1.019811571593617</v>
+        <v>0.9917544961236029</v>
       </c>
       <c r="K20">
-        <v>1.05626879435792</v>
+        <v>1.043412425759652</v>
       </c>
       <c r="L20">
-        <v>1.027393580733271</v>
+        <v>0.989872246765062</v>
       </c>
       <c r="M20">
-        <v>1.047510458418496</v>
+        <v>1.036134303320607</v>
       </c>
       <c r="N20">
-        <v>1.021259820999302</v>
+        <v>1.00111981016345</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.981766759566443</v>
+        <v>0.9575025005224695</v>
       </c>
       <c r="D21">
-        <v>1.036627242427547</v>
+        <v>1.026930390428009</v>
       </c>
       <c r="E21">
-        <v>1.005277850517367</v>
+        <v>0.9713522984420742</v>
       </c>
       <c r="F21">
-        <v>1.026174264441457</v>
+        <v>1.018663721683175</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055469248391586</v>
+        <v>1.048290632222658</v>
       </c>
       <c r="J21">
-        <v>1.012047092624333</v>
+        <v>0.988891120058603</v>
       </c>
       <c r="K21">
-        <v>1.050946409689309</v>
+        <v>1.041418910113962</v>
       </c>
       <c r="L21">
-        <v>1.020159917573185</v>
+        <v>0.9868975244215166</v>
       </c>
       <c r="M21">
-        <v>1.040676164122055</v>
+        <v>1.033299926011086</v>
       </c>
       <c r="N21">
-        <v>1.013484315579284</v>
+        <v>1.000133358082776</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9750968964235152</v>
+        <v>0.9541591741582579</v>
       </c>
       <c r="D22">
-        <v>1.032512768470121</v>
+        <v>1.025044710829123</v>
       </c>
       <c r="E22">
-        <v>0.9998590737543994</v>
+        <v>0.9687725712179278</v>
       </c>
       <c r="F22">
-        <v>1.021046052255562</v>
+        <v>1.01622340024957</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053308510451915</v>
+        <v>1.047729264247752</v>
       </c>
       <c r="J22">
-        <v>1.006970404901629</v>
+        <v>0.9870520748898195</v>
       </c>
       <c r="K22">
-        <v>1.047466532084935</v>
+        <v>1.04013583513786</v>
       </c>
       <c r="L22">
-        <v>1.015433322938269</v>
+        <v>0.984989113277662</v>
       </c>
       <c r="M22">
-        <v>1.036211802832226</v>
+        <v>1.031480176798751</v>
       </c>
       <c r="N22">
-        <v>1.008400418377709</v>
+        <v>0.9994994531766924</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9786584575419721</v>
+        <v>0.9559385386836274</v>
       </c>
       <c r="D23">
-        <v>1.034708353075393</v>
+        <v>1.026047638035852</v>
       </c>
       <c r="E23">
-        <v>1.002751249117932</v>
+        <v>0.9701446203706992</v>
       </c>
       <c r="F23">
-        <v>1.023782832303572</v>
+        <v>1.017521300042953</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054463205539869</v>
+        <v>1.048028872978666</v>
       </c>
       <c r="J23">
-        <v>1.00968117049864</v>
+        <v>0.9880307643183258</v>
       </c>
       <c r="K23">
-        <v>1.049324583140855</v>
+        <v>1.040818877113685</v>
       </c>
       <c r="L23">
-        <v>1.017956846700816</v>
+        <v>0.9860045129175653</v>
       </c>
       <c r="M23">
-        <v>1.038595169657133</v>
+        <v>1.032448503480459</v>
       </c>
       <c r="N23">
-        <v>1.011115033572797</v>
+        <v>0.9998368300735588</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9921344350754751</v>
+        <v>0.9627922826442489</v>
       </c>
       <c r="D24">
-        <v>1.043044760810448</v>
+        <v>1.029924122648532</v>
       </c>
       <c r="E24">
-        <v>1.013721669908622</v>
+        <v>0.9754490698224756</v>
       </c>
       <c r="F24">
-        <v>1.034169882192226</v>
+        <v>1.022538655284152</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.058811520263445</v>
+        <v>1.049164084451911</v>
       </c>
       <c r="J24">
-        <v>1.019938661932149</v>
+        <v>0.9918018674853305</v>
       </c>
       <c r="K24">
-        <v>1.056355899219107</v>
+        <v>1.043445354548012</v>
       </c>
       <c r="L24">
-        <v>1.027512027740285</v>
+        <v>0.9899214954985891</v>
       </c>
       <c r="M24">
-        <v>1.047622380523844</v>
+        <v>1.036181199469857</v>
       </c>
       <c r="N24">
-        <v>1.021387091820692</v>
+        <v>1.001136123773863</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.006786481105578</v>
+        <v>0.9704551861690275</v>
       </c>
       <c r="D25">
-        <v>1.052153395229854</v>
+        <v>1.034280048364357</v>
       </c>
       <c r="E25">
-        <v>1.025696029824871</v>
+        <v>0.9814172667522661</v>
       </c>
       <c r="F25">
-        <v>1.045516018255726</v>
+        <v>1.028179718531287</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.06349081737655</v>
+        <v>1.050392089127361</v>
       </c>
       <c r="J25">
-        <v>1.031087591866216</v>
+        <v>0.9960194674615287</v>
       </c>
       <c r="K25">
-        <v>1.063992661152635</v>
+        <v>1.046368536604518</v>
       </c>
       <c r="L25">
-        <v>1.037908126511829</v>
+        <v>0.9943110722644611</v>
       </c>
       <c r="M25">
-        <v>1.057446579895147</v>
+        <v>1.040355781585756</v>
       </c>
       <c r="N25">
-        <v>1.032551854514066</v>
+        <v>1.002587618289165</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9763539474763284</v>
+        <v>1.011882166886027</v>
       </c>
       <c r="D2">
-        <v>1.037645408033184</v>
+        <v>1.043197011191348</v>
       </c>
       <c r="E2">
-        <v>0.9860391993368959</v>
+        <v>1.013998921470454</v>
       </c>
       <c r="F2">
-        <v>1.032542034107494</v>
+        <v>1.046742216697039</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051301742334484</v>
+        <v>1.036288903430969</v>
       </c>
       <c r="J2">
-        <v>0.9992656667168937</v>
+        <v>1.017128081965357</v>
       </c>
       <c r="K2">
-        <v>1.048604059764134</v>
+        <v>1.04597155682114</v>
       </c>
       <c r="L2">
-        <v>0.9976965187608158</v>
+        <v>1.016858390300359</v>
       </c>
       <c r="M2">
-        <v>1.043565884966815</v>
+        <v>1.049506801078452</v>
       </c>
       <c r="N2">
-        <v>1.003703284498346</v>
+        <v>1.009826501662289</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9805229086650111</v>
+        <v>1.012779032203262</v>
       </c>
       <c r="D3">
-        <v>1.04002856213577</v>
+        <v>1.043710875753346</v>
       </c>
       <c r="E3">
-        <v>0.9893207547590276</v>
+        <v>1.014758044684493</v>
       </c>
       <c r="F3">
-        <v>1.03563425650622</v>
+        <v>1.047437083147122</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051922771761618</v>
+        <v>1.036360220882024</v>
       </c>
       <c r="J3">
-        <v>1.001558998520285</v>
+        <v>1.017658679692866</v>
       </c>
       <c r="K3">
-        <v>1.050173660168265</v>
+        <v>1.046297184953277</v>
       </c>
       <c r="L3">
-        <v>1.000092127112447</v>
+        <v>1.017422491881995</v>
       </c>
       <c r="M3">
-        <v>1.045830621954246</v>
+        <v>1.050013674919614</v>
       </c>
       <c r="N3">
-        <v>1.004490485249946</v>
+        <v>1.010005446472735</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.983170643973124</v>
+        <v>1.013360223167837</v>
       </c>
       <c r="D4">
-        <v>1.041543532623724</v>
+        <v>1.044043380790664</v>
       </c>
       <c r="E4">
-        <v>0.9914115116226517</v>
+        <v>1.015250375530645</v>
       </c>
       <c r="F4">
-        <v>1.037601640635766</v>
+        <v>1.047887108883981</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052306672411568</v>
+        <v>1.036405042810243</v>
       </c>
       <c r="J4">
-        <v>1.003014868379294</v>
+        <v>1.018002278928982</v>
       </c>
       <c r="K4">
-        <v>1.051165142538096</v>
+        <v>1.046507173346474</v>
       </c>
       <c r="L4">
-        <v>1.00161470940786</v>
+        <v>1.017787971845068</v>
       </c>
       <c r="M4">
-        <v>1.047266477793998</v>
+        <v>1.050341379377689</v>
       </c>
       <c r="N4">
-        <v>1.004989735296596</v>
+        <v>1.010121228696372</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9842722240554547</v>
+        <v>1.013604760228603</v>
       </c>
       <c r="D5">
-        <v>1.042174061399946</v>
+        <v>1.044183163784159</v>
       </c>
       <c r="E5">
-        <v>0.9922829055495518</v>
+        <v>1.015457619682565</v>
       </c>
       <c r="F5">
-        <v>1.038420895459756</v>
+        <v>1.048076393245307</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052463811080315</v>
+        <v>1.036423567873966</v>
       </c>
       <c r="J5">
-        <v>1.003620393241403</v>
+        <v>1.01814679084343</v>
       </c>
       <c r="K5">
-        <v>1.051576269154967</v>
+        <v>1.046595279720683</v>
       </c>
       <c r="L5">
-        <v>1.00224840656847</v>
+        <v>1.017941730548223</v>
       </c>
       <c r="M5">
-        <v>1.047863170018246</v>
+        <v>1.050479078094131</v>
       </c>
       <c r="N5">
-        <v>1.005197261616297</v>
+        <v>1.010169901398223</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.984456519746435</v>
+        <v>1.013645831024387</v>
       </c>
       <c r="D6">
-        <v>1.042279560135515</v>
+        <v>1.044206633775232</v>
       </c>
       <c r="E6">
-        <v>0.9924287801911097</v>
+        <v>1.015492432571367</v>
       </c>
       <c r="F6">
-        <v>1.038557997813013</v>
+        <v>1.048108180338409</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052489947168437</v>
+        <v>1.036426659637983</v>
       </c>
       <c r="J6">
-        <v>1.003721686591994</v>
+        <v>1.018171058679259</v>
       </c>
       <c r="K6">
-        <v>1.05164496785205</v>
+        <v>1.046610062991294</v>
       </c>
       <c r="L6">
-        <v>1.002354437554343</v>
+        <v>1.017967553779879</v>
       </c>
       <c r="M6">
-        <v>1.047962954174417</v>
+        <v>1.05050219425569</v>
       </c>
       <c r="N6">
-        <v>1.005231969727531</v>
+        <v>1.010178073619854</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9831854081080775</v>
+        <v>1.013363489882555</v>
       </c>
       <c r="D7">
-        <v>1.041551982632159</v>
+        <v>1.044045248588995</v>
       </c>
       <c r="E7">
-        <v>0.9914231846121048</v>
+        <v>1.015253143685098</v>
       </c>
       <c r="F7">
-        <v>1.037612618099081</v>
+        <v>1.047889637746339</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052308788761554</v>
+        <v>1.036405291593889</v>
       </c>
       <c r="J7">
-        <v>1.003022984807416</v>
+        <v>1.018004209658929</v>
       </c>
       <c r="K7">
-        <v>1.051170658282658</v>
+        <v>1.046508351308991</v>
       </c>
       <c r="L7">
-        <v>1.001623201780315</v>
+        <v>1.017790025942072</v>
       </c>
       <c r="M7">
-        <v>1.047274477918039</v>
+        <v>1.050343219585296</v>
       </c>
       <c r="N7">
-        <v>1.004992517456558</v>
+        <v>1.010121879072402</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9777734439155091</v>
+        <v>1.012185088047307</v>
       </c>
       <c r="D8">
-        <v>1.038456489269419</v>
+        <v>1.043370672744206</v>
       </c>
       <c r="E8">
-        <v>0.9871551270950593</v>
+        <v>1.014255236306557</v>
       </c>
       <c r="F8">
-        <v>1.033594112875571</v>
+        <v>1.046976965673494</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051515364953806</v>
+        <v>1.036313279407703</v>
       </c>
       <c r="J8">
-        <v>1.000046642313848</v>
+        <v>1.017307343981573</v>
       </c>
       <c r="K8">
-        <v>1.049139570233592</v>
+        <v>1.046081751397282</v>
       </c>
       <c r="L8">
-        <v>0.9985119481573534</v>
+        <v>1.017048933316463</v>
       </c>
       <c r="M8">
-        <v>1.044337474477261</v>
+        <v>1.04967815759951</v>
       </c>
       <c r="N8">
-        <v>1.003971458306271</v>
+        <v>1.009886978078182</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9678356268302205</v>
+        <v>1.010115230981826</v>
       </c>
       <c r="D9">
-        <v>1.032788706803454</v>
+        <v>1.042182083169535</v>
       </c>
       <c r="E9">
-        <v>0.9793725223443329</v>
+        <v>1.012505502363995</v>
       </c>
       <c r="F9">
-        <v>1.0262478447934</v>
+        <v>1.045371894766127</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049977740563121</v>
+        <v>1.036141028339403</v>
       </c>
       <c r="J9">
-        <v>0.9945776558345863</v>
+        <v>1.016081472781086</v>
       </c>
       <c r="K9">
-        <v>1.045371302157591</v>
+        <v>1.045324625207025</v>
       </c>
       <c r="L9">
-        <v>0.992809373128666</v>
+        <v>1.015746676489813</v>
       </c>
       <c r="M9">
-        <v>1.038928953971138</v>
+        <v>1.048504200279087</v>
       </c>
       <c r="N9">
-        <v>1.002091641692507</v>
+        <v>1.009473019019609</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9609119664420642</v>
+        <v>1.008739866177731</v>
       </c>
       <c r="D10">
-        <v>1.028858608767347</v>
+        <v>1.04138988789033</v>
       </c>
       <c r="E10">
-        <v>0.9739906828132248</v>
+        <v>1.011344963952945</v>
       </c>
       <c r="F10">
-        <v>1.021159378533794</v>
+        <v>1.044304123581206</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.048855808024189</v>
+        <v>1.036019442739917</v>
       </c>
       <c r="J10">
-        <v>0.9907670944275563</v>
+        <v>1.015265701362877</v>
       </c>
       <c r="K10">
-        <v>1.042725654112323</v>
+        <v>1.044816338919899</v>
       </c>
       <c r="L10">
-        <v>0.9888459779325288</v>
+        <v>1.014881028459589</v>
       </c>
       <c r="M10">
-        <v>1.035156821950815</v>
+        <v>1.047720312529139</v>
       </c>
       <c r="N10">
-        <v>1.000779724076971</v>
+        <v>1.009197051256456</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.957836259963076</v>
+        <v>1.008145410967451</v>
       </c>
       <c r="D11">
-        <v>1.027118920963203</v>
+        <v>1.041046933269902</v>
       </c>
       <c r="E11">
-        <v>0.971610234107076</v>
+        <v>1.010843870002949</v>
       </c>
       <c r="F11">
-        <v>1.018907717164767</v>
+        <v>1.043842336833083</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048346295112757</v>
+        <v>1.035965203681352</v>
       </c>
       <c r="J11">
-        <v>0.9890747411366614</v>
+        <v>1.014912827605719</v>
       </c>
       <c r="K11">
-        <v>1.041546916035285</v>
+        <v>1.044595427290222</v>
       </c>
       <c r="L11">
-        <v>0.9870881621459199</v>
+        <v>1.014506807321925</v>
       </c>
       <c r="M11">
-        <v>1.033481658448453</v>
+        <v>1.047380608957135</v>
       </c>
       <c r="N11">
-        <v>1.000196637223077</v>
+        <v>1.009077561126036</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9566814983344258</v>
+        <v>1.007924768397675</v>
       </c>
       <c r="D12">
-        <v>1.026466847904534</v>
+        <v>1.040919557604022</v>
       </c>
       <c r="E12">
-        <v>0.9707181260081924</v>
+        <v>1.010657957429504</v>
       </c>
       <c r="F12">
-        <v>1.018063817946226</v>
+        <v>1.043670896039033</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048153410429024</v>
+        <v>1.035944818557976</v>
       </c>
       <c r="J12">
-        <v>0.9884394605034514</v>
+        <v>1.014781809900538</v>
       </c>
       <c r="K12">
-        <v>1.041103964123864</v>
+        <v>1.044513249288648</v>
       </c>
       <c r="L12">
-        <v>0.9864286764370043</v>
+        <v>1.014367897853135</v>
       </c>
       <c r="M12">
-        <v>1.032852937787416</v>
+        <v>1.047254388620293</v>
       </c>
       <c r="N12">
-        <v>0.9999776971011434</v>
+        <v>1.009033178496756</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9569297661508013</v>
+        <v>1.007972089510418</v>
       </c>
       <c r="D13">
-        <v>1.026606988616003</v>
+        <v>1.04094687949454</v>
       </c>
       <c r="E13">
-        <v>0.9709098502310599</v>
+        <v>1.010697826505036</v>
       </c>
       <c r="F13">
-        <v>1.018245182562586</v>
+        <v>1.04370766667864</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048194950181972</v>
+        <v>1.035949202007696</v>
       </c>
       <c r="J13">
-        <v>0.9885760370331576</v>
+        <v>1.014809911121447</v>
       </c>
       <c r="K13">
-        <v>1.041199212576912</v>
+        <v>1.044530882224437</v>
       </c>
       <c r="L13">
-        <v>0.9865704399772355</v>
+        <v>1.014397690180608</v>
       </c>
       <c r="M13">
-        <v>1.032988097701574</v>
+        <v>1.047281465057403</v>
       </c>
       <c r="N13">
-        <v>1.000024768767801</v>
+        <v>1.009042698653964</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9577410618692005</v>
+        <v>1.008127169219331</v>
       </c>
       <c r="D14">
-        <v>1.027065141316487</v>
+        <v>1.041036404080416</v>
       </c>
       <c r="E14">
-        <v>0.9715366556809605</v>
+        <v>1.010828497995046</v>
       </c>
       <c r="F14">
-        <v>1.018838115466717</v>
+        <v>1.043828163687214</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048330425633884</v>
+        <v>1.035963523497703</v>
       </c>
       <c r="J14">
-        <v>0.989022366424348</v>
+        <v>1.014901996506251</v>
       </c>
       <c r="K14">
-        <v>1.041510406665705</v>
+        <v>1.044588636901739</v>
       </c>
       <c r="L14">
-        <v>0.987033784358432</v>
+        <v>1.014495323119035</v>
       </c>
       <c r="M14">
-        <v>1.033429821857033</v>
+        <v>1.047370176334914</v>
       </c>
       <c r="N14">
-        <v>1.000178588217304</v>
+        <v>1.009073892414331</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9582392775158268</v>
+        <v>1.008222740790929</v>
       </c>
       <c r="D15">
-        <v>1.02734664029726</v>
+        <v>1.04109156491589</v>
       </c>
       <c r="E15">
-        <v>0.971921792161873</v>
+        <v>1.010909037688698</v>
       </c>
       <c r="F15">
-        <v>1.019202434556005</v>
+        <v>1.043902417520923</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04841341359854</v>
+        <v>1.035972315884637</v>
       </c>
       <c r="J15">
-        <v>0.9892964721258606</v>
+        <v>1.014958740715473</v>
       </c>
       <c r="K15">
-        <v>1.041701461518618</v>
+        <v>1.044624205402668</v>
       </c>
       <c r="L15">
-        <v>0.9873183883147209</v>
+        <v>1.014555490345495</v>
       </c>
       <c r="M15">
-        <v>1.033701116186266</v>
+        <v>1.047424829132613</v>
       </c>
       <c r="N15">
-        <v>1.000273046222047</v>
+        <v>1.00909311210914</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.961114400610916</v>
+        <v>1.008779341219539</v>
       </c>
       <c r="D16">
-        <v>1.0289732520814</v>
+        <v>1.041412650351327</v>
       </c>
       <c r="E16">
-        <v>0.974147578384511</v>
+        <v>1.011378250112031</v>
       </c>
       <c r="F16">
-        <v>1.021307772904012</v>
+        <v>1.044334782964421</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.048889117577467</v>
+        <v>1.036023008941801</v>
       </c>
       <c r="J16">
-        <v>0.9908784926331879</v>
+        <v>1.015289128127424</v>
       </c>
       <c r="K16">
-        <v>1.042803173189503</v>
+        <v>1.04483098295568</v>
       </c>
       <c r="L16">
-        <v>0.9889617359987365</v>
+        <v>1.014905877246543</v>
       </c>
       <c r="M16">
-        <v>1.035267098623334</v>
+        <v>1.047742851914224</v>
       </c>
       <c r="N16">
-        <v>1.000818096877248</v>
+        <v>1.00920498158328</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9628966496935712</v>
+        <v>1.009128773839035</v>
       </c>
       <c r="D17">
-        <v>1.029983305740887</v>
+        <v>1.041614079411703</v>
       </c>
       <c r="E17">
-        <v>0.9755300872388258</v>
+        <v>1.011672957849221</v>
       </c>
       <c r="F17">
-        <v>1.022615271362731</v>
+        <v>1.044606147439556</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049181120574396</v>
+        <v>1.036054381789619</v>
       </c>
       <c r="J17">
-        <v>0.991859305444287</v>
+        <v>1.015496468780235</v>
       </c>
       <c r="K17">
-        <v>1.043485278331532</v>
+        <v>1.04496047060172</v>
       </c>
       <c r="L17">
-        <v>0.9899812113479666</v>
+        <v>1.015125829936746</v>
       </c>
       <c r="M17">
-        <v>1.036238061255336</v>
+        <v>1.047942266998372</v>
       </c>
       <c r="N17">
-        <v>1.001155903801606</v>
+        <v>1.009275156211256</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9639287517439243</v>
+        <v>1.009332696750791</v>
       </c>
       <c r="D18">
-        <v>1.0305688057482</v>
+        <v>1.041731576289905</v>
       </c>
       <c r="E18">
-        <v>0.9763316764458545</v>
+        <v>1.011844993444063</v>
       </c>
       <c r="F18">
-        <v>1.023373269868154</v>
+        <v>1.044764484118643</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049349158160034</v>
+        <v>1.03607252741144</v>
       </c>
       <c r="J18">
-        <v>0.9924273316888866</v>
+        <v>1.015617441796319</v>
       </c>
       <c r="K18">
-        <v>1.043879949244091</v>
+        <v>1.045035919295762</v>
       </c>
       <c r="L18">
-        <v>0.9905718576019903</v>
+        <v>1.015254183408325</v>
       </c>
       <c r="M18">
-        <v>1.03680038847517</v>
+        <v>1.048058555774667</v>
       </c>
       <c r="N18">
-        <v>1.001351498900359</v>
+        <v>1.009316088406426</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9642794260990739</v>
+        <v>1.009402246926962</v>
       </c>
       <c r="D19">
-        <v>1.030767832717326</v>
+        <v>1.041771640759152</v>
       </c>
       <c r="E19">
-        <v>0.9766041938327252</v>
+        <v>1.011903676417667</v>
       </c>
       <c r="F19">
-        <v>1.023630948220324</v>
+        <v>1.044818481982297</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049406069396552</v>
+        <v>1.036078688516612</v>
       </c>
       <c r="J19">
-        <v>0.9926203332749568</v>
+        <v>1.015658696323355</v>
       </c>
       <c r="K19">
-        <v>1.044013984810651</v>
+        <v>1.045061631856462</v>
       </c>
       <c r="L19">
-        <v>0.9907725836104005</v>
+        <v>1.015297958558671</v>
       </c>
       <c r="M19">
-        <v>1.036991452027896</v>
+        <v>1.048098202657519</v>
       </c>
       <c r="N19">
-        <v>1.001417950108937</v>
+        <v>1.009330045301601</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9627062066355431</v>
+        <v>1.009091272179166</v>
       </c>
       <c r="D20">
-        <v>1.029875315040784</v>
+        <v>1.04159246726894</v>
       </c>
       <c r="E20">
-        <v>0.9753822567804545</v>
+        <v>1.011641324257851</v>
       </c>
       <c r="F20">
-        <v>1.022475471342887</v>
+        <v>1.04457702695794</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049150028011037</v>
+        <v>1.036051031664722</v>
       </c>
       <c r="J20">
-        <v>0.9917544961236029</v>
+        <v>1.015474219490858</v>
       </c>
       <c r="K20">
-        <v>1.043412425759652</v>
+        <v>1.044946585988944</v>
       </c>
       <c r="L20">
-        <v>0.989872246765062</v>
+        <v>1.015102225004869</v>
       </c>
       <c r="M20">
-        <v>1.036134303320607</v>
+        <v>1.047920874391011</v>
       </c>
       <c r="N20">
-        <v>1.00111981016345</v>
+        <v>1.009267627080463</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9575025005224695</v>
+        <v>1.008081497557247</v>
       </c>
       <c r="D21">
-        <v>1.026930390428009</v>
+        <v>1.041010040945632</v>
       </c>
       <c r="E21">
-        <v>0.9713522984420742</v>
+        <v>1.010790012521267</v>
       </c>
       <c r="F21">
-        <v>1.018663721683175</v>
+        <v>1.043792677890168</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048290632222658</v>
+        <v>1.035959312748193</v>
       </c>
       <c r="J21">
-        <v>0.988891120058603</v>
+        <v>1.01487487811936</v>
       </c>
       <c r="K21">
-        <v>1.041418910113962</v>
+        <v>1.04457163293187</v>
       </c>
       <c r="L21">
-        <v>0.9868975244215166</v>
+        <v>1.014466570076887</v>
       </c>
       <c r="M21">
-        <v>1.033299926011086</v>
+        <v>1.04734405414364</v>
       </c>
       <c r="N21">
-        <v>1.000133358082776</v>
+        <v>1.009064706589069</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9541591741582579</v>
+        <v>1.007447564926404</v>
       </c>
       <c r="D22">
-        <v>1.025044710829123</v>
+        <v>1.040643922437217</v>
       </c>
       <c r="E22">
-        <v>0.9687725712179278</v>
+        <v>1.010256009755318</v>
       </c>
       <c r="F22">
-        <v>1.01622340024957</v>
+        <v>1.043300033175481</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047729264247752</v>
+        <v>1.035900266968022</v>
       </c>
       <c r="J22">
-        <v>0.9870520748898195</v>
+        <v>1.014498369038922</v>
       </c>
       <c r="K22">
-        <v>1.04013583513786</v>
+        <v>1.044335182418614</v>
       </c>
       <c r="L22">
-        <v>0.984989113277662</v>
+        <v>1.014067446844401</v>
       </c>
       <c r="M22">
-        <v>1.031480176798751</v>
+        <v>1.046981157945773</v>
       </c>
       <c r="N22">
-        <v>0.9994994531766924</v>
+        <v>1.008937130320726</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9559385386836274</v>
+        <v>1.007783533869373</v>
       </c>
       <c r="D23">
-        <v>1.026047638035852</v>
+        <v>1.040838000826362</v>
       </c>
       <c r="E23">
-        <v>0.9701446203706992</v>
+        <v>1.010538975616547</v>
       </c>
       <c r="F23">
-        <v>1.017521300042953</v>
+        <v>1.043561144617569</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048028872978666</v>
+        <v>1.035931698644426</v>
       </c>
       <c r="J23">
-        <v>0.9880307643183258</v>
+        <v>1.014697932854643</v>
       </c>
       <c r="K23">
-        <v>1.040818877113685</v>
+        <v>1.044460595360376</v>
       </c>
       <c r="L23">
-        <v>0.9860045129175653</v>
+        <v>1.014278978183303</v>
       </c>
       <c r="M23">
-        <v>1.032448503480459</v>
+        <v>1.047173556877813</v>
       </c>
       <c r="N23">
-        <v>0.9998368300735588</v>
+        <v>1.00900476001069</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9627922826442489</v>
+        <v>1.009108217241411</v>
       </c>
       <c r="D24">
-        <v>1.029924122648532</v>
+        <v>1.041602232845515</v>
       </c>
       <c r="E24">
-        <v>0.9754490698224756</v>
+        <v>1.011655617691317</v>
       </c>
       <c r="F24">
-        <v>1.022538655284152</v>
+        <v>1.044590185082418</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049164084451911</v>
+        <v>1.036052545916749</v>
       </c>
       <c r="J24">
-        <v>0.9918018674853305</v>
+        <v>1.015484272879868</v>
       </c>
       <c r="K24">
-        <v>1.043445354548012</v>
+        <v>1.044952860092908</v>
       </c>
       <c r="L24">
-        <v>0.9899214954985891</v>
+        <v>1.015112890876025</v>
       </c>
       <c r="M24">
-        <v>1.036181199469857</v>
+        <v>1.047930540872096</v>
       </c>
       <c r="N24">
-        <v>1.001136123773863</v>
+        <v>1.009271029169025</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9704551861690275</v>
+        <v>1.010649544134275</v>
       </c>
       <c r="D25">
-        <v>1.034280048364357</v>
+        <v>1.042489336770077</v>
       </c>
       <c r="E25">
-        <v>0.9814172667522661</v>
+        <v>1.012956808764195</v>
       </c>
       <c r="F25">
-        <v>1.028179718531287</v>
+        <v>1.045786453277501</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050392089127361</v>
+        <v>1.036186752917476</v>
       </c>
       <c r="J25">
-        <v>0.9960194674615287</v>
+        <v>1.016398134645756</v>
       </c>
       <c r="K25">
-        <v>1.046368536604518</v>
+        <v>1.045520990708562</v>
       </c>
       <c r="L25">
-        <v>0.9943110722644611</v>
+        <v>1.01608290177176</v>
       </c>
       <c r="M25">
-        <v>1.040355781585756</v>
+        <v>1.048807925204216</v>
       </c>
       <c r="N25">
-        <v>1.002587618289165</v>
+        <v>1.009580038498504</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_bus/vm_pu.xlsx
@@ -417,984 +417,696 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>1.02</v>
-      </c>
       <c r="C2">
-        <v>1.011882166886027</v>
-      </c>
-      <c r="D2">
-        <v>1.043197011191348</v>
+        <v>0.9461692172995129</v>
       </c>
       <c r="E2">
-        <v>1.013998921470454</v>
+        <v>0.9596434903884663</v>
       </c>
       <c r="F2">
-        <v>1.046742216697039</v>
+        <v>0.9199234399015853</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1.036288903430969</v>
-      </c>
       <c r="J2">
-        <v>1.017128081965357</v>
-      </c>
-      <c r="K2">
-        <v>1.04597155682114</v>
+        <v>0.9700885110904757</v>
       </c>
       <c r="L2">
-        <v>1.016858390300359</v>
+        <v>0.9716952357474186</v>
       </c>
       <c r="M2">
-        <v>1.049506801078452</v>
+        <v>0.9326238585607505</v>
       </c>
       <c r="N2">
-        <v>1.009826501662289</v>
+        <v>0.9714661480469319</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3">
-        <v>1.02</v>
-      </c>
       <c r="C3">
-        <v>1.012779032203262</v>
-      </c>
-      <c r="D3">
-        <v>1.043710875753346</v>
+        <v>0.9534053335718409</v>
       </c>
       <c r="E3">
-        <v>1.014758044684493</v>
+        <v>0.9655868422326271</v>
       </c>
       <c r="F3">
-        <v>1.047437083147122</v>
+        <v>0.9303113987982857</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>1.036360220882024</v>
-      </c>
       <c r="J3">
-        <v>1.017658679692866</v>
-      </c>
-      <c r="K3">
-        <v>1.046297184953277</v>
+        <v>0.9752521672617573</v>
       </c>
       <c r="L3">
-        <v>1.017422491881995</v>
+        <v>0.9766798421741613</v>
       </c>
       <c r="M3">
-        <v>1.050013674919614</v>
+        <v>0.9419210953951721</v>
       </c>
       <c r="N3">
-        <v>1.010005446472735</v>
+        <v>0.9766371372022561</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4">
-        <v>1.02</v>
-      </c>
       <c r="C4">
-        <v>1.013360223167837</v>
-      </c>
-      <c r="D4">
-        <v>1.044043380790664</v>
+        <v>0.9579330712616049</v>
       </c>
       <c r="E4">
-        <v>1.015250375530645</v>
+        <v>0.9693130876658019</v>
       </c>
       <c r="F4">
-        <v>1.047887108883981</v>
+        <v>0.9367889765649677</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1.036405042810243</v>
-      </c>
       <c r="J4">
-        <v>1.018002278928982</v>
-      </c>
-      <c r="K4">
-        <v>1.046507173346474</v>
+        <v>0.9784777002682256</v>
       </c>
       <c r="L4">
-        <v>1.017787971845068</v>
+        <v>0.9797965515889006</v>
       </c>
       <c r="M4">
-        <v>1.050341379377689</v>
+        <v>0.9477153266852789</v>
       </c>
       <c r="N4">
-        <v>1.010121228696372</v>
+        <v>0.9798672508355674</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5">
-        <v>1.02</v>
-      </c>
       <c r="C5">
-        <v>1.013604760228603</v>
-      </c>
-      <c r="D5">
-        <v>1.044183163784159</v>
+        <v>0.9598019338788212</v>
       </c>
       <c r="E5">
-        <v>1.015457619682565</v>
+        <v>0.9708527944323516</v>
       </c>
       <c r="F5">
-        <v>1.048076393245307</v>
+        <v>0.939458082757811</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>1.036423567873966</v>
-      </c>
       <c r="J5">
-        <v>1.01814679084343</v>
-      </c>
-      <c r="K5">
-        <v>1.046595279720683</v>
+        <v>0.9798077482067226</v>
       </c>
       <c r="L5">
-        <v>1.017941730548223</v>
+        <v>0.9810824118589895</v>
       </c>
       <c r="M5">
-        <v>1.050479078094131</v>
+        <v>0.9501020148839683</v>
       </c>
       <c r="N5">
-        <v>1.010169901398223</v>
+        <v>0.9811991875946959</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6">
-        <v>1.02</v>
-      </c>
       <c r="C6">
-        <v>1.013645831024387</v>
-      </c>
-      <c r="D6">
-        <v>1.044206633775232</v>
+        <v>0.9601137603313427</v>
       </c>
       <c r="E6">
-        <v>1.015492432571367</v>
+        <v>0.9711097950342265</v>
       </c>
       <c r="F6">
-        <v>1.048108180338409</v>
+        <v>0.9399031849896525</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>1.036426659637983</v>
-      </c>
       <c r="J6">
-        <v>1.018171058679259</v>
-      </c>
-      <c r="K6">
-        <v>1.046610062991294</v>
+        <v>0.9800295934985443</v>
       </c>
       <c r="L6">
-        <v>1.017967553779879</v>
+        <v>0.9812969261389407</v>
       </c>
       <c r="M6">
-        <v>1.05050219425569</v>
+        <v>0.9504999693220954</v>
       </c>
       <c r="N6">
-        <v>1.010178073619854</v>
+        <v>0.9814213479322776</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>1.02</v>
-      </c>
       <c r="C7">
-        <v>1.013363489882555</v>
-      </c>
-      <c r="D7">
-        <v>1.044045248588995</v>
+        <v>0.9579581760609406</v>
       </c>
       <c r="E7">
-        <v>1.015253143685098</v>
+        <v>0.9693337643880421</v>
       </c>
       <c r="F7">
-        <v>1.047889637746339</v>
+        <v>0.9368248483239291</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1.036405291593889</v>
-      </c>
       <c r="J7">
-        <v>1.018004209658929</v>
-      </c>
-      <c r="K7">
-        <v>1.046508351308991</v>
+        <v>0.9784955723055581</v>
       </c>
       <c r="L7">
-        <v>1.017790025942072</v>
+        <v>0.9798138272026889</v>
       </c>
       <c r="M7">
-        <v>1.050343219585296</v>
+        <v>0.9477474062859138</v>
       </c>
       <c r="N7">
-        <v>1.010121879072402</v>
+        <v>0.9798851482532427</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>1.02</v>
-      </c>
       <c r="C8">
-        <v>1.012185088047307</v>
-      </c>
-      <c r="D8">
-        <v>1.043370672744206</v>
+        <v>0.9486482107890778</v>
       </c>
       <c r="E8">
-        <v>1.014255236306557</v>
+        <v>0.9616779624447923</v>
       </c>
       <c r="F8">
-        <v>1.046976965673494</v>
+        <v>0.9234874470085552</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1.036313279407703</v>
-      </c>
       <c r="J8">
-        <v>1.017307343981573</v>
-      </c>
-      <c r="K8">
-        <v>1.046081751397282</v>
+        <v>0.9718586509409675</v>
       </c>
       <c r="L8">
-        <v>1.017048933316463</v>
+        <v>0.9734033304040413</v>
       </c>
       <c r="M8">
-        <v>1.04967815759951</v>
+        <v>0.9358142820228358</v>
       </c>
       <c r="N8">
-        <v>1.009886978078182</v>
+        <v>0.9732388016990492</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9">
-        <v>1.02</v>
-      </c>
       <c r="C9">
-        <v>1.010115230981826</v>
-      </c>
-      <c r="D9">
-        <v>1.042182083169535</v>
+        <v>0.9309368692297683</v>
       </c>
       <c r="E9">
-        <v>1.012505502363995</v>
+        <v>0.9471799915878465</v>
       </c>
       <c r="F9">
-        <v>1.045371894766127</v>
+        <v>0.8978875194172762</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-      <c r="I9">
-        <v>1.036141028339403</v>
-      </c>
       <c r="J9">
-        <v>1.016081472781086</v>
-      </c>
-      <c r="K9">
-        <v>1.045324625207025</v>
+        <v>0.9591884982792505</v>
       </c>
       <c r="L9">
-        <v>1.015746676489813</v>
+        <v>0.9611924046096463</v>
       </c>
       <c r="M9">
-        <v>1.048504200279087</v>
+        <v>0.9128873646907237</v>
       </c>
       <c r="N9">
-        <v>1.009473019019609</v>
+        <v>0.9605506559672655</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>1.02</v>
-      </c>
       <c r="C10">
-        <v>1.008739866177731</v>
-      </c>
-      <c r="D10">
-        <v>1.04138988789033</v>
+        <v>0.9180504149914237</v>
       </c>
       <c r="E10">
-        <v>1.011344963952945</v>
+        <v>0.9366864019342607</v>
       </c>
       <c r="F10">
-        <v>1.044304123581206</v>
+        <v>0.8790291643647631</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="I10">
-        <v>1.036019442739917</v>
-      </c>
       <c r="J10">
-        <v>1.015265701362877</v>
-      </c>
-      <c r="K10">
-        <v>1.044816338919899</v>
+        <v>0.9499400998670399</v>
       </c>
       <c r="L10">
-        <v>1.014881028459589</v>
+        <v>0.9523013196123896</v>
       </c>
       <c r="M10">
-        <v>1.047720312529139</v>
+        <v>0.8959899147654018</v>
       </c>
       <c r="N10">
-        <v>1.009197051256456</v>
+        <v>0.9512891237685035</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11">
-        <v>1.02</v>
-      </c>
       <c r="C11">
-        <v>1.008145410967451</v>
-      </c>
-      <c r="D11">
-        <v>1.041046933269902</v>
+        <v>0.9121586469191234</v>
       </c>
       <c r="E11">
-        <v>1.010843870002949</v>
+        <v>0.9319041540837815</v>
       </c>
       <c r="F11">
-        <v>1.043842336833083</v>
+        <v>0.8703290584636444</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-      <c r="I11">
-        <v>1.035965203681352</v>
-      </c>
       <c r="J11">
-        <v>1.014912827605719</v>
-      </c>
-      <c r="K11">
-        <v>1.044595427290222</v>
+        <v>0.9457044986885033</v>
       </c>
       <c r="L11">
-        <v>1.014506807321925</v>
+        <v>0.9482356285770227</v>
       </c>
       <c r="M11">
-        <v>1.047380608957135</v>
+        <v>0.8881946249188322</v>
       </c>
       <c r="N11">
-        <v>1.009077561126036</v>
+        <v>0.9470475075504633</v>
       </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12">
-        <v>1.02</v>
-      </c>
       <c r="C12">
-        <v>1.007924768397675</v>
-      </c>
-      <c r="D12">
-        <v>1.040919557604022</v>
+        <v>0.9099174908576831</v>
       </c>
       <c r="E12">
-        <v>1.010657957429504</v>
+        <v>0.9300876092171033</v>
       </c>
       <c r="F12">
-        <v>1.043670896039033</v>
+        <v>0.8670054707059701</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="I12">
-        <v>1.035944818557976</v>
-      </c>
       <c r="J12">
-        <v>1.014781809900538</v>
-      </c>
-      <c r="K12">
-        <v>1.044513249288648</v>
+        <v>0.9440922267913802</v>
       </c>
       <c r="L12">
-        <v>1.014367897853135</v>
+        <v>0.9466890780975398</v>
       </c>
       <c r="M12">
-        <v>1.047254388620293</v>
+        <v>0.8852169481725592</v>
       </c>
       <c r="N12">
-        <v>1.009033178496756</v>
+        <v>0.9454329460423159</v>
       </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13">
-        <v>1.02</v>
-      </c>
       <c r="C13">
-        <v>1.007972089510418</v>
-      </c>
-      <c r="D13">
-        <v>1.04094687949454</v>
+        <v>0.9104007166052402</v>
       </c>
       <c r="E13">
-        <v>1.010697826505036</v>
+        <v>0.9304791629497327</v>
       </c>
       <c r="F13">
-        <v>1.04370766667864</v>
+        <v>0.8677227690007263</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-      <c r="I13">
-        <v>1.035949202007696</v>
-      </c>
       <c r="J13">
-        <v>1.014809911121447</v>
-      </c>
-      <c r="K13">
-        <v>1.044530882224437</v>
+        <v>0.9444399062232224</v>
       </c>
       <c r="L13">
-        <v>1.014397690180608</v>
+        <v>0.9470225359879154</v>
       </c>
       <c r="M13">
-        <v>1.047281465057403</v>
+        <v>0.8858595760307714</v>
       </c>
       <c r="N13">
-        <v>1.009042698653964</v>
+        <v>0.9457811192188308</v>
       </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14">
-        <v>1.02</v>
-      </c>
       <c r="C14">
-        <v>1.008127169219331</v>
-      </c>
-      <c r="D14">
-        <v>1.041036404080416</v>
+        <v>0.9119745048247226</v>
       </c>
       <c r="E14">
-        <v>1.010828497995046</v>
+        <v>0.9317548463490766</v>
       </c>
       <c r="F14">
-        <v>1.043828163687214</v>
+        <v>0.8700562825860749</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-      <c r="I14">
-        <v>1.035963523497703</v>
-      </c>
       <c r="J14">
-        <v>1.014901996506251</v>
-      </c>
-      <c r="K14">
-        <v>1.044588636901739</v>
+        <v>0.9455720506529107</v>
       </c>
       <c r="L14">
-        <v>1.014495323119035</v>
+        <v>0.9481085577312959</v>
       </c>
       <c r="M14">
-        <v>1.047370176334914</v>
+        <v>0.8879502322287849</v>
       </c>
       <c r="N14">
-        <v>1.009073892414331</v>
+        <v>0.946914871423468</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15">
-        <v>1.02</v>
-      </c>
       <c r="C15">
-        <v>1.008222740790929</v>
-      </c>
-      <c r="D15">
-        <v>1.04109156491589</v>
+        <v>0.9129369923917725</v>
       </c>
       <c r="E15">
-        <v>1.010909037688698</v>
+        <v>0.9325353645304439</v>
       </c>
       <c r="F15">
-        <v>1.043902417520923</v>
+        <v>0.8714814569302148</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-      <c r="I15">
-        <v>1.035972315884637</v>
-      </c>
       <c r="J15">
-        <v>1.014958740715473</v>
-      </c>
-      <c r="K15">
-        <v>1.044624205402668</v>
+        <v>0.9462642950277583</v>
       </c>
       <c r="L15">
-        <v>1.014555490345495</v>
+        <v>0.9487727410836875</v>
       </c>
       <c r="M15">
-        <v>1.047424829132613</v>
+        <v>0.8892271245541835</v>
       </c>
       <c r="N15">
-        <v>1.00909311210914</v>
+        <v>0.9476080988647293</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16">
-        <v>1.02</v>
-      </c>
       <c r="C16">
-        <v>1.008779341219539</v>
-      </c>
-      <c r="D16">
-        <v>1.041412650351327</v>
+        <v>0.9184343875086275</v>
       </c>
       <c r="E16">
-        <v>1.011378250112031</v>
+        <v>0.9369984041055459</v>
       </c>
       <c r="F16">
-        <v>1.044334782964421</v>
+        <v>0.8795943590734797</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-      <c r="I16">
-        <v>1.036023008941801</v>
-      </c>
       <c r="J16">
-        <v>1.015289128127424</v>
-      </c>
-      <c r="K16">
-        <v>1.04483098295568</v>
+        <v>0.9502159889032061</v>
       </c>
       <c r="L16">
-        <v>1.014905877246543</v>
+        <v>0.9525662787410079</v>
       </c>
       <c r="M16">
-        <v>1.047742851914224</v>
+        <v>0.8964963505232736</v>
       </c>
       <c r="N16">
-        <v>1.00920498158328</v>
+        <v>0.9515654045987461</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17">
-        <v>1.02</v>
-      </c>
       <c r="C17">
-        <v>1.009128773839035</v>
-      </c>
-      <c r="D17">
-        <v>1.041614079411703</v>
+        <v>0.9217954674741035</v>
       </c>
       <c r="E17">
-        <v>1.011672957849221</v>
+        <v>0.939731258962902</v>
       </c>
       <c r="F17">
-        <v>1.044606147439556</v>
+        <v>0.8845327758146692</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-      <c r="I17">
-        <v>1.036054381789619</v>
-      </c>
       <c r="J17">
-        <v>1.015496468780235</v>
-      </c>
-      <c r="K17">
-        <v>1.04496047060172</v>
+        <v>0.9526301609452779</v>
       </c>
       <c r="L17">
-        <v>1.015125829936746</v>
+        <v>0.9548855213972851</v>
       </c>
       <c r="M17">
-        <v>1.047942266998372</v>
+        <v>0.9009213993546525</v>
       </c>
       <c r="N17">
-        <v>1.009275156211256</v>
+        <v>0.9539830050420268</v>
       </c>
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18">
-        <v>1.02</v>
-      </c>
       <c r="C18">
-        <v>1.009332696750791</v>
-      </c>
-      <c r="D18">
-        <v>1.041731576289905</v>
+        <v>0.9237262852112872</v>
       </c>
       <c r="E18">
-        <v>1.011844993444063</v>
+        <v>0.9413026136328089</v>
       </c>
       <c r="F18">
-        <v>1.044764484118643</v>
+        <v>0.8873626214405246</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-      <c r="I18">
-        <v>1.03607252741144</v>
-      </c>
       <c r="J18">
-        <v>1.015617441796319</v>
-      </c>
-      <c r="K18">
-        <v>1.045035919295762</v>
+        <v>0.9540163470520785</v>
       </c>
       <c r="L18">
-        <v>1.015254183408325</v>
+        <v>0.9562177772780686</v>
       </c>
       <c r="M18">
-        <v>1.048058555774667</v>
+        <v>0.9034570705592901</v>
       </c>
       <c r="N18">
-        <v>1.009316088406426</v>
+        <v>0.9553711596920971</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19">
-        <v>1.02</v>
-      </c>
       <c r="C19">
-        <v>1.009402246926962</v>
-      </c>
-      <c r="D19">
-        <v>1.041771640759152</v>
+        <v>0.9243797766076642</v>
       </c>
       <c r="E19">
-        <v>1.011903676417667</v>
+        <v>0.9418346795731052</v>
       </c>
       <c r="F19">
-        <v>1.044818481982297</v>
+        <v>0.8883192523502305</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-      <c r="I19">
-        <v>1.036078688516612</v>
-      </c>
       <c r="J19">
-        <v>1.015658696323355</v>
-      </c>
-      <c r="K19">
-        <v>1.045061631856462</v>
+        <v>0.9544853933261053</v>
       </c>
       <c r="L19">
-        <v>1.015297958558671</v>
+        <v>0.9566686701896916</v>
       </c>
       <c r="M19">
-        <v>1.048098202657519</v>
+        <v>0.9043142495412277</v>
       </c>
       <c r="N19">
-        <v>1.009330045301601</v>
+        <v>0.9558408720656332</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20">
-        <v>1.02</v>
-      </c>
       <c r="C20">
-        <v>1.009091272179166</v>
-      </c>
-      <c r="D20">
-        <v>1.04159246726894</v>
+        <v>0.921437960372113</v>
       </c>
       <c r="E20">
-        <v>1.011641324257851</v>
+        <v>0.9394404238332147</v>
       </c>
       <c r="F20">
-        <v>1.04457702695794</v>
+        <v>0.8840082463319048</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-      <c r="I20">
-        <v>1.036051031664722</v>
-      </c>
       <c r="J20">
-        <v>1.015474219490858</v>
-      </c>
-      <c r="K20">
-        <v>1.044946585988944</v>
+        <v>0.9523734429165456</v>
       </c>
       <c r="L20">
-        <v>1.015102225004869</v>
+        <v>0.9546388372458454</v>
       </c>
       <c r="M20">
-        <v>1.047920874391011</v>
+        <v>0.9004513954069254</v>
       </c>
       <c r="N20">
-        <v>1.009267627080463</v>
+        <v>0.9537259224442476</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21">
-        <v>1.02</v>
-      </c>
       <c r="C21">
-        <v>1.008081497557247</v>
-      </c>
-      <c r="D21">
-        <v>1.041010040945632</v>
+        <v>0.9115125703453313</v>
       </c>
       <c r="E21">
-        <v>1.010790012521267</v>
+        <v>0.9313803385320625</v>
       </c>
       <c r="F21">
-        <v>1.043792677890168</v>
+        <v>0.8693717665434543</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-      <c r="I21">
-        <v>1.035959312748193</v>
-      </c>
       <c r="J21">
-        <v>1.01487487811936</v>
-      </c>
-      <c r="K21">
-        <v>1.04457163293187</v>
+        <v>0.9452397768636933</v>
       </c>
       <c r="L21">
-        <v>1.014466570076887</v>
+        <v>0.9477897909268376</v>
       </c>
       <c r="M21">
-        <v>1.04734405414364</v>
+        <v>0.8873369472075463</v>
       </c>
       <c r="N21">
-        <v>1.009064706589069</v>
+        <v>0.9465821257673576</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>1.02</v>
-      </c>
       <c r="C22">
-        <v>1.007447564926404</v>
-      </c>
-      <c r="D22">
-        <v>1.040643922437217</v>
+        <v>0.9049634739858824</v>
       </c>
       <c r="E22">
-        <v>1.010256009755318</v>
+        <v>0.926077213034515</v>
       </c>
       <c r="F22">
-        <v>1.043300033175481</v>
+        <v>0.8596292967620413</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-      <c r="I22">
-        <v>1.035900266968022</v>
-      </c>
       <c r="J22">
-        <v>1.014498369038922</v>
-      </c>
-      <c r="K22">
-        <v>1.044335182418614</v>
+        <v>0.9405262619319523</v>
       </c>
       <c r="L22">
-        <v>1.014067446844401</v>
+        <v>0.9432705401068511</v>
       </c>
       <c r="M22">
-        <v>1.046981157945773</v>
+        <v>0.8786092465315735</v>
       </c>
       <c r="N22">
-        <v>1.008937130320726</v>
+        <v>0.9418619171037658</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23">
-        <v>1.02</v>
-      </c>
       <c r="C23">
-        <v>1.007783533869373</v>
-      </c>
-      <c r="D23">
-        <v>1.040838000826362</v>
+        <v>0.9084667798043545</v>
       </c>
       <c r="E23">
-        <v>1.010538975616547</v>
+        <v>0.928912505967651</v>
       </c>
       <c r="F23">
-        <v>1.043561144617569</v>
+        <v>0.8648497409394205</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-      <c r="I23">
-        <v>1.035931698644426</v>
-      </c>
       <c r="J23">
-        <v>1.014697932854643</v>
-      </c>
-      <c r="K23">
-        <v>1.044460595360376</v>
+        <v>0.943048280329935</v>
       </c>
       <c r="L23">
-        <v>1.014278978183303</v>
+        <v>0.9456879957669945</v>
       </c>
       <c r="M23">
-        <v>1.047173556877813</v>
+        <v>0.8832856871338197</v>
       </c>
       <c r="N23">
-        <v>1.00900476001069</v>
+        <v>0.9443875170571533</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24">
-        <v>1.02</v>
-      </c>
       <c r="C24">
-        <v>1.009108217241411</v>
-      </c>
-      <c r="D24">
-        <v>1.041602232845515</v>
+        <v>0.9215995936188751</v>
       </c>
       <c r="E24">
-        <v>1.011655617691317</v>
+        <v>0.939571909454059</v>
       </c>
       <c r="F24">
-        <v>1.044590185082418</v>
+        <v>0.8842454142872449</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>1.036052545916749</v>
-      </c>
       <c r="J24">
-        <v>1.015484272879868</v>
-      </c>
-      <c r="K24">
-        <v>1.044952860092908</v>
+        <v>0.9524895102897657</v>
       </c>
       <c r="L24">
-        <v>1.015112890876025</v>
+        <v>0.9547503663144391</v>
       </c>
       <c r="M24">
-        <v>1.047930540872096</v>
+        <v>0.9006639094578027</v>
       </c>
       <c r="N24">
-        <v>1.009271029169025</v>
+        <v>0.9538421546464511</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25">
-        <v>1.02</v>
-      </c>
       <c r="C25">
-        <v>1.010649544134275</v>
-      </c>
-      <c r="D25">
-        <v>1.042489336770077</v>
+        <v>0.9356892935884337</v>
       </c>
       <c r="E25">
-        <v>1.012956808764195</v>
+        <v>0.9510616292313354</v>
       </c>
       <c r="F25">
-        <v>1.045786453277501</v>
+        <v>0.904789688938149</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-      <c r="I25">
-        <v>1.036186752917476</v>
-      </c>
       <c r="J25">
-        <v>1.016398134645756</v>
-      </c>
-      <c r="K25">
-        <v>1.045520990708562</v>
+        <v>0.96259327589494</v>
       </c>
       <c r="L25">
-        <v>1.01608290177176</v>
+        <v>0.964470333614837</v>
       </c>
       <c r="M25">
-        <v>1.048807925204216</v>
+        <v>0.9190707937675611</v>
       </c>
       <c r="N25">
-        <v>1.009580038498504</v>
+        <v>0.9639602687577029</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,701 +412,857 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.9461692172995129</v>
+        <v>0.9636506651841608</v>
       </c>
       <c r="E2">
-        <v>0.9596434903884663</v>
+        <v>0.9746664285089648</v>
       </c>
       <c r="F2">
-        <v>0.9199234399015853</v>
+        <v>1.000875884369831</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="J2">
-        <v>0.9700885110904757</v>
+        <v>0.9869757303816484</v>
       </c>
       <c r="L2">
-        <v>0.9716952357474186</v>
+        <v>0.9864903587215618</v>
       </c>
       <c r="M2">
-        <v>0.9326238585607505</v>
+        <v>1.012323030204687</v>
       </c>
       <c r="N2">
-        <v>0.9714661480469319</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.9883773491264887</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.018324890949152</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.9534053335718409</v>
+        <v>0.9693685014884027</v>
       </c>
       <c r="E3">
-        <v>0.9655868422326271</v>
+        <v>0.9793267609806251</v>
       </c>
       <c r="F3">
-        <v>0.9303113987982857</v>
+        <v>1.004778153333888</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>0.9752521672617573</v>
+        <v>0.990730532442513</v>
       </c>
       <c r="L3">
-        <v>0.9766798421741613</v>
+        <v>0.9902311768957867</v>
       </c>
       <c r="M3">
-        <v>0.9419210953951721</v>
+        <v>1.015350259692081</v>
       </c>
       <c r="N3">
-        <v>0.9766371372022561</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>0.9921374834369618</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.020720812607484</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9579330712616049</v>
+        <v>0.9729714336009959</v>
       </c>
       <c r="E4">
-        <v>0.9693130876658019</v>
+        <v>0.9822693725604646</v>
       </c>
       <c r="F4">
-        <v>0.9367889765649677</v>
+        <v>1.007250334727888</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="J4">
-        <v>0.9784777002682256</v>
+        <v>0.9930927474503498</v>
       </c>
       <c r="L4">
-        <v>0.9797965515889006</v>
+        <v>0.9925866083279457</v>
       </c>
       <c r="M4">
-        <v>0.9477153266852789</v>
+        <v>1.017262035158806</v>
       </c>
       <c r="N4">
-        <v>0.9798672508355674</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>0.9945030530610597</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.022233896068911</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9598019338788212</v>
+        <v>0.9744639659293917</v>
       </c>
       <c r="E5">
-        <v>0.9708527944323516</v>
+        <v>0.9834897333620854</v>
       </c>
       <c r="F5">
-        <v>0.939458082757811</v>
+        <v>1.008277525615206</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="J5">
-        <v>0.9798077482067226</v>
+        <v>0.9940703468016618</v>
       </c>
       <c r="L5">
-        <v>0.9810824118589895</v>
+        <v>0.9935618742805901</v>
       </c>
       <c r="M5">
-        <v>0.9501020148839683</v>
+        <v>1.018054943817704</v>
       </c>
       <c r="N5">
-        <v>0.9811991875946959</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>0.995482040715583</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.022861446265792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9601137603313427</v>
+        <v>0.9747132997224045</v>
       </c>
       <c r="E6">
-        <v>0.9711097950342265</v>
+        <v>0.9836936780872515</v>
       </c>
       <c r="F6">
-        <v>0.9399031849896525</v>
+        <v>1.008449300126389</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="J6">
-        <v>0.9800295934985443</v>
+        <v>0.9942336008548981</v>
       </c>
       <c r="L6">
-        <v>0.9812969261389407</v>
+        <v>0.9937247662880316</v>
       </c>
       <c r="M6">
-        <v>0.9504999693220954</v>
+        <v>1.018187456114553</v>
       </c>
       <c r="N6">
-        <v>0.9814213479322776</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>0.9956455266083002</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.022966323507233</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9579581760609406</v>
+        <v>0.9729914625435271</v>
       </c>
       <c r="E7">
-        <v>0.9693337643880421</v>
+        <v>0.9822857437984036</v>
       </c>
       <c r="F7">
-        <v>0.9368248483239291</v>
+        <v>1.007264107015668</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="J7">
-        <v>0.9784955723055581</v>
+        <v>0.9931058701510653</v>
       </c>
       <c r="L7">
-        <v>0.9798138272026889</v>
+        <v>0.992599697842755</v>
       </c>
       <c r="M7">
-        <v>0.9477474062859138</v>
+        <v>1.01727267189781</v>
       </c>
       <c r="N7">
-        <v>0.9798851482532427</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>0.9945161943975155</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.02224231455526</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9486482107890778</v>
+        <v>0.9656037550981181</v>
       </c>
       <c r="E8">
-        <v>0.9616779624447923</v>
+        <v>0.9762569773435176</v>
       </c>
       <c r="F8">
-        <v>0.9234874470085552</v>
+        <v>1.002205951277554</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.9718586509409675</v>
+        <v>0.988259047894435</v>
       </c>
       <c r="L8">
-        <v>0.9734033304040413</v>
+        <v>0.9877684664054435</v>
       </c>
       <c r="M8">
-        <v>0.9358142820228358</v>
+        <v>1.013356124236444</v>
       </c>
       <c r="N8">
-        <v>0.9732388016990492</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>0.989662489097342</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.019142541314144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9309368692297683</v>
+        <v>0.9517921608360894</v>
       </c>
       <c r="E9">
-        <v>0.9471799915878465</v>
+        <v>0.9650386031107939</v>
       </c>
       <c r="F9">
-        <v>0.8978875194172762</v>
+        <v>0.9928620923792455</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="J9">
-        <v>0.9591884982792505</v>
+        <v>0.9791701569387238</v>
       </c>
       <c r="L9">
-        <v>0.9611924046096463</v>
+        <v>0.9787255715695433</v>
       </c>
       <c r="M9">
-        <v>0.9128873646907237</v>
+        <v>1.006072048558888</v>
       </c>
       <c r="N9">
-        <v>0.9605506559672655</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9805606908739636</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.013377480967792</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9180504149914237</v>
+        <v>0.9422374087138704</v>
       </c>
       <c r="E10">
-        <v>0.9366864019342607</v>
+        <v>0.9573421786509589</v>
       </c>
       <c r="F10">
-        <v>0.8790291643647631</v>
+        <v>0.9867203866544065</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="J10">
-        <v>0.9499400998670399</v>
+        <v>0.9729462574678778</v>
       </c>
       <c r="L10">
-        <v>0.9523013196123896</v>
+        <v>0.9725268513143996</v>
       </c>
       <c r="M10">
-        <v>0.8959899147654018</v>
+        <v>1.001333620750513</v>
       </c>
       <c r="N10">
-        <v>0.9512891237685035</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9743279527519776</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.009680474783739</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9121586469191234</v>
+        <v>0.9401089730950136</v>
       </c>
       <c r="E11">
-        <v>0.9319041540837815</v>
+        <v>0.9558391172692814</v>
       </c>
       <c r="F11">
-        <v>0.8703290584636444</v>
+        <v>0.9872748495108955</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="J11">
-        <v>0.9457044986885033</v>
+        <v>0.972204471409724</v>
       </c>
       <c r="L11">
-        <v>0.9482356285770227</v>
+        <v>0.9716448287261006</v>
       </c>
       <c r="M11">
-        <v>0.8881946249188322</v>
+        <v>1.002440800789121</v>
       </c>
       <c r="N11">
-        <v>0.9470475075504633</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9735851132725373</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.011007211434002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9099174908576831</v>
+        <v>0.9401182201110668</v>
       </c>
       <c r="E12">
-        <v>0.9300876092171033</v>
+        <v>0.9560091478021131</v>
       </c>
       <c r="F12">
-        <v>0.8670054707059701</v>
+        <v>0.9886117163424121</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="J12">
-        <v>0.9440922267913802</v>
+        <v>0.9726923978616049</v>
       </c>
       <c r="L12">
-        <v>0.9466890780975398</v>
+        <v>0.9720306259811551</v>
       </c>
       <c r="M12">
-        <v>0.8852169481725592</v>
+        <v>1.003960399293106</v>
       </c>
       <c r="N12">
-        <v>0.9454329460423159</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.9740737326359459</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.012544722656204</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9104007166052402</v>
+        <v>0.9417554710928584</v>
       </c>
       <c r="E13">
-        <v>0.9304791629497327</v>
+        <v>0.9574590741306168</v>
       </c>
       <c r="F13">
-        <v>0.8677227690007263</v>
+        <v>0.9906514614960159</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="J13">
-        <v>0.9444399062232224</v>
+        <v>0.9741445830017454</v>
       </c>
       <c r="L13">
-        <v>0.9470225359879154</v>
+        <v>0.973402385903585</v>
       </c>
       <c r="M13">
-        <v>0.8858595760307714</v>
+        <v>1.005915339209108</v>
       </c>
       <c r="N13">
-        <v>0.9457811192188308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9755279800455534</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.01437358957179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9119745048247226</v>
+        <v>0.9436056882018089</v>
       </c>
       <c r="E14">
-        <v>0.9317548463490766</v>
+        <v>0.9590253185465794</v>
       </c>
       <c r="F14">
-        <v>0.8700562825860749</v>
+        <v>0.9923578820683291</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="J14">
-        <v>0.9455720506529107</v>
+        <v>0.975567782040266</v>
       </c>
       <c r="L14">
-        <v>0.9481085577312959</v>
+        <v>0.9747817063766665</v>
       </c>
       <c r="M14">
-        <v>0.8879502322287849</v>
+        <v>1.007442531239495</v>
       </c>
       <c r="N14">
-        <v>0.946914871423468</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.9769532001899519</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.015757449877475</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9129369923917725</v>
+        <v>0.944427501569709</v>
       </c>
       <c r="E15">
-        <v>0.9325353645304439</v>
+        <v>0.9597007935732963</v>
       </c>
       <c r="F15">
-        <v>0.8714814569302148</v>
+        <v>0.9929807911677175</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="J15">
-        <v>0.9462642950277583</v>
+        <v>0.9761435404421839</v>
       </c>
       <c r="L15">
-        <v>0.9487727410836875</v>
+        <v>0.9753485103645353</v>
       </c>
       <c r="M15">
-        <v>0.8892271245541835</v>
+        <v>1.007963633321162</v>
       </c>
       <c r="N15">
-        <v>0.9476080988647293</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.9775297762348408</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.016207495482524</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9184343875086275</v>
+        <v>0.9481006967547291</v>
       </c>
       <c r="E16">
-        <v>0.9369984041055459</v>
+        <v>0.9626208882670418</v>
       </c>
       <c r="F16">
-        <v>0.8795943590734797</v>
+        <v>0.9951990254004894</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="J16">
-        <v>0.9502159889032061</v>
+        <v>0.9784523434077329</v>
       </c>
       <c r="L16">
-        <v>0.9525662787410079</v>
+        <v>0.977660728118531</v>
       </c>
       <c r="M16">
-        <v>0.8964963505232736</v>
+        <v>1.009618572947356</v>
       </c>
       <c r="N16">
-        <v>0.9515654045987461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9798418579654241</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.017476149989355</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9217954674741035</v>
+        <v>0.94996584648321</v>
       </c>
       <c r="E17">
-        <v>0.939731258962902</v>
+        <v>0.9640567615487766</v>
       </c>
       <c r="F17">
-        <v>0.8845327758146692</v>
+        <v>0.9960182062866144</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="J17">
-        <v>0.9526301609452779</v>
+        <v>0.9794924869146864</v>
       </c>
       <c r="L17">
-        <v>0.9548855213972851</v>
+        <v>0.9787257894848463</v>
       </c>
       <c r="M17">
-        <v>0.9009213993546525</v>
+        <v>1.010096412831964</v>
       </c>
       <c r="N17">
-        <v>0.9539830050420268</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9808834785954638</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.017722458384206</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9237262852112872</v>
+        <v>0.9503828711407456</v>
       </c>
       <c r="E18">
-        <v>0.9413026136328089</v>
+        <v>0.9642852836205973</v>
       </c>
       <c r="F18">
-        <v>0.8873626214405246</v>
+        <v>0.9955188947620008</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="J18">
-        <v>0.9540163470520785</v>
+        <v>0.9794609031611687</v>
       </c>
       <c r="L18">
-        <v>0.9562177772780686</v>
+        <v>0.9787503560605993</v>
       </c>
       <c r="M18">
-        <v>0.9034570705592901</v>
+        <v>1.00941542883622</v>
       </c>
       <c r="N18">
-        <v>0.9553711596920971</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9808518499893933</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.016941399559258</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9243797766076642</v>
+        <v>0.9494493257435924</v>
       </c>
       <c r="E19">
-        <v>0.9418346795731052</v>
+        <v>0.9633896826494872</v>
       </c>
       <c r="F19">
-        <v>0.8883192523502305</v>
+        <v>0.9937050358016928</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="J19">
-        <v>0.9544853933261053</v>
+        <v>0.9784214250232318</v>
       </c>
       <c r="L19">
-        <v>0.9566686701896916</v>
+        <v>0.9778036433901413</v>
       </c>
       <c r="M19">
-        <v>0.9043142495412277</v>
+        <v>1.007568188270722</v>
       </c>
       <c r="N19">
-        <v>0.9558408720656332</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9798108956732708</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.015146967131749</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.921437960372113</v>
+        <v>0.944738571136564</v>
       </c>
       <c r="E20">
-        <v>0.9394404238332147</v>
+        <v>0.9593544791941412</v>
       </c>
       <c r="F20">
-        <v>0.8840082463319048</v>
+        <v>0.9883328997194274</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="J20">
-        <v>0.9523734429165456</v>
+        <v>0.9745794719741405</v>
       </c>
       <c r="L20">
-        <v>0.9546388372458454</v>
+        <v>0.9741517758021541</v>
       </c>
       <c r="M20">
-        <v>0.9004513954069254</v>
+        <v>1.002584050991945</v>
       </c>
       <c r="N20">
-        <v>0.9537259224442476</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9759634866101715</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.010659167504841</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9115125703453313</v>
+        <v>0.9370731016786238</v>
       </c>
       <c r="E21">
-        <v>0.9313803385320625</v>
+        <v>0.9531592403263236</v>
       </c>
       <c r="F21">
-        <v>0.8693717665434543</v>
+        <v>0.9830577427218071</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="J21">
-        <v>0.9452397768636933</v>
+        <v>0.9694595516130893</v>
       </c>
       <c r="L21">
-        <v>0.9477897909268376</v>
+        <v>0.9690858962770819</v>
       </c>
       <c r="M21">
-        <v>0.8873369472075463</v>
+        <v>0.9983673609253659</v>
       </c>
       <c r="N21">
-        <v>0.9465821257673576</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9708362953749448</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.007279467233271</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9049634739858824</v>
+        <v>0.9322269536551766</v>
       </c>
       <c r="E22">
-        <v>0.926077213034515</v>
+        <v>0.949265488680671</v>
       </c>
       <c r="F22">
-        <v>0.8596292967620413</v>
+        <v>0.9798632805308528</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.9405262619319523</v>
+        <v>0.9662594815816569</v>
       </c>
       <c r="L22">
-        <v>0.9432705401068511</v>
+        <v>0.9659137654599315</v>
       </c>
       <c r="M22">
-        <v>0.8786092465315735</v>
+        <v>0.9958444900190124</v>
       </c>
       <c r="N22">
-        <v>0.9418619171037658</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9676316808770148</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.005282683013358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9084667798043545</v>
+        <v>0.9348114426080791</v>
       </c>
       <c r="E23">
-        <v>0.928912505967651</v>
+        <v>0.9513409705363272</v>
       </c>
       <c r="F23">
-        <v>0.8648497409394205</v>
+        <v>0.9815648669825232</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="J23">
-        <v>0.943048280329935</v>
+        <v>0.9679662117501038</v>
       </c>
       <c r="L23">
-        <v>0.9456879957669945</v>
+        <v>0.9676053219369383</v>
       </c>
       <c r="M23">
-        <v>0.8832856871338197</v>
+        <v>0.9971890789070802</v>
       </c>
       <c r="N23">
-        <v>0.9443875170571533</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.969340834798065</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.006346889604294</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9215995936188751</v>
+        <v>0.9446556537906088</v>
       </c>
       <c r="E24">
-        <v>0.939571909454059</v>
+        <v>0.9592690301465921</v>
       </c>
       <c r="F24">
-        <v>0.8842454142872449</v>
+        <v>0.9880891466858167</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="J24">
-        <v>0.9524895102897657</v>
+        <v>0.9744641652683503</v>
       </c>
       <c r="L24">
-        <v>0.9547503663144391</v>
+        <v>0.97405128631682</v>
       </c>
       <c r="M24">
-        <v>0.9006639094578027</v>
+        <v>1.002328709551142</v>
       </c>
       <c r="N24">
-        <v>0.9538421546464511</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9758480161556335</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.010414755125815</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.9356892935884337</v>
+        <v>0.9554645078678394</v>
       </c>
       <c r="E25">
-        <v>0.9510616292313354</v>
+        <v>0.9680147371485603</v>
       </c>
       <c r="F25">
-        <v>0.904789688938149</v>
+        <v>0.9953326140662039</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="J25">
-        <v>0.96259327589494</v>
+        <v>0.9815895916478651</v>
       </c>
       <c r="L25">
-        <v>0.964470333614837</v>
+        <v>0.981130743132496</v>
       </c>
       <c r="M25">
-        <v>0.9190707937675611</v>
+        <v>1.008003819883133</v>
       </c>
       <c r="N25">
-        <v>0.9639602687577029</v>
+        <v>0.9829835614579049</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.014906407163749</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_bus/vm_pu.xlsx
@@ -429,840 +429,1272 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
+      <c r="B2">
+        <v>1.05</v>
+      </c>
       <c r="C2">
-        <v>0.9636506651841608</v>
+        <v>1.011923627654584</v>
+      </c>
+      <c r="D2">
+        <v>1.047821301979452</v>
       </c>
       <c r="E2">
-        <v>0.9746664285089648</v>
+        <v>1.029206578843048</v>
       </c>
       <c r="F2">
-        <v>1.000875884369831</v>
+        <v>1.045880881953535</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="I2">
+        <v>1.058822960849783</v>
+      </c>
       <c r="J2">
-        <v>0.9869757303816484</v>
+        <v>1.033753461317868</v>
+      </c>
+      <c r="K2">
+        <v>1.058652310901275</v>
       </c>
       <c r="L2">
-        <v>0.9864903587215618</v>
+        <v>1.040273479685037</v>
       </c>
       <c r="M2">
-        <v>1.012323030204687</v>
+        <v>1.056735992018948</v>
       </c>
       <c r="N2">
-        <v>0.9883773491264887</v>
+        <v>1.015128032843099</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.018324890949152</v>
+        <v>1.053475007998445</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.052542372719122</v>
       </c>
     </row>
     <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
       <c r="C3">
-        <v>0.9693685014884027</v>
+        <v>1.015244806602636</v>
+      </c>
+      <c r="D3">
+        <v>1.049787707499856</v>
       </c>
       <c r="E3">
-        <v>0.9793267609806251</v>
+        <v>1.031700334742615</v>
       </c>
       <c r="F3">
-        <v>1.004778153333888</v>
+        <v>1.048181002034595</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="I3">
+        <v>1.059602396399614</v>
+      </c>
       <c r="J3">
-        <v>0.990730532442513</v>
+        <v>1.035328337335108</v>
+      </c>
+      <c r="K3">
+        <v>1.059820840777821</v>
       </c>
       <c r="L3">
-        <v>0.9902311768957867</v>
+        <v>1.041943055297284</v>
       </c>
       <c r="M3">
-        <v>1.015350259692081</v>
+        <v>1.058232391886255</v>
       </c>
       <c r="N3">
-        <v>0.9921374834369618</v>
+        <v>1.015657390295724</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.020720812607484</v>
+        <v>1.054659286411249</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.053365976617961</v>
       </c>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
       <c r="C4">
-        <v>0.9729714336009959</v>
+        <v>1.017359700067581</v>
+      </c>
+      <c r="D4">
+        <v>1.051044475110536</v>
       </c>
       <c r="E4">
-        <v>0.9822693725604646</v>
+        <v>1.033294224900329</v>
       </c>
       <c r="F4">
-        <v>1.007250334727888</v>
+        <v>1.049651828021867</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="I4">
+        <v>1.060090538927884</v>
+      </c>
       <c r="J4">
-        <v>0.9930927474503498</v>
+        <v>1.036329531078013</v>
+      </c>
+      <c r="K4">
+        <v>1.060563528910372</v>
       </c>
       <c r="L4">
-        <v>0.9925866083279457</v>
+        <v>1.043006761526064</v>
       </c>
       <c r="M4">
-        <v>1.017262035158806</v>
+        <v>1.059185772223818</v>
       </c>
       <c r="N4">
-        <v>0.9945030530610597</v>
+        <v>1.015993943711422</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.022233896068911</v>
+        <v>1.055413808203297</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.053891979530234</v>
       </c>
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
       <c r="C5">
-        <v>0.9744639659293917</v>
+        <v>1.018242272081599</v>
+      </c>
+      <c r="D5">
+        <v>1.051573648479154</v>
       </c>
       <c r="E5">
-        <v>0.9834897333620854</v>
+        <v>1.033961356255876</v>
       </c>
       <c r="F5">
-        <v>1.008277525615206</v>
+        <v>1.050268368155196</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="I5">
+        <v>1.060293925623145</v>
+      </c>
       <c r="J5">
-        <v>0.9940703468016618</v>
+        <v>1.03674763904473</v>
+      </c>
+      <c r="K5">
+        <v>1.060877044176483</v>
       </c>
       <c r="L5">
-        <v>0.9935618742805901</v>
+        <v>1.043451702216934</v>
       </c>
       <c r="M5">
-        <v>1.018054943817704</v>
+        <v>1.059585356284884</v>
       </c>
       <c r="N5">
-        <v>0.995482040715583</v>
+        <v>1.016134745033934</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.022861446265792</v>
+        <v>1.055730045761012</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.054120689247146</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
       <c r="C6">
-        <v>0.9747132997224045</v>
+        <v>1.018391735586493</v>
+      </c>
+      <c r="D6">
+        <v>1.051667755592181</v>
       </c>
       <c r="E6">
-        <v>0.9836936780872515</v>
+        <v>1.034075138379537</v>
       </c>
       <c r="F6">
-        <v>1.008449300126389</v>
+        <v>1.050374449587263</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="I6">
+        <v>1.060330288823302</v>
+      </c>
       <c r="J6">
-        <v>0.9942336008548981</v>
+        <v>1.03681929366121</v>
+      </c>
+      <c r="K6">
+        <v>1.060934914200221</v>
       </c>
       <c r="L6">
-        <v>0.9937247662880316</v>
+        <v>1.043528196891834</v>
       </c>
       <c r="M6">
-        <v>1.018187456114553</v>
+        <v>1.059655015521885</v>
       </c>
       <c r="N6">
-        <v>0.9956455266083002</v>
+        <v>1.016159178402702</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.022966323507233</v>
+        <v>1.055785175241277</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.054170188158017</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
       <c r="C7">
-        <v>0.9729914625435271</v>
+        <v>1.017376175150377</v>
+      </c>
+      <c r="D7">
+        <v>1.051066182774454</v>
       </c>
       <c r="E7">
-        <v>0.9822857437984036</v>
+        <v>1.03330860933267</v>
       </c>
       <c r="F7">
-        <v>1.007264107015668</v>
+        <v>1.049667558327366</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="I7">
+        <v>1.060099778471947</v>
+      </c>
       <c r="J7">
-        <v>0.9931058701510653</v>
+        <v>1.036339671777977</v>
+      </c>
+      <c r="K7">
+        <v>1.060582196918454</v>
       </c>
       <c r="L7">
-        <v>0.992599697842755</v>
+        <v>1.043018113586746</v>
       </c>
       <c r="M7">
-        <v>1.01727267189781</v>
+        <v>1.059198521172273</v>
       </c>
       <c r="N7">
-        <v>0.9945161943975155</v>
+        <v>1.015998180909383</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.02224231455526</v>
+        <v>1.055423897937914</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.053924915082037</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
       <c r="C8">
-        <v>0.9656037550981181</v>
+        <v>1.013058954545641</v>
+      </c>
+      <c r="D8">
+        <v>1.048507021152698</v>
       </c>
       <c r="E8">
-        <v>0.9762569773435176</v>
+        <v>1.030060218293323</v>
       </c>
       <c r="F8">
-        <v>1.002205951277554</v>
+        <v>1.046671001388647</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="I8">
+        <v>1.059097673415915</v>
+      </c>
       <c r="J8">
-        <v>0.988259047894435</v>
+        <v>1.034295008949915</v>
+      </c>
+      <c r="K8">
+        <v>1.059067702154358</v>
       </c>
       <c r="L8">
-        <v>0.9877684664054435</v>
+        <v>1.040847836233799</v>
       </c>
       <c r="M8">
-        <v>1.013356124236444</v>
+        <v>1.057253824359321</v>
       </c>
       <c r="N8">
-        <v>0.989662489097342</v>
+        <v>1.01531112116537</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.019142541314144</v>
+        <v>1.053884830258729</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.052858557364774</v>
       </c>
     </row>
     <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
       <c r="C9">
-        <v>0.9517921608360894</v>
+        <v>1.005172774872908</v>
+      </c>
+      <c r="D9">
+        <v>1.043851537126587</v>
       </c>
       <c r="E9">
-        <v>0.9650386031107939</v>
+        <v>1.024171250493781</v>
       </c>
       <c r="F9">
-        <v>0.9928620923792455</v>
+        <v>1.041240711819257</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="I9">
+        <v>1.057195482058839</v>
+      </c>
       <c r="J9">
-        <v>0.9791701569387238</v>
+        <v>1.030544182224122</v>
+      </c>
+      <c r="K9">
+        <v>1.056271076080088</v>
       </c>
       <c r="L9">
-        <v>0.9787255715695433</v>
+        <v>1.036883971427212</v>
       </c>
       <c r="M9">
-        <v>1.006072048558888</v>
+        <v>1.053698335616967</v>
       </c>
       <c r="N9">
-        <v>0.9805606908739636</v>
+        <v>1.014049625487401</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.013377480967792</v>
+        <v>1.05107094506211</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.050878119270283</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
       <c r="C10">
-        <v>0.9422374087138704</v>
+        <v>0.9997562517233108</v>
+      </c>
+      <c r="D10">
+        <v>1.040708382853575</v>
       </c>
       <c r="E10">
-        <v>0.9573421786509589</v>
+        <v>1.020181960485994</v>
       </c>
       <c r="F10">
-        <v>0.9867203866544065</v>
+        <v>1.037601114642557</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="I10">
+        <v>1.05586850809724</v>
+      </c>
       <c r="J10">
-        <v>0.9729462574678778</v>
+        <v>1.027979543830142</v>
+      </c>
+      <c r="K10">
+        <v>1.054379578280687</v>
       </c>
       <c r="L10">
-        <v>0.9725268513143996</v>
+        <v>1.034196139903738</v>
       </c>
       <c r="M10">
-        <v>1.001333620750513</v>
+        <v>1.051323109740277</v>
       </c>
       <c r="N10">
-        <v>0.9743279527519776</v>
+        <v>1.013191446807536</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.009680474783739</v>
+        <v>1.04924191295122</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.049557262287494</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
       <c r="C11">
-        <v>0.9401089730950136</v>
+        <v>0.9976537808902568</v>
+      </c>
+      <c r="D11">
+        <v>1.039689294296431</v>
       </c>
       <c r="E11">
-        <v>0.9558391172692814</v>
+        <v>1.018806470302459</v>
       </c>
       <c r="F11">
-        <v>0.9872748495108955</v>
+        <v>1.036621030933974</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="I11">
+        <v>1.05549417017995</v>
+      </c>
       <c r="J11">
-        <v>0.972204471409724</v>
+        <v>1.027124492107118</v>
+      </c>
+      <c r="K11">
+        <v>1.053899631084197</v>
       </c>
       <c r="L11">
-        <v>0.9716448287261006</v>
+        <v>1.033382230228873</v>
       </c>
       <c r="M11">
-        <v>1.002440800789121</v>
+        <v>1.050883865748098</v>
       </c>
       <c r="N11">
-        <v>0.9735851132725373</v>
+        <v>1.012938714278755</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.011007211434002</v>
+        <v>1.049325120308481</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.049250159901473</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
       <c r="C12">
-        <v>0.9401182201110668</v>
+        <v>0.9969643576642837</v>
+      </c>
+      <c r="D12">
+        <v>1.039424686460255</v>
       </c>
       <c r="E12">
-        <v>0.9560091478021131</v>
+        <v>1.01841986273822</v>
       </c>
       <c r="F12">
-        <v>0.9886117163424121</v>
+        <v>1.036469587625458</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="I12">
+        <v>1.055423947890239</v>
+      </c>
       <c r="J12">
-        <v>0.9726923978616049</v>
+        <v>1.026897749298455</v>
+      </c>
+      <c r="K12">
+        <v>1.053833639370454</v>
       </c>
       <c r="L12">
-        <v>0.9720306259811551</v>
+        <v>1.03320247578458</v>
       </c>
       <c r="M12">
-        <v>1.003960399293106</v>
+        <v>1.050929923984391</v>
       </c>
       <c r="N12">
-        <v>0.9740737326359459</v>
+        <v>1.012888960595297</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.012544722656204</v>
+        <v>1.049684290105654</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.049203503256215</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
       <c r="C13">
-        <v>0.9417554710928584</v>
+        <v>0.9973239604454156</v>
+      </c>
+      <c r="D13">
+        <v>1.039743065076865</v>
       </c>
       <c r="E13">
-        <v>0.9574590741306168</v>
+        <v>1.018777503102181</v>
       </c>
       <c r="F13">
-        <v>0.9906514614960159</v>
+        <v>1.036964069913253</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="I13">
+        <v>1.055597228187673</v>
+      </c>
       <c r="J13">
-        <v>0.9741445830017454</v>
+        <v>1.027148971392351</v>
+      </c>
+      <c r="K13">
+        <v>1.054104889419044</v>
       </c>
       <c r="L13">
-        <v>0.973402385903585</v>
+        <v>1.033510729167413</v>
       </c>
       <c r="M13">
-        <v>1.005915339209108</v>
+        <v>1.051374006188973</v>
       </c>
       <c r="N13">
-        <v>0.9755279800455534</v>
+        <v>1.012996433903134</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.01437358957179</v>
+        <v>1.050309357589022</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.049392833594143</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
       <c r="C14">
-        <v>0.9436056882018089</v>
+        <v>0.9980512756415271</v>
+      </c>
+      <c r="D14">
+        <v>1.040232428757686</v>
       </c>
       <c r="E14">
-        <v>0.9590253185465794</v>
+        <v>1.019365019161053</v>
       </c>
       <c r="F14">
-        <v>0.9923578820683291</v>
+        <v>1.03760361115819</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="I14">
+        <v>1.055829240332647</v>
+      </c>
       <c r="J14">
-        <v>0.975567782040266</v>
+        <v>1.027541119419397</v>
+      </c>
+      <c r="K14">
+        <v>1.054449542210744</v>
       </c>
       <c r="L14">
-        <v>0.9747817063766665</v>
+        <v>1.033947254615109</v>
       </c>
       <c r="M14">
-        <v>1.007442531239495</v>
+        <v>1.051865676652185</v>
       </c>
       <c r="N14">
-        <v>0.9769532001899519</v>
+        <v>1.013142890949186</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.015757449877475</v>
+        <v>1.050869850826386</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.049637903487846</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
       <c r="C15">
-        <v>0.944427501569709</v>
+        <v>0.9984595602778911</v>
+      </c>
+      <c r="D15">
+        <v>1.04048685583804</v>
       </c>
       <c r="E15">
-        <v>0.9597007935732963</v>
+        <v>1.019676079360033</v>
       </c>
       <c r="F15">
-        <v>0.9929807911677175</v>
+        <v>1.037911115961414</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="I15">
+        <v>1.055943380843149</v>
+      </c>
       <c r="J15">
-        <v>0.9761435404421839</v>
+        <v>1.027745086331414</v>
+      </c>
+      <c r="K15">
+        <v>1.05461569364525</v>
       </c>
       <c r="L15">
-        <v>0.9753485103645353</v>
+        <v>1.034166312757405</v>
       </c>
       <c r="M15">
-        <v>1.007963633321162</v>
+        <v>1.052083668695462</v>
       </c>
       <c r="N15">
-        <v>0.9775297762348408</v>
+        <v>1.013214624319473</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.016207495482524</v>
+        <v>1.051079396031715</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.049761133768814</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1.05</v>
+      </c>
       <c r="C16">
-        <v>0.9481006967547291</v>
+        <v>1.000682493078435</v>
+      </c>
+      <c r="D16">
+        <v>1.04176692221011</v>
       </c>
       <c r="E16">
-        <v>0.9626208882670418</v>
+        <v>1.021299132739172</v>
       </c>
       <c r="F16">
-        <v>0.9951990254004894</v>
+        <v>1.039381563057824</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="I16">
+        <v>1.056492033127676</v>
+      </c>
       <c r="J16">
-        <v>0.9784523434077329</v>
+        <v>1.028792360212039</v>
+      </c>
+      <c r="K16">
+        <v>1.055386313736441</v>
       </c>
       <c r="L16">
-        <v>0.977660728118531</v>
+        <v>1.03525860573271</v>
       </c>
       <c r="M16">
-        <v>1.009618572947356</v>
+        <v>1.053039702439219</v>
       </c>
       <c r="N16">
-        <v>0.9798418579654241</v>
+        <v>1.013560985819386</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.017476149989355</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16">
+        <v>1.05179663853085</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.050309080131604</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
+      <c r="B17">
+        <v>1.05</v>
+      </c>
       <c r="C17">
-        <v>0.94996584648321</v>
+        <v>1.002008627078385</v>
+      </c>
+      <c r="D17">
+        <v>1.042493310222835</v>
       </c>
       <c r="E17">
-        <v>0.9640567615487766</v>
+        <v>1.022237978866712</v>
       </c>
       <c r="F17">
-        <v>0.9960182062866144</v>
+        <v>1.040171780998123</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="I17">
+        <v>1.05678863353616</v>
+      </c>
       <c r="J17">
-        <v>0.9794924869146864</v>
+        <v>1.029389834943095</v>
+      </c>
+      <c r="K17">
+        <v>1.055795156782545</v>
       </c>
       <c r="L17">
-        <v>0.9787257894848463</v>
+        <v>1.035867015751004</v>
       </c>
       <c r="M17">
-        <v>1.010096412831964</v>
+        <v>1.05351029981903</v>
       </c>
       <c r="N17">
-        <v>0.9808834785954638</v>
+        <v>1.013749715265747</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.017722458384206</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16">
+        <v>1.052040667923726</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.050600678979444</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1.05</v>
+      </c>
       <c r="C18">
-        <v>0.9503828711407456</v>
+        <v>1.002681615228761</v>
+      </c>
+      <c r="D18">
+        <v>1.042788097422367</v>
       </c>
       <c r="E18">
-        <v>0.9642852836205973</v>
+        <v>1.022657641346095</v>
       </c>
       <c r="F18">
-        <v>0.9955188947620008</v>
+        <v>1.040416436992423</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="I18">
+        <v>1.056884795714216</v>
+      </c>
       <c r="J18">
-        <v>0.9794609031611687</v>
+        <v>1.029643695766269</v>
+      </c>
+      <c r="K18">
+        <v>1.055906979582199</v>
       </c>
       <c r="L18">
-        <v>0.9787503560605993</v>
+        <v>1.036096408839858</v>
       </c>
       <c r="M18">
-        <v>1.00941542883622</v>
+        <v>1.053572183916388</v>
       </c>
       <c r="N18">
-        <v>0.9808518499893933</v>
+        <v>1.013814957664212</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.016941399559258</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16">
+        <v>1.051854185784421</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.050668321988899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
       <c r="C19">
-        <v>0.9494493257435924</v>
+        <v>1.002759128206716</v>
+      </c>
+      <c r="D19">
+        <v>1.042706668596153</v>
       </c>
       <c r="E19">
-        <v>0.9633896826494872</v>
+        <v>1.022602103361945</v>
       </c>
       <c r="F19">
-        <v>0.9937050358016928</v>
+        <v>1.040166239193564</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="I19">
+        <v>1.056804426515392</v>
+      </c>
       <c r="J19">
-        <v>0.9784214250232318</v>
+        <v>1.029584282490887</v>
+      </c>
+      <c r="K19">
+        <v>1.055765997693939</v>
       </c>
       <c r="L19">
-        <v>0.9778036433901413</v>
+        <v>1.035979260999208</v>
       </c>
       <c r="M19">
-        <v>1.007568188270722</v>
+        <v>1.053264862868935</v>
       </c>
       <c r="N19">
-        <v>0.9798108956732708</v>
+        <v>1.013770406777658</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.015146967131749</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16">
+        <v>1.051289266330307</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.050574921595388</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1.05</v>
+      </c>
       <c r="C20">
-        <v>0.944738571136564</v>
+        <v>1.001169628534281</v>
+      </c>
+      <c r="D20">
+        <v>1.041555906512207</v>
       </c>
       <c r="E20">
-        <v>0.9593544791941412</v>
+        <v>1.021226241427995</v>
       </c>
       <c r="F20">
-        <v>0.9883328997194274</v>
+        <v>1.038560695648649</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="I20">
+        <v>1.056230975996137</v>
+      </c>
       <c r="J20">
-        <v>0.9745794719741405</v>
+        <v>1.028655537299541</v>
+      </c>
+      <c r="K20">
+        <v>1.05490538921449</v>
       </c>
       <c r="L20">
-        <v>0.9741517758021541</v>
+        <v>1.034905846359307</v>
       </c>
       <c r="M20">
-        <v>1.002584050991945</v>
+        <v>1.051957775393499</v>
       </c>
       <c r="N20">
-        <v>0.9759634866101715</v>
+        <v>1.013420170053636</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.010659167504841</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16">
+        <v>1.049733763486735</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.049970304384477</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
+      <c r="B21">
+        <v>1.05</v>
+      </c>
       <c r="C21">
-        <v>0.9370731016786238</v>
+        <v>0.9970554115830335</v>
+      </c>
+      <c r="D21">
+        <v>1.039136243629885</v>
       </c>
       <c r="E21">
-        <v>0.9531592403263236</v>
+        <v>1.018175438055469</v>
       </c>
       <c r="F21">
-        <v>0.9830577427218071</v>
+        <v>1.035724637167565</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="I21">
+        <v>1.055177847071908</v>
+      </c>
       <c r="J21">
-        <v>0.9694595516130893</v>
+        <v>1.026676762806302</v>
+      </c>
+      <c r="K21">
+        <v>1.053412257193626</v>
       </c>
       <c r="L21">
-        <v>0.9690858962770819</v>
+        <v>1.032820463135539</v>
       </c>
       <c r="M21">
-        <v>0.9983673609253659</v>
+        <v>1.050059394988057</v>
       </c>
       <c r="N21">
-        <v>0.9708362953749448</v>
+        <v>1.012751787165417</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.007279467233271</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16">
+        <v>1.048191003417988</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.048917800824306</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
+      <c r="B22">
+        <v>1.05</v>
+      </c>
       <c r="C22">
-        <v>0.9322269536551766</v>
+        <v>0.9944366878131419</v>
+      </c>
+      <c r="D22">
+        <v>1.037603322030382</v>
       </c>
       <c r="E22">
-        <v>0.949265488680671</v>
+        <v>1.016249904665573</v>
       </c>
       <c r="F22">
-        <v>0.9798632805308528</v>
+        <v>1.033950766615649</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="I22">
+        <v>1.054504144781553</v>
+      </c>
       <c r="J22">
-        <v>0.9662594815816569</v>
+        <v>1.025423017229973</v>
+      </c>
+      <c r="K22">
+        <v>1.052464927286155</v>
       </c>
       <c r="L22">
-        <v>0.9659137654599315</v>
+        <v>1.031506177865331</v>
       </c>
       <c r="M22">
-        <v>0.9958444900190124</v>
+        <v>1.048878377363797</v>
       </c>
       <c r="N22">
-        <v>0.9676316808770148</v>
+        <v>1.012329268325691</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.005282683013358</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
+        <v>1.047256316398484</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.048234762686402</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
+      <c r="B23">
+        <v>1.05</v>
+      </c>
       <c r="C23">
-        <v>0.9348114426080791</v>
+        <v>0.9958253298196024</v>
+      </c>
+      <c r="D23">
+        <v>1.038405533187533</v>
       </c>
       <c r="E23">
-        <v>0.9513409705363272</v>
+        <v>1.01726844775358</v>
       </c>
       <c r="F23">
-        <v>0.9815648669825232</v>
+        <v>1.034887163342636</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="I23">
+        <v>1.054857799294159</v>
+      </c>
       <c r="J23">
-        <v>0.9679662117501038</v>
+        <v>1.026086001637794</v>
+      </c>
+      <c r="K23">
+        <v>1.052956611745324</v>
       </c>
       <c r="L23">
-        <v>0.9676053219369383</v>
+        <v>1.032200328423343</v>
       </c>
       <c r="M23">
-        <v>0.9971890789070802</v>
+        <v>1.049500228528191</v>
       </c>
       <c r="N23">
-        <v>0.969340834798065</v>
+        <v>1.012551808041592</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.006346889604294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
+        <v>1.047748465180423</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.048572937603628</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
+      <c r="B24">
+        <v>1.05</v>
+      </c>
       <c r="C24">
-        <v>0.9446556537906088</v>
+        <v>1.001202176291079</v>
+      </c>
+      <c r="D24">
+        <v>1.041540796534711</v>
       </c>
       <c r="E24">
-        <v>0.9592690301465921</v>
+        <v>1.021231199806215</v>
       </c>
       <c r="F24">
-        <v>0.9880891466858167</v>
+        <v>1.0385353351882</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="I24">
+        <v>1.056217620889758</v>
+      </c>
       <c r="J24">
-        <v>0.9744641652683503</v>
+        <v>1.028654027829474</v>
+      </c>
+      <c r="K24">
+        <v>1.054875673156055</v>
       </c>
       <c r="L24">
-        <v>0.97405128631682</v>
+        <v>1.034895455437049</v>
       </c>
       <c r="M24">
-        <v>1.002328709551142</v>
+        <v>1.051917913248348</v>
       </c>
       <c r="N24">
-        <v>0.9758480161556335</v>
+        <v>1.013415361593682</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.010414755125815</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16">
+        <v>1.049661879076905</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.049922397977059</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
       <c r="C25">
-        <v>0.9554645078678394</v>
+        <v>1.007252304662866</v>
+      </c>
+      <c r="D25">
+        <v>1.045092380464038</v>
       </c>
       <c r="E25">
-        <v>0.9680147371485603</v>
+        <v>1.025721352343904</v>
       </c>
       <c r="F25">
-        <v>0.9953326140662039</v>
+        <v>1.042672811960787</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="I25">
+        <v>1.057712269919314</v>
+      </c>
       <c r="J25">
-        <v>0.9815895916478651</v>
+        <v>1.031538040759741</v>
+      </c>
+      <c r="K25">
+        <v>1.057028818809373</v>
       </c>
       <c r="L25">
-        <v>0.981130743132496</v>
+        <v>1.037933080532289</v>
       </c>
       <c r="M25">
-        <v>1.008003819883133</v>
+        <v>1.054642930095594</v>
       </c>
       <c r="N25">
-        <v>0.9829835614579049</v>
+        <v>1.014385261165759</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.014906407163749</v>
+        <v>1.051818517129953</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.051441921929304</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_1/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_1/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.011923627654584</v>
+        <v>1.011223738842877</v>
       </c>
       <c r="D2">
-        <v>1.047821301979452</v>
+        <v>1.044307708621141</v>
       </c>
       <c r="E2">
-        <v>1.029206578843048</v>
+        <v>1.028266170390847</v>
       </c>
       <c r="F2">
-        <v>1.045880881953535</v>
+        <v>1.044124979262285</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.058822960849783</v>
+        <v>1.057301480224454</v>
       </c>
       <c r="J2">
-        <v>1.033753461317868</v>
+        <v>1.033073854882052</v>
       </c>
       <c r="K2">
-        <v>1.058652310901275</v>
+        <v>1.055182440348637</v>
       </c>
       <c r="L2">
-        <v>1.040273479685037</v>
+        <v>1.039345272058762</v>
       </c>
       <c r="M2">
-        <v>1.056735992018948</v>
+        <v>1.055001994888964</v>
       </c>
       <c r="N2">
-        <v>1.015128032843099</v>
+        <v>1.015949007872329</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.053475007998445</v>
+        <v>1.052102688413654</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.052542372719122</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.050097578000911</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.026655207493689</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.015244806602636</v>
+        <v>1.014479853555783</v>
       </c>
       <c r="D3">
-        <v>1.049787707499856</v>
+        <v>1.046125258786385</v>
       </c>
       <c r="E3">
-        <v>1.031700334742615</v>
+        <v>1.03069371307896</v>
       </c>
       <c r="F3">
-        <v>1.048181002034595</v>
+        <v>1.046339714138889</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.059602396399614</v>
+        <v>1.058006361869653</v>
       </c>
       <c r="J3">
-        <v>1.035328337335108</v>
+        <v>1.034583418184936</v>
       </c>
       <c r="K3">
-        <v>1.059820840777821</v>
+        <v>1.056200108419701</v>
       </c>
       <c r="L3">
-        <v>1.041943055297284</v>
+        <v>1.040948365541796</v>
       </c>
       <c r="M3">
-        <v>1.058232391886255</v>
+        <v>1.056412111131184</v>
       </c>
       <c r="N3">
-        <v>1.015657390295724</v>
+        <v>1.016352190944901</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.054659286411249</v>
+        <v>1.053218682455117</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.053365976617961</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.050814241142445</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02682786771482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.017359700067581</v>
+        <v>1.016553575868064</v>
       </c>
       <c r="D4">
-        <v>1.051044475110536</v>
+        <v>1.047287380946447</v>
       </c>
       <c r="E4">
-        <v>1.033294224900329</v>
+        <v>1.032245621398553</v>
       </c>
       <c r="F4">
-        <v>1.049651828021867</v>
+        <v>1.047756273608697</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.060090538927884</v>
+        <v>1.058446987845108</v>
       </c>
       <c r="J4">
-        <v>1.036329531078013</v>
+        <v>1.035543113144917</v>
       </c>
       <c r="K4">
-        <v>1.060563528910372</v>
+        <v>1.056846717344841</v>
       </c>
       <c r="L4">
-        <v>1.043006761526064</v>
+        <v>1.041969844189406</v>
       </c>
       <c r="M4">
-        <v>1.059185772223818</v>
+        <v>1.057310563324869</v>
       </c>
       <c r="N4">
-        <v>1.015993943711422</v>
+        <v>1.01660855637696</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.055413808203297</v>
+        <v>1.053929734530446</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.053891979530234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.051272397173072</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.026935333882697</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.018242272081599</v>
+        <v>1.017418947209805</v>
       </c>
       <c r="D5">
-        <v>1.051573648479154</v>
+        <v>1.047777014805781</v>
       </c>
       <c r="E5">
-        <v>1.033961356255876</v>
+        <v>1.032895198216533</v>
       </c>
       <c r="F5">
-        <v>1.050268368155196</v>
+        <v>1.048350128423422</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.060293925623145</v>
+        <v>1.058630485176491</v>
       </c>
       <c r="J5">
-        <v>1.03674763904473</v>
+        <v>1.035943848893425</v>
       </c>
       <c r="K5">
-        <v>1.060877044176483</v>
+        <v>1.057120061323414</v>
       </c>
       <c r="L5">
-        <v>1.043451702216934</v>
+        <v>1.042397112206463</v>
       </c>
       <c r="M5">
-        <v>1.059585356284884</v>
+        <v>1.057687167038374</v>
       </c>
       <c r="N5">
-        <v>1.016134745033934</v>
+        <v>1.016715799427153</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.055730045761012</v>
+        <v>1.054227785640229</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.054120689247146</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.05147342222393</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.026980829531914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.018391735586493</v>
+        <v>1.017565406564066</v>
       </c>
       <c r="D6">
-        <v>1.051667755592181</v>
+        <v>1.04786433420321</v>
       </c>
       <c r="E6">
-        <v>1.034075138379537</v>
+        <v>1.033005916681812</v>
       </c>
       <c r="F6">
-        <v>1.050374449587263</v>
+        <v>1.048452293017105</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.060330288823302</v>
+        <v>1.058663418900293</v>
       </c>
       <c r="J6">
-        <v>1.03681929366121</v>
+        <v>1.036012471463198</v>
       </c>
       <c r="K6">
-        <v>1.060934914200221</v>
+        <v>1.057171037136714</v>
       </c>
       <c r="L6">
-        <v>1.043528196891834</v>
+        <v>1.042470523808495</v>
       </c>
       <c r="M6">
-        <v>1.059655015521885</v>
+        <v>1.057752860022221</v>
       </c>
       <c r="N6">
-        <v>1.016159178402702</v>
+        <v>1.016734388258874</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.055785175241277</v>
+        <v>1.054279776264624</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.054170188158017</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.051518923141872</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.026990020414275</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.017376175150377</v>
+        <v>1.016577079724648</v>
       </c>
       <c r="D7">
-        <v>1.051066182774454</v>
+        <v>1.047310707316673</v>
       </c>
       <c r="E7">
-        <v>1.03330860933267</v>
+        <v>1.03226540927665</v>
       </c>
       <c r="F7">
-        <v>1.049667558327366</v>
+        <v>1.04777538298234</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.060099778471947</v>
+        <v>1.058458664459955</v>
       </c>
       <c r="J7">
-        <v>1.036339671777977</v>
+        <v>1.035560102645402</v>
       </c>
       <c r="K7">
-        <v>1.060582196918454</v>
+        <v>1.05686697122907</v>
       </c>
       <c r="L7">
-        <v>1.043018113586746</v>
+        <v>1.041986535130341</v>
       </c>
       <c r="M7">
-        <v>1.059198521172273</v>
+        <v>1.057326647508089</v>
       </c>
       <c r="N7">
-        <v>1.015998180909383</v>
+        <v>1.016639510460868</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.055423897937914</v>
+        <v>1.053942463851454</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.053924915082037</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.051308470134312</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.026941069684074</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.013058954545641</v>
+        <v>1.012359765220727</v>
       </c>
       <c r="D8">
-        <v>1.048507021152698</v>
+        <v>1.044950207748113</v>
       </c>
       <c r="E8">
-        <v>1.030060218293323</v>
+        <v>1.029115177485696</v>
       </c>
       <c r="F8">
-        <v>1.046671001388647</v>
+        <v>1.04489793882021</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.059097673415915</v>
+        <v>1.057559612219499</v>
       </c>
       <c r="J8">
-        <v>1.034295008949915</v>
+        <v>1.033615412593136</v>
       </c>
       <c r="K8">
-        <v>1.059067702154358</v>
+        <v>1.055553870832535</v>
       </c>
       <c r="L8">
-        <v>1.040847836233799</v>
+        <v>1.03991469480097</v>
       </c>
       <c r="M8">
-        <v>1.057253824359321</v>
+        <v>1.055502236255296</v>
       </c>
       <c r="N8">
-        <v>1.01531112116537</v>
+        <v>1.016172859779227</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.053884830258729</v>
+        <v>1.052498589570106</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.052858557364774</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.050384968143838</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.026722230336486</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.005172774872908</v>
+        <v>1.004633426429134</v>
       </c>
       <c r="D9">
-        <v>1.043851537126587</v>
+        <v>1.04065055014849</v>
       </c>
       <c r="E9">
-        <v>1.024171250493781</v>
+        <v>1.023387538090489</v>
       </c>
       <c r="F9">
-        <v>1.041240711819257</v>
+        <v>1.039673167145052</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.057195482058839</v>
+        <v>1.055835740922563</v>
       </c>
       <c r="J9">
-        <v>1.030544182224122</v>
+        <v>1.030023620783722</v>
       </c>
       <c r="K9">
-        <v>1.056271076080088</v>
+        <v>1.053116816411031</v>
       </c>
       <c r="L9">
-        <v>1.036883971427212</v>
+        <v>1.036112231917858</v>
       </c>
       <c r="M9">
-        <v>1.053698335616967</v>
+        <v>1.052153773830122</v>
       </c>
       <c r="N9">
-        <v>1.014049625487401</v>
+        <v>1.015222608111841</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.05107094506211</v>
+        <v>1.049848544556382</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.050878119270283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.048658464452898</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.026294146120226</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9997562517233108</v>
+        <v>0.9993600966335675</v>
       </c>
       <c r="D10">
-        <v>1.040708382853575</v>
+        <v>1.037760688211051</v>
       </c>
       <c r="E10">
-        <v>1.020181960485994</v>
+        <v>1.019534535939073</v>
       </c>
       <c r="F10">
-        <v>1.037601114642557</v>
+        <v>1.036191284970044</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.05586850809724</v>
+        <v>1.054642401570838</v>
       </c>
       <c r="J10">
-        <v>1.027979543830142</v>
+        <v>1.027599126086687</v>
       </c>
       <c r="K10">
-        <v>1.054379578280687</v>
+        <v>1.051480064966557</v>
       </c>
       <c r="L10">
-        <v>1.034196139903738</v>
+        <v>1.033559823826609</v>
       </c>
       <c r="M10">
-        <v>1.051323109740277</v>
+        <v>1.049936458147054</v>
       </c>
       <c r="N10">
-        <v>1.013191446807536</v>
+        <v>1.014694778002125</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.04924191295122</v>
+        <v>1.048144550226977</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.049557262287494</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.047519403972476</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.0260021461178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9976537808902568</v>
+        <v>0.9973518671448</v>
       </c>
       <c r="D11">
-        <v>1.039689294296431</v>
+        <v>1.036829811609202</v>
       </c>
       <c r="E11">
-        <v>1.018806470302459</v>
+        <v>1.018237465467819</v>
       </c>
       <c r="F11">
-        <v>1.036621030933974</v>
+        <v>1.035285245432105</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.05549417017995</v>
+        <v>1.054327095969108</v>
       </c>
       <c r="J11">
-        <v>1.027124492107118</v>
+        <v>1.02683522801308</v>
       </c>
       <c r="K11">
-        <v>1.053899631084197</v>
+        <v>1.051089061449047</v>
       </c>
       <c r="L11">
-        <v>1.033382230228873</v>
+        <v>1.032823454863913</v>
       </c>
       <c r="M11">
-        <v>1.050883865748098</v>
+        <v>1.049571061278311</v>
       </c>
       <c r="N11">
-        <v>1.012938714278755</v>
+        <v>1.014742877543977</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.049325120308481</v>
+        <v>1.048286708518946</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.049250159901473</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.047278423870856</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.025970157039342</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9969643576642837</v>
+        <v>0.9966956428615031</v>
       </c>
       <c r="D12">
-        <v>1.039424686460255</v>
+        <v>1.036584953820318</v>
       </c>
       <c r="E12">
-        <v>1.01841986273822</v>
+        <v>1.017876541186481</v>
       </c>
       <c r="F12">
-        <v>1.036469587625458</v>
+        <v>1.035156595128768</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.055423947890239</v>
+        <v>1.054274234695858</v>
       </c>
       <c r="J12">
-        <v>1.026897749298455</v>
+        <v>1.026640510389438</v>
       </c>
       <c r="K12">
-        <v>1.053833639370454</v>
+        <v>1.051043277067992</v>
       </c>
       <c r="L12">
-        <v>1.03320247578458</v>
+        <v>1.032669085929193</v>
       </c>
       <c r="M12">
-        <v>1.050929923984391</v>
+        <v>1.049639883834864</v>
       </c>
       <c r="N12">
-        <v>1.012888960595297</v>
+        <v>1.014810517604582</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.049684290105654</v>
+        <v>1.048664222597483</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.049203503256215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.04724605446718</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.025986544349345</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9973239604454156</v>
+        <v>0.9970325654469822</v>
       </c>
       <c r="D13">
-        <v>1.039743065076865</v>
+        <v>1.036867273805619</v>
       </c>
       <c r="E13">
-        <v>1.018777503102181</v>
+        <v>1.018212318694</v>
       </c>
       <c r="F13">
-        <v>1.036964069913253</v>
+        <v>1.035629784725144</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.055597228187673</v>
+        <v>1.054429355163233</v>
       </c>
       <c r="J13">
-        <v>1.027148971392351</v>
+        <v>1.026869962978474</v>
       </c>
       <c r="K13">
-        <v>1.054104889419044</v>
+        <v>1.051278891900257</v>
       </c>
       <c r="L13">
-        <v>1.033510729167413</v>
+        <v>1.032955832439361</v>
       </c>
       <c r="M13">
-        <v>1.051374006188973</v>
+        <v>1.050062939889645</v>
       </c>
       <c r="N13">
-        <v>1.012996433903134</v>
+        <v>1.014864921406565</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.050309357589022</v>
+        <v>1.049272920043406</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.049392833594143</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.047409943398313</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.026048368972623</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9980512756415271</v>
+        <v>0.9977193874486188</v>
       </c>
       <c r="D14">
-        <v>1.040232428757686</v>
+        <v>1.037306521566579</v>
       </c>
       <c r="E14">
-        <v>1.019365019161053</v>
+        <v>1.018763742862209</v>
       </c>
       <c r="F14">
-        <v>1.03760361115819</v>
+        <v>1.036234976465954</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.055829240332647</v>
+        <v>1.054632894778205</v>
       </c>
       <c r="J14">
-        <v>1.027541119419397</v>
+        <v>1.027223141451041</v>
       </c>
       <c r="K14">
-        <v>1.054449542210744</v>
+        <v>1.051573685730861</v>
       </c>
       <c r="L14">
-        <v>1.033947254615109</v>
+        <v>1.03335678710317</v>
       </c>
       <c r="M14">
-        <v>1.051865676652185</v>
+        <v>1.050520561959766</v>
       </c>
       <c r="N14">
-        <v>1.013142890949186</v>
+        <v>1.014898308441852</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.050869850826386</v>
+        <v>1.049806638654385</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.049637903487846</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.04761989913008</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.026112877014919</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9984595602778911</v>
+        <v>0.9981060235187839</v>
       </c>
       <c r="D15">
-        <v>1.04048685583804</v>
+        <v>1.037536275855289</v>
       </c>
       <c r="E15">
-        <v>1.019676079360033</v>
+        <v>1.0190558934072</v>
       </c>
       <c r="F15">
-        <v>1.037911115961414</v>
+        <v>1.036524519298845</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.055943380843149</v>
+        <v>1.054732303365049</v>
       </c>
       <c r="J15">
-        <v>1.027745086331414</v>
+        <v>1.02740623971443</v>
       </c>
       <c r="K15">
-        <v>1.05461569364525</v>
+        <v>1.051715213663482</v>
       </c>
       <c r="L15">
-        <v>1.034166312757405</v>
+        <v>1.033557190904855</v>
       </c>
       <c r="M15">
-        <v>1.052083668695462</v>
+        <v>1.050720721280634</v>
       </c>
       <c r="N15">
-        <v>1.013214624319473</v>
+        <v>1.014907812690158</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.051079396031715</v>
+        <v>1.05000211652911</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.049761133768814</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.047726294693774</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.026141181789571</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.000682493078435</v>
+        <v>1.000222669593934</v>
       </c>
       <c r="D16">
-        <v>1.04176692221011</v>
+        <v>1.038698192889395</v>
       </c>
       <c r="E16">
-        <v>1.021299132739172</v>
+        <v>1.020586586053891</v>
       </c>
       <c r="F16">
-        <v>1.039381563057824</v>
+        <v>1.0379057002379</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.056492033127676</v>
+        <v>1.055208185515334</v>
       </c>
       <c r="J16">
-        <v>1.028792360212039</v>
+        <v>1.028350698775267</v>
       </c>
       <c r="K16">
-        <v>1.055386313736441</v>
+        <v>1.05236747510349</v>
       </c>
       <c r="L16">
-        <v>1.03525860573271</v>
+        <v>1.034558215707386</v>
       </c>
       <c r="M16">
-        <v>1.053039702439219</v>
+        <v>1.051587928221855</v>
       </c>
       <c r="N16">
-        <v>1.013560985819386</v>
+        <v>1.014950094665804</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.05179663853085</v>
+        <v>1.050649117773759</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.050309080131604</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.048190865563374</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.026257904026425</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.002008627078385</v>
+        <v>1.001496683568582</v>
       </c>
       <c r="D17">
-        <v>1.042493310222835</v>
+        <v>1.039362887224314</v>
       </c>
       <c r="E17">
-        <v>1.022237978866712</v>
+        <v>1.021479683410411</v>
       </c>
       <c r="F17">
-        <v>1.040171780998123</v>
+        <v>1.038649629541684</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.05678863353616</v>
+        <v>1.055466992160701</v>
       </c>
       <c r="J17">
-        <v>1.029389834943095</v>
+        <v>1.028897467685336</v>
       </c>
       <c r="K17">
-        <v>1.055795156782545</v>
+        <v>1.052714233111771</v>
       </c>
       <c r="L17">
-        <v>1.035867015751004</v>
+        <v>1.035121293685485</v>
       </c>
       <c r="M17">
-        <v>1.05351029981903</v>
+        <v>1.052012307179661</v>
       </c>
       <c r="N17">
-        <v>1.013749715265747</v>
+        <v>1.014993764349627</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.052040667923726</v>
+        <v>1.050856498618092</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.050600678979444</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.048438821166493</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.026313076489572</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.002681615228761</v>
+        <v>1.002150010928951</v>
       </c>
       <c r="D18">
-        <v>1.042788097422367</v>
+        <v>1.03963731892695</v>
       </c>
       <c r="E18">
-        <v>1.022657641346095</v>
+        <v>1.0218826114139</v>
       </c>
       <c r="F18">
-        <v>1.040416436992423</v>
+        <v>1.03887652437889</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.056884795714216</v>
+        <v>1.055549090058421</v>
       </c>
       <c r="J18">
-        <v>1.029643695766269</v>
+        <v>1.029132038786656</v>
       </c>
       <c r="K18">
-        <v>1.055906979582199</v>
+        <v>1.052805223282648</v>
       </c>
       <c r="L18">
-        <v>1.036096408839858</v>
+        <v>1.03533401837105</v>
       </c>
       <c r="M18">
-        <v>1.053572183916388</v>
+        <v>1.05205632274866</v>
       </c>
       <c r="N18">
-        <v>1.013814957664212</v>
+        <v>1.015001371186674</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.051854185784421</v>
+        <v>1.050655645828407</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.050668321988899</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.048490591750033</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.026312817042995</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.002759128206716</v>
+        <v>1.002232557349371</v>
       </c>
       <c r="D19">
-        <v>1.042706668596153</v>
+        <v>1.039571282170367</v>
       </c>
       <c r="E19">
-        <v>1.022602103361945</v>
+        <v>1.021833306340048</v>
       </c>
       <c r="F19">
-        <v>1.040166239193564</v>
+        <v>1.03863239858146</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.056804426515392</v>
+        <v>1.055474608034415</v>
       </c>
       <c r="J19">
-        <v>1.029584282490887</v>
+        <v>1.029077350197402</v>
       </c>
       <c r="K19">
-        <v>1.055765997693939</v>
+        <v>1.052679143923866</v>
       </c>
       <c r="L19">
-        <v>1.035979260999208</v>
+        <v>1.035222936550833</v>
       </c>
       <c r="M19">
-        <v>1.053264862868935</v>
+        <v>1.051754866183121</v>
       </c>
       <c r="N19">
-        <v>1.013770406777658</v>
+        <v>1.014957941743829</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.051289266330307</v>
+        <v>1.050094981080851</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.050574921595388</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.048408357297478</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.026266154556702</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.001169628534281</v>
+        <v>1.000714087791667</v>
       </c>
       <c r="D20">
-        <v>1.041555906512207</v>
+        <v>1.038533775055145</v>
       </c>
       <c r="E20">
-        <v>1.021226241427995</v>
+        <v>1.020525650927743</v>
       </c>
       <c r="F20">
-        <v>1.038560695648649</v>
+        <v>1.037097659105804</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.056230975996137</v>
+        <v>1.054961168495975</v>
       </c>
       <c r="J20">
-        <v>1.028655537299541</v>
+        <v>1.028217510277682</v>
       </c>
       <c r="K20">
-        <v>1.05490538921449</v>
+        <v>1.051931284192017</v>
       </c>
       <c r="L20">
-        <v>1.034905846359307</v>
+        <v>1.034216934379296</v>
       </c>
       <c r="M20">
-        <v>1.051957775393499</v>
+        <v>1.050518116182121</v>
       </c>
       <c r="N20">
-        <v>1.013420170053636</v>
+        <v>1.014762849288142</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.049733763486735</v>
+        <v>1.048594438305296</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.049970304384477</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.047883845036447</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.026087044051616</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9970554115830335</v>
+        <v>0.9968140644371637</v>
       </c>
       <c r="D21">
-        <v>1.039136243629885</v>
+        <v>1.036347701271981</v>
       </c>
       <c r="E21">
-        <v>1.018175438055469</v>
+        <v>1.01766258235591</v>
       </c>
       <c r="F21">
-        <v>1.035724637167565</v>
+        <v>1.034439126118757</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.055177847071908</v>
+        <v>1.054051926727705</v>
       </c>
       <c r="J21">
-        <v>1.026676762806302</v>
+        <v>1.026445594877013</v>
       </c>
       <c r="K21">
-        <v>1.053412257193626</v>
+        <v>1.050671693249463</v>
       </c>
       <c r="L21">
-        <v>1.032820463135539</v>
+        <v>1.032316883930532</v>
       </c>
       <c r="M21">
-        <v>1.050059394988057</v>
+        <v>1.048796149152195</v>
       </c>
       <c r="N21">
-        <v>1.012751787165417</v>
+        <v>1.014704070100561</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.048191003417988</v>
+        <v>1.047191238881944</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.048917800824306</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.046996782248362</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.02585493961494</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9944366878131419</v>
+        <v>0.9943296138575911</v>
       </c>
       <c r="D22">
-        <v>1.037603322030382</v>
+        <v>1.034961751916433</v>
       </c>
       <c r="E22">
-        <v>1.016249904665573</v>
+        <v>1.015854877713227</v>
       </c>
       <c r="F22">
-        <v>1.033950766615649</v>
+        <v>1.032777029455158</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.054504144781553</v>
+        <v>1.053468458197197</v>
       </c>
       <c r="J22">
-        <v>1.025423017229973</v>
+        <v>1.025320719219178</v>
       </c>
       <c r="K22">
-        <v>1.052464927286155</v>
+        <v>1.049871032461052</v>
       </c>
       <c r="L22">
-        <v>1.031506177865331</v>
+        <v>1.031118656489453</v>
       </c>
       <c r="M22">
-        <v>1.048878377363797</v>
+        <v>1.04772597984849</v>
       </c>
       <c r="N22">
-        <v>1.012329268325691</v>
+        <v>1.014660407188092</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.047256316398484</v>
+        <v>1.046344278912247</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.048234762686402</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.046416126470761</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.025705800813588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9958253298196024</v>
+        <v>0.9956353078681576</v>
       </c>
       <c r="D23">
-        <v>1.038405533187533</v>
+        <v>1.035682152311938</v>
       </c>
       <c r="E23">
-        <v>1.01726844775358</v>
+        <v>1.016801699829846</v>
       </c>
       <c r="F23">
-        <v>1.034887163342636</v>
+        <v>1.033647967294832</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.054857799294159</v>
+        <v>1.053769783036766</v>
       </c>
       <c r="J23">
-        <v>1.026086001637794</v>
+        <v>1.025904209615266</v>
       </c>
       <c r="K23">
-        <v>1.052956611745324</v>
+        <v>1.050281163624385</v>
       </c>
       <c r="L23">
-        <v>1.032200328423343</v>
+        <v>1.031742222315724</v>
       </c>
       <c r="M23">
-        <v>1.049500228528191</v>
+        <v>1.048282995017558</v>
       </c>
       <c r="N23">
-        <v>1.012551808041592</v>
+        <v>1.014640016415325</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.047748465180423</v>
+        <v>1.046785115403253</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.048572937603628</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.046695693611323</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.025780408871426</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.001202176291079</v>
+        <v>1.00074709039893</v>
       </c>
       <c r="D24">
-        <v>1.041540796534711</v>
+        <v>1.038520149761519</v>
       </c>
       <c r="E24">
-        <v>1.021231199806215</v>
+        <v>1.020531412363716</v>
       </c>
       <c r="F24">
-        <v>1.0385353351882</v>
+        <v>1.037072983470671</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.056217620889758</v>
+        <v>1.05494843142492</v>
       </c>
       <c r="J24">
-        <v>1.028654027829474</v>
+        <v>1.028216411988683</v>
       </c>
       <c r="K24">
-        <v>1.054875673156055</v>
+        <v>1.051902969736838</v>
       </c>
       <c r="L24">
-        <v>1.034895455437049</v>
+        <v>1.034207318020687</v>
       </c>
       <c r="M24">
-        <v>1.051917913248348</v>
+        <v>1.050478899560969</v>
       </c>
       <c r="N24">
-        <v>1.013415361593682</v>
+        <v>1.014755556598306</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.049661879076905</v>
+        <v>1.048523009592642</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.049922397977059</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.047834235288202</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.026075863413823</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.007252304662866</v>
+        <v>1.006660776553773</v>
       </c>
       <c r="D25">
-        <v>1.045092380464038</v>
+        <v>1.041793738412538</v>
       </c>
       <c r="E25">
-        <v>1.025721352343904</v>
+        <v>1.024887105525595</v>
       </c>
       <c r="F25">
-        <v>1.042672811960787</v>
+        <v>1.041045618224137</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.057712269919314</v>
+        <v>1.056301593600408</v>
       </c>
       <c r="J25">
-        <v>1.031538040759741</v>
+        <v>1.030966039624698</v>
       </c>
       <c r="K25">
-        <v>1.057028818809373</v>
+        <v>1.053776141946964</v>
       </c>
       <c r="L25">
-        <v>1.037933080532289</v>
+        <v>1.03711098600439</v>
       </c>
       <c r="M25">
-        <v>1.054642930095594</v>
+        <v>1.053038497669844</v>
       </c>
       <c r="N25">
-        <v>1.014385261165759</v>
+        <v>1.015442562011161</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.051818517129953</v>
+        <v>1.050548734899141</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.051441921929304</v>
+        <v>1.049155513329502</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.02641434678353</v>
       </c>
     </row>
   </sheetData>
